--- a/DSP/ATA-Backend/Mapping DSP.xlsx
+++ b/DSP/ATA-Backend/Mapping DSP.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4110" uniqueCount="781">
   <si>
     <t xml:space="preserve">Digitizer</t>
   </si>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">20-B-13Y</t>
   </si>
   <si>
-    <t xml:space="preserve">20-B-14X</t>
+    <t xml:space="preserve">20-C-19Y</t>
   </si>
   <si>
     <t xml:space="preserve">20-B-14Y</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t xml:space="preserve">20-C-1X</t>
+    <t xml:space="preserve">25-C-1X</t>
   </si>
   <si>
     <t xml:space="preserve">Att 11</t>
@@ -1052,52 +1052,52 @@
     <t xml:space="preserve">dsp-sw2</t>
   </si>
   <si>
-    <t xml:space="preserve">20-C-1Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-2X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-2Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-3X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-3Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-4X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-4Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-5X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-5Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-6X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-6Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-7X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-7Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-8X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-8Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-9X</t>
+    <t xml:space="preserve">25-C-1Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-2X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-2Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-3X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-3Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-4X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-4Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-5X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-5Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-6X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-6Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-7X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-7Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-8X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-8Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-9X</t>
   </si>
   <si>
     <t xml:space="preserve">Att 12</t>
@@ -1106,52 +1106,52 @@
     <t xml:space="preserve">RFSoC 12</t>
   </si>
   <si>
-    <t xml:space="preserve">20-C-9Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-10X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-10Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-11X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-11Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-12X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-12Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-13X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-13Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-14X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-14Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-15X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-15Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-16X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-16Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-17X</t>
+    <t xml:space="preserve">25-C-9Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-10X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-10Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-11X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-11Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-12X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-12Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-13X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-13Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-14X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-14Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-15X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-15Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-16X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-16Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-17X</t>
   </si>
   <si>
     <t xml:space="preserve">Att 13</t>
@@ -1160,52 +1160,52 @@
     <t xml:space="preserve">RFSoC 13</t>
   </si>
   <si>
-    <t xml:space="preserve">20-C-17Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-18X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-18Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-19X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-19Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-20X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-20Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-21X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-21Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-22X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-22Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-23X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-23Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-24X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-24Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-25X</t>
+    <t xml:space="preserve">25-C-17Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-18X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-18Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-19X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-19Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-20X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-20Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-21X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-21Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-22X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-22Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-23X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-23Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-24X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-24Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-25X</t>
   </si>
   <si>
     <t xml:space="preserve">Att 14</t>
@@ -1214,52 +1214,52 @@
     <t xml:space="preserve">RFSoC 14</t>
   </si>
   <si>
-    <t xml:space="preserve">20-C-25Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-26X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-26Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-27X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-27Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-28X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-28Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-29X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-29Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-30X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-30Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-31X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-31Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-32X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-32Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-33X</t>
+    <t xml:space="preserve">25-C-25Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-26X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-26Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-27X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-27Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-28X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-28Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-29X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-29Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-30X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-30Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-31X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-31Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-32X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-32Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-33X</t>
   </si>
   <si>
     <t xml:space="preserve">Att 15</t>
@@ -1268,61 +1268,61 @@
     <t xml:space="preserve">RFSoC 15</t>
   </si>
   <si>
-    <t xml:space="preserve">20-C-33Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-34X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-34Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-35X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-35Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-36X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-36Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-37X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-37Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-38X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-38Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-39X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-39Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-40X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-40Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-41X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-41Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-42X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-C-42Y</t>
+    <t xml:space="preserve">25-C-33Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-34X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-34Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-35X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-35Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-36X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-36Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-37X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-37Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-38X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-38Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-39X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-39Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-40X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-40Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-41X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-41Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-42X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-C-42Y</t>
   </si>
   <si>
     <t xml:space="preserve">D</t>
@@ -2373,7 +2373,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2433,6 +2433,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2687,7 +2693,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2984,6 +2990,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3095,7 +3113,7 @@
       <selection pane="topLeft" activeCell="P25" activeCellId="0" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3848,11 +3866,11 @@
   </sheetPr>
   <dimension ref="A1:Y347"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K324" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y344" activeCellId="0" sqref="Y344"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F261" activeCellId="0" sqref="F261"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.67"/>
@@ -10530,7 +10548,7 @@
       <c r="E118" s="35" t="n">
         <v>20</v>
       </c>
-      <c r="F118" s="37" t="s">
+      <c r="F118" s="74" t="s">
         <v>274</v>
       </c>
       <c r="G118" s="36"/>
@@ -11639,7 +11657,9 @@
       <c r="C137" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="D137" s="46"/>
+      <c r="D137" s="75" t="s">
+        <v>274</v>
+      </c>
       <c r="E137" s="45" t="n">
         <v>20</v>
       </c>
@@ -12053,8 +12073,8 @@
         <v>243</v>
       </c>
       <c r="D144" s="50"/>
-      <c r="E144" s="49" t="n">
-        <v>20</v>
+      <c r="E144" s="76" t="s">
+        <v>274</v>
       </c>
       <c r="F144" s="51" t="s">
         <v>304</v>
@@ -13936,7 +13956,7 @@
       </c>
       <c r="D178" s="27"/>
       <c r="E178" s="26" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F178" s="27" t="s">
         <v>339</v>
@@ -13999,7 +14019,7 @@
       </c>
       <c r="D179" s="31"/>
       <c r="E179" s="30" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F179" s="31" t="s">
         <v>343</v>
@@ -14058,7 +14078,7 @@
       </c>
       <c r="D180" s="27"/>
       <c r="E180" s="26" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F180" s="27" t="s">
         <v>344</v>
@@ -14115,7 +14135,7 @@
       </c>
       <c r="D181" s="31"/>
       <c r="E181" s="30" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F181" s="31" t="s">
         <v>345</v>
@@ -14174,7 +14194,7 @@
       </c>
       <c r="D182" s="27"/>
       <c r="E182" s="26" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F182" s="27" t="s">
         <v>346</v>
@@ -14231,7 +14251,7 @@
       </c>
       <c r="D183" s="31"/>
       <c r="E183" s="30" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F183" s="31" t="s">
         <v>347</v>
@@ -14290,7 +14310,7 @@
       </c>
       <c r="D184" s="27"/>
       <c r="E184" s="26" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F184" s="27" t="s">
         <v>348</v>
@@ -14347,7 +14367,7 @@
       </c>
       <c r="D185" s="31"/>
       <c r="E185" s="30" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F185" s="31" t="s">
         <v>349</v>
@@ -14406,7 +14426,7 @@
       </c>
       <c r="D186" s="27"/>
       <c r="E186" s="26" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F186" s="27" t="s">
         <v>350</v>
@@ -14469,7 +14489,7 @@
       </c>
       <c r="D187" s="31"/>
       <c r="E187" s="30" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F187" s="31" t="s">
         <v>351</v>
@@ -14528,7 +14548,7 @@
       </c>
       <c r="D188" s="27"/>
       <c r="E188" s="26" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F188" s="27" t="s">
         <v>352</v>
@@ -14585,7 +14605,7 @@
       </c>
       <c r="D189" s="31"/>
       <c r="E189" s="30" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F189" s="31" t="s">
         <v>353</v>
@@ -14644,7 +14664,7 @@
       </c>
       <c r="D190" s="27"/>
       <c r="E190" s="26" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F190" s="27" t="s">
         <v>354</v>
@@ -14701,7 +14721,7 @@
       </c>
       <c r="D191" s="31"/>
       <c r="E191" s="30" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F191" s="31" t="s">
         <v>355</v>
@@ -14760,7 +14780,7 @@
       </c>
       <c r="D192" s="27"/>
       <c r="E192" s="26" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F192" s="32" t="s">
         <v>356</v>
@@ -14817,7 +14837,7 @@
       </c>
       <c r="D193" s="31"/>
       <c r="E193" s="30" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F193" s="33" t="s">
         <v>357</v>
@@ -14876,7 +14896,7 @@
       </c>
       <c r="D194" s="36"/>
       <c r="E194" s="35" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F194" s="37" t="s">
         <v>358</v>
@@ -14939,7 +14959,7 @@
       </c>
       <c r="D195" s="39"/>
       <c r="E195" s="38" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F195" s="40" t="s">
         <v>361</v>
@@ -14998,7 +15018,7 @@
       </c>
       <c r="D196" s="36"/>
       <c r="E196" s="35" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F196" s="37" t="s">
         <v>362</v>
@@ -15055,7 +15075,7 @@
       </c>
       <c r="D197" s="39"/>
       <c r="E197" s="38" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F197" s="40" t="s">
         <v>363</v>
@@ -15114,7 +15134,7 @@
       </c>
       <c r="D198" s="36"/>
       <c r="E198" s="35" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F198" s="37" t="s">
         <v>364</v>
@@ -15171,7 +15191,7 @@
       </c>
       <c r="D199" s="39"/>
       <c r="E199" s="38" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F199" s="40" t="s">
         <v>365</v>
@@ -15230,7 +15250,7 @@
       </c>
       <c r="D200" s="36"/>
       <c r="E200" s="35" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F200" s="37" t="s">
         <v>366</v>
@@ -15287,7 +15307,7 @@
       </c>
       <c r="D201" s="39"/>
       <c r="E201" s="38" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F201" s="40" t="s">
         <v>367</v>
@@ -15346,7 +15366,7 @@
       </c>
       <c r="D202" s="36"/>
       <c r="E202" s="35" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F202" s="37" t="s">
         <v>368</v>
@@ -15409,7 +15429,7 @@
       </c>
       <c r="D203" s="39"/>
       <c r="E203" s="38" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F203" s="40" t="s">
         <v>369</v>
@@ -15468,7 +15488,7 @@
       </c>
       <c r="D204" s="36"/>
       <c r="E204" s="35" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F204" s="37" t="s">
         <v>370</v>
@@ -15525,7 +15545,7 @@
       </c>
       <c r="D205" s="39"/>
       <c r="E205" s="38" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F205" s="40" t="s">
         <v>371</v>
@@ -15584,7 +15604,7 @@
       </c>
       <c r="D206" s="36"/>
       <c r="E206" s="35" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F206" s="37" t="s">
         <v>372</v>
@@ -15641,7 +15661,7 @@
       </c>
       <c r="D207" s="39"/>
       <c r="E207" s="38" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F207" s="40" t="s">
         <v>373</v>
@@ -15700,7 +15720,7 @@
       </c>
       <c r="D208" s="36"/>
       <c r="E208" s="35" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F208" s="37" t="s">
         <v>374</v>
@@ -15757,7 +15777,7 @@
       </c>
       <c r="D209" s="39"/>
       <c r="E209" s="38" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F209" s="40" t="s">
         <v>375</v>
@@ -15816,7 +15836,7 @@
       </c>
       <c r="D210" s="43"/>
       <c r="E210" s="42" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F210" s="44" t="s">
         <v>376</v>
@@ -15879,7 +15899,7 @@
       </c>
       <c r="D211" s="46"/>
       <c r="E211" s="45" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F211" s="47" t="s">
         <v>379</v>
@@ -15938,7 +15958,7 @@
       </c>
       <c r="D212" s="43"/>
       <c r="E212" s="42" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F212" s="44" t="s">
         <v>380</v>
@@ -15995,7 +16015,7 @@
       </c>
       <c r="D213" s="46"/>
       <c r="E213" s="45" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F213" s="47" t="s">
         <v>381</v>
@@ -16054,7 +16074,7 @@
       </c>
       <c r="D214" s="43"/>
       <c r="E214" s="42" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F214" s="44" t="s">
         <v>382</v>
@@ -16111,7 +16131,7 @@
       </c>
       <c r="D215" s="46"/>
       <c r="E215" s="45" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F215" s="47" t="s">
         <v>383</v>
@@ -16170,7 +16190,7 @@
       </c>
       <c r="D216" s="43"/>
       <c r="E216" s="42" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F216" s="44" t="s">
         <v>384</v>
@@ -16227,7 +16247,7 @@
       </c>
       <c r="D217" s="46"/>
       <c r="E217" s="45" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F217" s="47" t="s">
         <v>385</v>
@@ -16286,7 +16306,7 @@
       </c>
       <c r="D218" s="43"/>
       <c r="E218" s="42" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F218" s="44" t="s">
         <v>386</v>
@@ -16349,7 +16369,7 @@
       </c>
       <c r="D219" s="46"/>
       <c r="E219" s="45" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F219" s="47" t="s">
         <v>387</v>
@@ -16408,7 +16428,7 @@
       </c>
       <c r="D220" s="43"/>
       <c r="E220" s="42" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F220" s="44" t="s">
         <v>388</v>
@@ -16465,7 +16485,7 @@
       </c>
       <c r="D221" s="46"/>
       <c r="E221" s="45" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F221" s="47" t="s">
         <v>389</v>
@@ -16524,7 +16544,7 @@
       </c>
       <c r="D222" s="43"/>
       <c r="E222" s="42" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F222" s="44" t="s">
         <v>390</v>
@@ -16581,7 +16601,7 @@
       </c>
       <c r="D223" s="46"/>
       <c r="E223" s="45" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F223" s="47" t="s">
         <v>391</v>
@@ -16640,7 +16660,7 @@
       </c>
       <c r="D224" s="43"/>
       <c r="E224" s="42" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F224" s="44" t="s">
         <v>392</v>
@@ -16697,7 +16717,7 @@
       </c>
       <c r="D225" s="46"/>
       <c r="E225" s="45" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F225" s="47" t="s">
         <v>393</v>
@@ -16756,7 +16776,7 @@
       </c>
       <c r="D226" s="50"/>
       <c r="E226" s="49" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F226" s="51" t="s">
         <v>394</v>
@@ -16819,7 +16839,7 @@
       </c>
       <c r="D227" s="53"/>
       <c r="E227" s="52" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F227" s="54" t="s">
         <v>397</v>
@@ -16878,7 +16898,7 @@
       </c>
       <c r="D228" s="50"/>
       <c r="E228" s="49" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F228" s="51" t="s">
         <v>398</v>
@@ -16935,7 +16955,7 @@
       </c>
       <c r="D229" s="53"/>
       <c r="E229" s="52" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F229" s="54" t="s">
         <v>399</v>
@@ -16994,7 +17014,7 @@
       </c>
       <c r="D230" s="50"/>
       <c r="E230" s="49" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F230" s="51" t="s">
         <v>400</v>
@@ -17051,7 +17071,7 @@
       </c>
       <c r="D231" s="53"/>
       <c r="E231" s="52" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F231" s="54" t="s">
         <v>401</v>
@@ -17110,7 +17130,7 @@
       </c>
       <c r="D232" s="50"/>
       <c r="E232" s="49" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F232" s="51" t="s">
         <v>402</v>
@@ -17167,7 +17187,7 @@
       </c>
       <c r="D233" s="53"/>
       <c r="E233" s="52" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F233" s="54" t="s">
         <v>403</v>
@@ -17226,7 +17246,7 @@
       </c>
       <c r="D234" s="50"/>
       <c r="E234" s="49" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F234" s="51" t="s">
         <v>404</v>
@@ -17289,7 +17309,7 @@
       </c>
       <c r="D235" s="53"/>
       <c r="E235" s="52" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F235" s="54" t="s">
         <v>405</v>
@@ -17348,7 +17368,7 @@
       </c>
       <c r="D236" s="50"/>
       <c r="E236" s="49" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F236" s="51" t="s">
         <v>406</v>
@@ -17405,7 +17425,7 @@
       </c>
       <c r="D237" s="53"/>
       <c r="E237" s="52" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F237" s="54" t="s">
         <v>407</v>
@@ -17464,7 +17484,7 @@
       </c>
       <c r="D238" s="50"/>
       <c r="E238" s="49" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F238" s="51" t="s">
         <v>408</v>
@@ -17521,7 +17541,7 @@
       </c>
       <c r="D239" s="53"/>
       <c r="E239" s="52" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F239" s="54" t="s">
         <v>409</v>
@@ -17580,7 +17600,7 @@
       </c>
       <c r="D240" s="50"/>
       <c r="E240" s="49" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F240" s="51" t="s">
         <v>410</v>
@@ -17637,7 +17657,7 @@
       </c>
       <c r="D241" s="53"/>
       <c r="E241" s="52" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F241" s="54" t="s">
         <v>411</v>
@@ -17696,7 +17716,7 @@
       </c>
       <c r="D242" s="57"/>
       <c r="E242" s="56" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F242" s="58" t="s">
         <v>412</v>
@@ -17759,7 +17779,7 @@
       </c>
       <c r="D243" s="60"/>
       <c r="E243" s="59" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F243" s="61" t="s">
         <v>415</v>
@@ -17818,7 +17838,7 @@
       </c>
       <c r="D244" s="57"/>
       <c r="E244" s="56" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F244" s="58" t="s">
         <v>416</v>
@@ -17875,7 +17895,7 @@
       </c>
       <c r="D245" s="60"/>
       <c r="E245" s="59" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F245" s="61" t="s">
         <v>417</v>
@@ -17934,7 +17954,7 @@
       </c>
       <c r="D246" s="57"/>
       <c r="E246" s="56" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F246" s="58" t="s">
         <v>418</v>
@@ -17991,7 +18011,7 @@
       </c>
       <c r="D247" s="60"/>
       <c r="E247" s="59" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F247" s="61" t="s">
         <v>419</v>
@@ -18050,7 +18070,7 @@
       </c>
       <c r="D248" s="57"/>
       <c r="E248" s="56" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F248" s="58" t="s">
         <v>420</v>
@@ -18107,7 +18127,7 @@
       </c>
       <c r="D249" s="60"/>
       <c r="E249" s="59" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F249" s="61" t="s">
         <v>421</v>
@@ -18166,7 +18186,7 @@
       </c>
       <c r="D250" s="57"/>
       <c r="E250" s="56" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F250" s="58" t="s">
         <v>422</v>
@@ -18229,7 +18249,7 @@
       </c>
       <c r="D251" s="60"/>
       <c r="E251" s="59" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F251" s="61" t="s">
         <v>423</v>
@@ -18288,7 +18308,7 @@
       </c>
       <c r="D252" s="57"/>
       <c r="E252" s="56" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F252" s="58" t="s">
         <v>424</v>
@@ -18345,7 +18365,7 @@
       </c>
       <c r="D253" s="60"/>
       <c r="E253" s="59" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F253" s="61" t="s">
         <v>425</v>
@@ -18404,7 +18424,7 @@
       </c>
       <c r="D254" s="57"/>
       <c r="E254" s="56" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F254" s="58" t="s">
         <v>426</v>
@@ -18461,7 +18481,7 @@
       </c>
       <c r="D255" s="60"/>
       <c r="E255" s="59" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F255" s="61" t="s">
         <v>427</v>
@@ -18520,7 +18540,7 @@
       </c>
       <c r="D256" s="57"/>
       <c r="E256" s="56" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F256" s="58" t="s">
         <v>428</v>
@@ -18577,7 +18597,7 @@
       </c>
       <c r="D257" s="60"/>
       <c r="E257" s="59" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F257" s="61" t="s">
         <v>429</v>
@@ -18636,7 +18656,7 @@
       </c>
       <c r="D258" s="64"/>
       <c r="E258" s="63" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F258" s="65" t="s">
         <v>430</v>
@@ -18699,7 +18719,7 @@
       </c>
       <c r="D259" s="67"/>
       <c r="E259" s="66" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F259" s="68" t="s">
         <v>431</v>
@@ -18758,7 +18778,7 @@
       </c>
       <c r="D260" s="64"/>
       <c r="E260" s="63" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F260" s="65" t="s">
         <v>432</v>
@@ -18815,7 +18835,7 @@
       </c>
       <c r="D261" s="67"/>
       <c r="E261" s="66" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F261" s="68" t="s">
         <v>433</v>
@@ -20745,58 +20765,58 @@
       <c r="Y295" s="29"/>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="74" t="s">
+      <c r="A296" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="B296" s="75" t="s">
+      <c r="B296" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="C296" s="75" t="s">
+      <c r="C296" s="78" t="s">
         <v>434</v>
       </c>
-      <c r="D296" s="76"/>
-      <c r="E296" s="75" t="n">
-        <v>20</v>
-      </c>
-      <c r="F296" s="77" t="s">
+      <c r="D296" s="79"/>
+      <c r="E296" s="78" t="n">
+        <v>20</v>
+      </c>
+      <c r="F296" s="80" t="s">
         <v>567</v>
       </c>
-      <c r="G296" s="76"/>
-      <c r="H296" s="75" t="s">
+      <c r="G296" s="79"/>
+      <c r="H296" s="78" t="s">
         <v>568</v>
       </c>
-      <c r="I296" s="75" t="s">
+      <c r="I296" s="78" t="s">
         <v>569</v>
       </c>
-      <c r="J296" s="76"/>
-      <c r="K296" s="75" t="n">
+      <c r="J296" s="79"/>
+      <c r="K296" s="78" t="n">
         <v>25</v>
       </c>
-      <c r="L296" s="77" t="s">
+      <c r="L296" s="80" t="s">
         <v>570</v>
       </c>
-      <c r="M296" s="76"/>
-      <c r="N296" s="75" t="n">
+      <c r="M296" s="79"/>
+      <c r="N296" s="78" t="n">
         <v>1</v>
       </c>
-      <c r="O296" s="76" t="s">
+      <c r="O296" s="79" t="s">
         <v>571</v>
       </c>
-      <c r="P296" s="75" t="n">
+      <c r="P296" s="78" t="n">
         <v>1</v>
       </c>
-      <c r="Q296" s="76"/>
-      <c r="R296" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="S296" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="T296" s="76"/>
-      <c r="U296" s="75" t="n">
+      <c r="Q296" s="79"/>
+      <c r="R296" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="S296" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="T296" s="79"/>
+      <c r="U296" s="78" t="n">
         <v>1</v>
       </c>
-      <c r="V296" s="76" t="s">
+      <c r="V296" s="79" t="s">
         <v>572</v>
       </c>
       <c r="W296" s="28" t="s">
@@ -20810,56 +20830,56 @@
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="74"/>
-      <c r="B297" s="78" t="s">
+      <c r="A297" s="77"/>
+      <c r="B297" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="C297" s="78" t="s">
+      <c r="C297" s="81" t="s">
         <v>434</v>
       </c>
-      <c r="D297" s="79"/>
-      <c r="E297" s="78" t="n">
-        <v>20</v>
-      </c>
-      <c r="F297" s="80" t="s">
+      <c r="D297" s="82"/>
+      <c r="E297" s="81" t="n">
+        <v>20</v>
+      </c>
+      <c r="F297" s="83" t="s">
         <v>573</v>
       </c>
-      <c r="G297" s="79"/>
-      <c r="H297" s="78" t="s">
+      <c r="G297" s="82"/>
+      <c r="H297" s="81" t="s">
         <v>574</v>
       </c>
-      <c r="I297" s="78" t="s">
+      <c r="I297" s="81" t="s">
         <v>575</v>
       </c>
-      <c r="J297" s="79"/>
-      <c r="K297" s="78" t="n">
+      <c r="J297" s="82"/>
+      <c r="K297" s="81" t="n">
         <v>25</v>
       </c>
-      <c r="L297" s="80" t="s">
+      <c r="L297" s="83" t="s">
         <v>576</v>
       </c>
-      <c r="M297" s="79"/>
-      <c r="N297" s="78" t="n">
+      <c r="M297" s="82"/>
+      <c r="N297" s="81" t="n">
         <v>2</v>
       </c>
-      <c r="O297" s="79" t="s">
+      <c r="O297" s="82" t="s">
         <v>571</v>
       </c>
-      <c r="P297" s="78" t="n">
+      <c r="P297" s="81" t="n">
         <v>2</v>
       </c>
-      <c r="Q297" s="79"/>
-      <c r="R297" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="S297" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="T297" s="79"/>
-      <c r="U297" s="78" t="n">
+      <c r="Q297" s="82"/>
+      <c r="R297" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="S297" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="T297" s="82"/>
+      <c r="U297" s="81" t="n">
         <v>2</v>
       </c>
-      <c r="V297" s="79" t="s">
+      <c r="V297" s="82" t="s">
         <v>572</v>
       </c>
       <c r="W297" s="28"/>
@@ -20867,58 +20887,58 @@
       <c r="Y297" s="29"/>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="74" t="s">
+      <c r="A298" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="B298" s="75" t="s">
+      <c r="B298" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="C298" s="75" t="s">
+      <c r="C298" s="78" t="s">
         <v>434</v>
       </c>
-      <c r="D298" s="76"/>
-      <c r="E298" s="75" t="n">
-        <v>20</v>
-      </c>
-      <c r="F298" s="77" t="s">
+      <c r="D298" s="79"/>
+      <c r="E298" s="78" t="n">
+        <v>20</v>
+      </c>
+      <c r="F298" s="80" t="s">
         <v>577</v>
       </c>
-      <c r="G298" s="76"/>
-      <c r="H298" s="75" t="s">
+      <c r="G298" s="79"/>
+      <c r="H298" s="78" t="s">
         <v>578</v>
       </c>
-      <c r="I298" s="75" t="s">
+      <c r="I298" s="78" t="s">
         <v>579</v>
       </c>
-      <c r="J298" s="76"/>
-      <c r="K298" s="75" t="n">
+      <c r="J298" s="79"/>
+      <c r="K298" s="78" t="n">
         <v>25</v>
       </c>
-      <c r="L298" s="77" t="s">
+      <c r="L298" s="80" t="s">
         <v>580</v>
       </c>
-      <c r="M298" s="76"/>
-      <c r="N298" s="75" t="n">
+      <c r="M298" s="79"/>
+      <c r="N298" s="78" t="n">
         <v>3</v>
       </c>
-      <c r="O298" s="76" t="s">
+      <c r="O298" s="79" t="s">
         <v>571</v>
       </c>
-      <c r="P298" s="75" t="n">
+      <c r="P298" s="78" t="n">
         <v>3</v>
       </c>
-      <c r="Q298" s="76"/>
-      <c r="R298" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="S298" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="T298" s="76"/>
-      <c r="U298" s="75" t="n">
+      <c r="Q298" s="79"/>
+      <c r="R298" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="S298" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="T298" s="79"/>
+      <c r="U298" s="78" t="n">
         <v>3</v>
       </c>
-      <c r="V298" s="76" t="s">
+      <c r="V298" s="79" t="s">
         <v>572</v>
       </c>
       <c r="W298" s="28"/>
@@ -20926,56 +20946,56 @@
       <c r="Y298" s="29"/>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="74"/>
-      <c r="B299" s="78" t="s">
+      <c r="A299" s="77"/>
+      <c r="B299" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="C299" s="78" t="s">
+      <c r="C299" s="81" t="s">
         <v>434</v>
       </c>
-      <c r="D299" s="79"/>
-      <c r="E299" s="78" t="n">
-        <v>20</v>
-      </c>
-      <c r="F299" s="80" t="s">
+      <c r="D299" s="82"/>
+      <c r="E299" s="81" t="n">
+        <v>20</v>
+      </c>
+      <c r="F299" s="83" t="s">
         <v>581</v>
       </c>
-      <c r="G299" s="79"/>
-      <c r="H299" s="78" t="s">
+      <c r="G299" s="82"/>
+      <c r="H299" s="81" t="s">
         <v>582</v>
       </c>
-      <c r="I299" s="78" t="s">
+      <c r="I299" s="81" t="s">
         <v>583</v>
       </c>
-      <c r="J299" s="79"/>
-      <c r="K299" s="78" t="n">
+      <c r="J299" s="82"/>
+      <c r="K299" s="81" t="n">
         <v>25</v>
       </c>
-      <c r="L299" s="80" t="s">
+      <c r="L299" s="83" t="s">
         <v>584</v>
       </c>
-      <c r="M299" s="79"/>
-      <c r="N299" s="78" t="n">
+      <c r="M299" s="82"/>
+      <c r="N299" s="81" t="n">
         <v>4</v>
       </c>
-      <c r="O299" s="79" t="s">
+      <c r="O299" s="82" t="s">
         <v>571</v>
       </c>
-      <c r="P299" s="78" t="n">
+      <c r="P299" s="81" t="n">
         <v>4</v>
       </c>
-      <c r="Q299" s="79"/>
-      <c r="R299" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="S299" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="T299" s="79"/>
-      <c r="U299" s="78" t="n">
+      <c r="Q299" s="82"/>
+      <c r="R299" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="S299" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="T299" s="82"/>
+      <c r="U299" s="81" t="n">
         <v>4</v>
       </c>
-      <c r="V299" s="79" t="s">
+      <c r="V299" s="82" t="s">
         <v>572</v>
       </c>
       <c r="W299" s="28"/>
@@ -20983,58 +21003,58 @@
       <c r="Y299" s="29"/>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="74" t="s">
+      <c r="A300" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="B300" s="75" t="s">
+      <c r="B300" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="C300" s="75" t="s">
+      <c r="C300" s="78" t="s">
         <v>434</v>
       </c>
-      <c r="D300" s="76"/>
-      <c r="E300" s="75" t="n">
-        <v>20</v>
-      </c>
-      <c r="F300" s="77" t="s">
+      <c r="D300" s="79"/>
+      <c r="E300" s="78" t="n">
+        <v>20</v>
+      </c>
+      <c r="F300" s="80" t="s">
         <v>585</v>
       </c>
-      <c r="G300" s="76"/>
-      <c r="H300" s="75" t="s">
+      <c r="G300" s="79"/>
+      <c r="H300" s="78" t="s">
         <v>586</v>
       </c>
-      <c r="I300" s="75" t="s">
+      <c r="I300" s="78" t="s">
         <v>587</v>
       </c>
-      <c r="J300" s="76"/>
-      <c r="K300" s="75" t="n">
+      <c r="J300" s="79"/>
+      <c r="K300" s="78" t="n">
         <v>25</v>
       </c>
-      <c r="L300" s="77" t="s">
+      <c r="L300" s="80" t="s">
         <v>588</v>
       </c>
-      <c r="M300" s="76"/>
-      <c r="N300" s="75" t="n">
+      <c r="M300" s="79"/>
+      <c r="N300" s="78" t="n">
         <v>5</v>
       </c>
-      <c r="O300" s="76" t="s">
+      <c r="O300" s="79" t="s">
         <v>571</v>
       </c>
-      <c r="P300" s="75" t="n">
+      <c r="P300" s="78" t="n">
         <v>5</v>
       </c>
-      <c r="Q300" s="76"/>
-      <c r="R300" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="S300" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="T300" s="76"/>
-      <c r="U300" s="75" t="n">
+      <c r="Q300" s="79"/>
+      <c r="R300" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="S300" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="T300" s="79"/>
+      <c r="U300" s="78" t="n">
         <v>5</v>
       </c>
-      <c r="V300" s="76" t="s">
+      <c r="V300" s="79" t="s">
         <v>572</v>
       </c>
       <c r="W300" s="28"/>
@@ -21042,56 +21062,56 @@
       <c r="Y300" s="29"/>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="74"/>
-      <c r="B301" s="78" t="s">
+      <c r="A301" s="77"/>
+      <c r="B301" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="C301" s="78" t="s">
+      <c r="C301" s="81" t="s">
         <v>434</v>
       </c>
-      <c r="D301" s="79"/>
-      <c r="E301" s="78" t="n">
-        <v>20</v>
-      </c>
-      <c r="F301" s="80" t="s">
+      <c r="D301" s="82"/>
+      <c r="E301" s="81" t="n">
+        <v>20</v>
+      </c>
+      <c r="F301" s="83" t="s">
         <v>589</v>
       </c>
-      <c r="G301" s="79"/>
-      <c r="H301" s="78" t="s">
+      <c r="G301" s="82"/>
+      <c r="H301" s="81" t="s">
         <v>590</v>
       </c>
-      <c r="I301" s="78" t="s">
+      <c r="I301" s="81" t="s">
         <v>591</v>
       </c>
-      <c r="J301" s="79"/>
-      <c r="K301" s="78" t="n">
+      <c r="J301" s="82"/>
+      <c r="K301" s="81" t="n">
         <v>25</v>
       </c>
-      <c r="L301" s="80" t="s">
+      <c r="L301" s="83" t="s">
         <v>592</v>
       </c>
-      <c r="M301" s="79"/>
-      <c r="N301" s="78" t="n">
+      <c r="M301" s="82"/>
+      <c r="N301" s="81" t="n">
         <v>6</v>
       </c>
-      <c r="O301" s="79" t="s">
+      <c r="O301" s="82" t="s">
         <v>571</v>
       </c>
-      <c r="P301" s="78" t="n">
+      <c r="P301" s="81" t="n">
         <v>6</v>
       </c>
-      <c r="Q301" s="79"/>
-      <c r="R301" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="S301" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="T301" s="79"/>
-      <c r="U301" s="78" t="n">
+      <c r="Q301" s="82"/>
+      <c r="R301" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="S301" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="T301" s="82"/>
+      <c r="U301" s="81" t="n">
         <v>6</v>
       </c>
-      <c r="V301" s="79" t="s">
+      <c r="V301" s="82" t="s">
         <v>572</v>
       </c>
       <c r="W301" s="28"/>
@@ -21099,58 +21119,58 @@
       <c r="Y301" s="29"/>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="74" t="s">
+      <c r="A302" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="B302" s="75" t="s">
+      <c r="B302" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="C302" s="75" t="s">
+      <c r="C302" s="78" t="s">
         <v>434</v>
       </c>
-      <c r="D302" s="76"/>
-      <c r="E302" s="75" t="n">
-        <v>20</v>
-      </c>
-      <c r="F302" s="77" t="s">
+      <c r="D302" s="79"/>
+      <c r="E302" s="78" t="n">
+        <v>20</v>
+      </c>
+      <c r="F302" s="80" t="s">
         <v>593</v>
       </c>
-      <c r="G302" s="76"/>
-      <c r="H302" s="75" t="s">
+      <c r="G302" s="79"/>
+      <c r="H302" s="78" t="s">
         <v>594</v>
       </c>
-      <c r="I302" s="75" t="s">
+      <c r="I302" s="78" t="s">
         <v>595</v>
       </c>
-      <c r="J302" s="76"/>
-      <c r="K302" s="75" t="n">
+      <c r="J302" s="79"/>
+      <c r="K302" s="78" t="n">
         <v>25</v>
       </c>
-      <c r="L302" s="77" t="s">
+      <c r="L302" s="80" t="s">
         <v>596</v>
       </c>
-      <c r="M302" s="76"/>
-      <c r="N302" s="75" t="n">
+      <c r="M302" s="79"/>
+      <c r="N302" s="78" t="n">
         <v>7</v>
       </c>
-      <c r="O302" s="76" t="s">
+      <c r="O302" s="79" t="s">
         <v>571</v>
       </c>
-      <c r="P302" s="75" t="n">
+      <c r="P302" s="78" t="n">
         <v>7</v>
       </c>
-      <c r="Q302" s="76"/>
-      <c r="R302" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="S302" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="T302" s="76"/>
-      <c r="U302" s="75" t="n">
+      <c r="Q302" s="79"/>
+      <c r="R302" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="S302" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="T302" s="79"/>
+      <c r="U302" s="78" t="n">
         <v>7</v>
       </c>
-      <c r="V302" s="76" t="s">
+      <c r="V302" s="79" t="s">
         <v>572</v>
       </c>
       <c r="W302" s="28"/>
@@ -21158,56 +21178,56 @@
       <c r="Y302" s="29"/>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="74"/>
-      <c r="B303" s="78" t="s">
+      <c r="A303" s="77"/>
+      <c r="B303" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="C303" s="78" t="s">
+      <c r="C303" s="81" t="s">
         <v>434</v>
       </c>
-      <c r="D303" s="79"/>
-      <c r="E303" s="78" t="n">
-        <v>20</v>
-      </c>
-      <c r="F303" s="80" t="s">
+      <c r="D303" s="82"/>
+      <c r="E303" s="81" t="n">
+        <v>20</v>
+      </c>
+      <c r="F303" s="83" t="s">
         <v>597</v>
       </c>
-      <c r="G303" s="79"/>
-      <c r="H303" s="78" t="s">
+      <c r="G303" s="82"/>
+      <c r="H303" s="81" t="s">
         <v>598</v>
       </c>
-      <c r="I303" s="78" t="s">
+      <c r="I303" s="81" t="s">
         <v>599</v>
       </c>
-      <c r="J303" s="79"/>
-      <c r="K303" s="78" t="n">
+      <c r="J303" s="82"/>
+      <c r="K303" s="81" t="n">
         <v>25</v>
       </c>
-      <c r="L303" s="80" t="s">
+      <c r="L303" s="83" t="s">
         <v>600</v>
       </c>
-      <c r="M303" s="79"/>
-      <c r="N303" s="78" t="n">
+      <c r="M303" s="82"/>
+      <c r="N303" s="81" t="n">
         <v>8</v>
       </c>
-      <c r="O303" s="79" t="s">
+      <c r="O303" s="82" t="s">
         <v>571</v>
       </c>
-      <c r="P303" s="78" t="n">
+      <c r="P303" s="81" t="n">
         <v>8</v>
       </c>
-      <c r="Q303" s="79"/>
-      <c r="R303" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="S303" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="T303" s="79"/>
-      <c r="U303" s="78" t="n">
+      <c r="Q303" s="82"/>
+      <c r="R303" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="S303" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="T303" s="82"/>
+      <c r="U303" s="81" t="n">
         <v>8</v>
       </c>
-      <c r="V303" s="79" t="s">
+      <c r="V303" s="82" t="s">
         <v>572</v>
       </c>
       <c r="W303" s="28"/>
@@ -21215,58 +21235,58 @@
       <c r="Y303" s="29"/>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="74" t="s">
+      <c r="A304" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="B304" s="75" t="s">
+      <c r="B304" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="C304" s="75" t="s">
+      <c r="C304" s="78" t="s">
         <v>434</v>
       </c>
-      <c r="D304" s="76"/>
-      <c r="E304" s="75" t="n">
-        <v>20</v>
-      </c>
-      <c r="F304" s="77" t="s">
+      <c r="D304" s="79"/>
+      <c r="E304" s="78" t="n">
+        <v>20</v>
+      </c>
+      <c r="F304" s="80" t="s">
         <v>601</v>
       </c>
-      <c r="G304" s="76"/>
-      <c r="H304" s="75" t="s">
+      <c r="G304" s="79"/>
+      <c r="H304" s="78" t="s">
         <v>602</v>
       </c>
-      <c r="I304" s="75" t="s">
+      <c r="I304" s="78" t="s">
         <v>603</v>
       </c>
-      <c r="J304" s="76"/>
-      <c r="K304" s="75" t="n">
+      <c r="J304" s="79"/>
+      <c r="K304" s="78" t="n">
         <v>25</v>
       </c>
-      <c r="L304" s="77" t="s">
+      <c r="L304" s="80" t="s">
         <v>604</v>
       </c>
-      <c r="M304" s="76"/>
-      <c r="N304" s="75" t="n">
+      <c r="M304" s="79"/>
+      <c r="N304" s="78" t="n">
         <v>9</v>
       </c>
-      <c r="O304" s="76" t="s">
+      <c r="O304" s="79" t="s">
         <v>571</v>
       </c>
-      <c r="P304" s="75" t="n">
+      <c r="P304" s="78" t="n">
         <v>9</v>
       </c>
-      <c r="Q304" s="76"/>
-      <c r="R304" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="S304" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="T304" s="76"/>
-      <c r="U304" s="75" t="n">
+      <c r="Q304" s="79"/>
+      <c r="R304" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="S304" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="T304" s="79"/>
+      <c r="U304" s="78" t="n">
         <v>9</v>
       </c>
-      <c r="V304" s="76" t="s">
+      <c r="V304" s="79" t="s">
         <v>572</v>
       </c>
       <c r="W304" s="28" t="s">
@@ -21280,56 +21300,56 @@
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="74"/>
-      <c r="B305" s="78" t="s">
+      <c r="A305" s="77"/>
+      <c r="B305" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="C305" s="78" t="s">
+      <c r="C305" s="81" t="s">
         <v>434</v>
       </c>
-      <c r="D305" s="79"/>
-      <c r="E305" s="78" t="n">
-        <v>20</v>
-      </c>
-      <c r="F305" s="80" t="s">
+      <c r="D305" s="82"/>
+      <c r="E305" s="81" t="n">
+        <v>20</v>
+      </c>
+      <c r="F305" s="83" t="s">
         <v>605</v>
       </c>
-      <c r="G305" s="79"/>
-      <c r="H305" s="78" t="s">
+      <c r="G305" s="82"/>
+      <c r="H305" s="81" t="s">
         <v>606</v>
       </c>
-      <c r="I305" s="78" t="s">
+      <c r="I305" s="81" t="s">
         <v>607</v>
       </c>
-      <c r="J305" s="79"/>
-      <c r="K305" s="78" t="n">
+      <c r="J305" s="82"/>
+      <c r="K305" s="81" t="n">
         <v>25</v>
       </c>
-      <c r="L305" s="80" t="s">
+      <c r="L305" s="83" t="s">
         <v>608</v>
       </c>
-      <c r="M305" s="79"/>
-      <c r="N305" s="78" t="n">
+      <c r="M305" s="82"/>
+      <c r="N305" s="81" t="n">
         <v>10</v>
       </c>
-      <c r="O305" s="79" t="s">
+      <c r="O305" s="82" t="s">
         <v>571</v>
       </c>
-      <c r="P305" s="78" t="n">
+      <c r="P305" s="81" t="n">
         <v>10</v>
       </c>
-      <c r="Q305" s="79"/>
-      <c r="R305" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="S305" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="T305" s="79"/>
-      <c r="U305" s="78" t="n">
+      <c r="Q305" s="82"/>
+      <c r="R305" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="S305" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="T305" s="82"/>
+      <c r="U305" s="81" t="n">
         <v>10</v>
       </c>
-      <c r="V305" s="79" t="s">
+      <c r="V305" s="82" t="s">
         <v>572</v>
       </c>
       <c r="W305" s="28"/>
@@ -21337,58 +21357,58 @@
       <c r="Y305" s="29"/>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="74" t="s">
+      <c r="A306" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="B306" s="75" t="s">
+      <c r="B306" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="C306" s="75" t="s">
+      <c r="C306" s="78" t="s">
         <v>434</v>
       </c>
-      <c r="D306" s="76"/>
-      <c r="E306" s="75" t="n">
-        <v>20</v>
-      </c>
-      <c r="F306" s="77" t="s">
+      <c r="D306" s="79"/>
+      <c r="E306" s="78" t="n">
+        <v>20</v>
+      </c>
+      <c r="F306" s="80" t="s">
         <v>609</v>
       </c>
-      <c r="G306" s="76"/>
-      <c r="H306" s="75" t="s">
+      <c r="G306" s="79"/>
+      <c r="H306" s="78" t="s">
         <v>610</v>
       </c>
-      <c r="I306" s="75" t="s">
+      <c r="I306" s="78" t="s">
         <v>611</v>
       </c>
-      <c r="J306" s="76"/>
-      <c r="K306" s="75" t="n">
+      <c r="J306" s="79"/>
+      <c r="K306" s="78" t="n">
         <v>25</v>
       </c>
-      <c r="L306" s="77" t="s">
+      <c r="L306" s="80" t="s">
         <v>612</v>
       </c>
-      <c r="M306" s="76"/>
-      <c r="N306" s="75" t="n">
+      <c r="M306" s="79"/>
+      <c r="N306" s="78" t="n">
         <v>11</v>
       </c>
-      <c r="O306" s="76" t="s">
+      <c r="O306" s="79" t="s">
         <v>571</v>
       </c>
-      <c r="P306" s="75" t="n">
+      <c r="P306" s="78" t="n">
         <v>11</v>
       </c>
-      <c r="Q306" s="76"/>
-      <c r="R306" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="S306" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="T306" s="76"/>
-      <c r="U306" s="75" t="n">
+      <c r="Q306" s="79"/>
+      <c r="R306" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="S306" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="T306" s="79"/>
+      <c r="U306" s="78" t="n">
         <v>11</v>
       </c>
-      <c r="V306" s="76" t="s">
+      <c r="V306" s="79" t="s">
         <v>572</v>
       </c>
       <c r="W306" s="28"/>
@@ -21396,56 +21416,56 @@
       <c r="Y306" s="29"/>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="74"/>
-      <c r="B307" s="78" t="s">
+      <c r="A307" s="77"/>
+      <c r="B307" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="C307" s="78" t="s">
+      <c r="C307" s="81" t="s">
         <v>434</v>
       </c>
-      <c r="D307" s="79"/>
-      <c r="E307" s="78" t="n">
-        <v>20</v>
-      </c>
-      <c r="F307" s="80" t="s">
+      <c r="D307" s="82"/>
+      <c r="E307" s="81" t="n">
+        <v>20</v>
+      </c>
+      <c r="F307" s="83" t="s">
         <v>613</v>
       </c>
-      <c r="G307" s="79"/>
-      <c r="H307" s="78" t="s">
+      <c r="G307" s="82"/>
+      <c r="H307" s="81" t="s">
         <v>614</v>
       </c>
-      <c r="I307" s="78" t="s">
+      <c r="I307" s="81" t="s">
         <v>615</v>
       </c>
-      <c r="J307" s="79"/>
-      <c r="K307" s="78" t="n">
+      <c r="J307" s="82"/>
+      <c r="K307" s="81" t="n">
         <v>25</v>
       </c>
-      <c r="L307" s="80" t="s">
+      <c r="L307" s="83" t="s">
         <v>616</v>
       </c>
-      <c r="M307" s="79"/>
-      <c r="N307" s="78" t="n">
+      <c r="M307" s="82"/>
+      <c r="N307" s="81" t="n">
         <v>12</v>
       </c>
-      <c r="O307" s="79" t="s">
+      <c r="O307" s="82" t="s">
         <v>571</v>
       </c>
-      <c r="P307" s="78" t="n">
+      <c r="P307" s="81" t="n">
         <v>12</v>
       </c>
-      <c r="Q307" s="79"/>
-      <c r="R307" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="S307" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="T307" s="79"/>
-      <c r="U307" s="78" t="n">
+      <c r="Q307" s="82"/>
+      <c r="R307" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="S307" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="T307" s="82"/>
+      <c r="U307" s="81" t="n">
         <v>12</v>
       </c>
-      <c r="V307" s="79" t="s">
+      <c r="V307" s="82" t="s">
         <v>572</v>
       </c>
       <c r="W307" s="28"/>
@@ -21453,58 +21473,58 @@
       <c r="Y307" s="29"/>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="74" t="s">
+      <c r="A308" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="B308" s="75" t="s">
+      <c r="B308" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="C308" s="75" t="s">
+      <c r="C308" s="78" t="s">
         <v>434</v>
       </c>
-      <c r="D308" s="76"/>
-      <c r="E308" s="75" t="n">
-        <v>20</v>
-      </c>
-      <c r="F308" s="77" t="s">
+      <c r="D308" s="79"/>
+      <c r="E308" s="78" t="n">
+        <v>20</v>
+      </c>
+      <c r="F308" s="80" t="s">
         <v>617</v>
       </c>
-      <c r="G308" s="76"/>
-      <c r="H308" s="75" t="s">
+      <c r="G308" s="79"/>
+      <c r="H308" s="78" t="s">
         <v>618</v>
       </c>
-      <c r="I308" s="75" t="s">
+      <c r="I308" s="78" t="s">
         <v>619</v>
       </c>
-      <c r="J308" s="76"/>
-      <c r="K308" s="75" t="n">
+      <c r="J308" s="79"/>
+      <c r="K308" s="78" t="n">
         <v>25</v>
       </c>
-      <c r="L308" s="77" t="s">
+      <c r="L308" s="80" t="s">
         <v>620</v>
       </c>
-      <c r="M308" s="76"/>
-      <c r="N308" s="75" t="n">
+      <c r="M308" s="79"/>
+      <c r="N308" s="78" t="n">
         <v>13</v>
       </c>
-      <c r="O308" s="76" t="s">
+      <c r="O308" s="79" t="s">
         <v>571</v>
       </c>
-      <c r="P308" s="75" t="n">
+      <c r="P308" s="78" t="n">
         <v>13</v>
       </c>
-      <c r="Q308" s="76"/>
-      <c r="R308" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="S308" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="T308" s="76"/>
-      <c r="U308" s="75" t="n">
+      <c r="Q308" s="79"/>
+      <c r="R308" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="S308" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="T308" s="79"/>
+      <c r="U308" s="78" t="n">
         <v>13</v>
       </c>
-      <c r="V308" s="76" t="s">
+      <c r="V308" s="79" t="s">
         <v>572</v>
       </c>
       <c r="W308" s="28"/>
@@ -21512,56 +21532,56 @@
       <c r="Y308" s="29"/>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="74"/>
-      <c r="B309" s="78" t="s">
+      <c r="A309" s="77"/>
+      <c r="B309" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="C309" s="78" t="s">
+      <c r="C309" s="81" t="s">
         <v>434</v>
       </c>
-      <c r="D309" s="79"/>
-      <c r="E309" s="78" t="n">
-        <v>20</v>
-      </c>
-      <c r="F309" s="80" t="s">
+      <c r="D309" s="82"/>
+      <c r="E309" s="81" t="n">
+        <v>20</v>
+      </c>
+      <c r="F309" s="83" t="s">
         <v>621</v>
       </c>
-      <c r="G309" s="79"/>
-      <c r="H309" s="78" t="s">
+      <c r="G309" s="82"/>
+      <c r="H309" s="81" t="s">
         <v>622</v>
       </c>
-      <c r="I309" s="78" t="s">
+      <c r="I309" s="81" t="s">
         <v>623</v>
       </c>
-      <c r="J309" s="79"/>
-      <c r="K309" s="78" t="n">
+      <c r="J309" s="82"/>
+      <c r="K309" s="81" t="n">
         <v>25</v>
       </c>
-      <c r="L309" s="80" t="s">
+      <c r="L309" s="83" t="s">
         <v>624</v>
       </c>
-      <c r="M309" s="79"/>
-      <c r="N309" s="78" t="n">
+      <c r="M309" s="82"/>
+      <c r="N309" s="81" t="n">
         <v>14</v>
       </c>
-      <c r="O309" s="79" t="s">
+      <c r="O309" s="82" t="s">
         <v>571</v>
       </c>
-      <c r="P309" s="78" t="n">
+      <c r="P309" s="81" t="n">
         <v>14</v>
       </c>
-      <c r="Q309" s="79"/>
-      <c r="R309" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="S309" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="T309" s="79"/>
-      <c r="U309" s="78" t="n">
+      <c r="Q309" s="82"/>
+      <c r="R309" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="S309" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="T309" s="82"/>
+      <c r="U309" s="81" t="n">
         <v>14</v>
       </c>
-      <c r="V309" s="79" t="s">
+      <c r="V309" s="82" t="s">
         <v>572</v>
       </c>
       <c r="W309" s="28"/>
@@ -21569,58 +21589,58 @@
       <c r="Y309" s="29"/>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="74" t="s">
+      <c r="A310" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="B310" s="75" t="s">
+      <c r="B310" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="C310" s="75" t="s">
+      <c r="C310" s="78" t="s">
         <v>434</v>
       </c>
-      <c r="D310" s="76"/>
-      <c r="E310" s="75" t="n">
-        <v>20</v>
-      </c>
-      <c r="F310" s="77" t="s">
+      <c r="D310" s="79"/>
+      <c r="E310" s="78" t="n">
+        <v>20</v>
+      </c>
+      <c r="F310" s="80" t="s">
         <v>625</v>
       </c>
-      <c r="G310" s="76"/>
-      <c r="H310" s="75" t="s">
+      <c r="G310" s="79"/>
+      <c r="H310" s="78" t="s">
         <v>626</v>
       </c>
-      <c r="I310" s="75" t="s">
+      <c r="I310" s="78" t="s">
         <v>627</v>
       </c>
-      <c r="J310" s="76"/>
-      <c r="K310" s="75" t="n">
+      <c r="J310" s="79"/>
+      <c r="K310" s="78" t="n">
         <v>25</v>
       </c>
-      <c r="L310" s="77" t="s">
+      <c r="L310" s="80" t="s">
         <v>628</v>
       </c>
-      <c r="M310" s="76"/>
-      <c r="N310" s="75" t="n">
+      <c r="M310" s="79"/>
+      <c r="N310" s="78" t="n">
         <v>15</v>
       </c>
-      <c r="O310" s="76" t="s">
+      <c r="O310" s="79" t="s">
         <v>571</v>
       </c>
-      <c r="P310" s="75" t="n">
+      <c r="P310" s="78" t="n">
         <v>15</v>
       </c>
-      <c r="Q310" s="76"/>
-      <c r="R310" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="S310" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="T310" s="76"/>
-      <c r="U310" s="75" t="n">
+      <c r="Q310" s="79"/>
+      <c r="R310" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="S310" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="T310" s="79"/>
+      <c r="U310" s="78" t="n">
         <v>15</v>
       </c>
-      <c r="V310" s="76" t="s">
+      <c r="V310" s="79" t="s">
         <v>572</v>
       </c>
       <c r="W310" s="28"/>
@@ -21628,56 +21648,56 @@
       <c r="Y310" s="29"/>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="74"/>
-      <c r="B311" s="78" t="s">
+      <c r="A311" s="77"/>
+      <c r="B311" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="C311" s="78" t="s">
+      <c r="C311" s="81" t="s">
         <v>434</v>
       </c>
-      <c r="D311" s="79"/>
-      <c r="E311" s="78" t="n">
-        <v>20</v>
-      </c>
-      <c r="F311" s="80" t="s">
+      <c r="D311" s="82"/>
+      <c r="E311" s="81" t="n">
+        <v>20</v>
+      </c>
+      <c r="F311" s="83" t="s">
         <v>629</v>
       </c>
-      <c r="G311" s="79"/>
-      <c r="H311" s="78" t="s">
+      <c r="G311" s="82"/>
+      <c r="H311" s="81" t="s">
         <v>630</v>
       </c>
-      <c r="I311" s="78" t="s">
+      <c r="I311" s="81" t="s">
         <v>631</v>
       </c>
-      <c r="J311" s="79"/>
-      <c r="K311" s="78" t="n">
+      <c r="J311" s="82"/>
+      <c r="K311" s="81" t="n">
         <v>25</v>
       </c>
-      <c r="L311" s="80" t="s">
+      <c r="L311" s="83" t="s">
         <v>632</v>
       </c>
-      <c r="M311" s="79"/>
-      <c r="N311" s="78" t="n">
+      <c r="M311" s="82"/>
+      <c r="N311" s="81" t="n">
         <v>16</v>
       </c>
-      <c r="O311" s="79" t="s">
+      <c r="O311" s="82" t="s">
         <v>571</v>
       </c>
-      <c r="P311" s="78" t="n">
+      <c r="P311" s="81" t="n">
         <v>16</v>
       </c>
-      <c r="Q311" s="79"/>
-      <c r="R311" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="S311" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="T311" s="79"/>
-      <c r="U311" s="78" t="n">
+      <c r="Q311" s="82"/>
+      <c r="R311" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="S311" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="T311" s="82"/>
+      <c r="U311" s="81" t="n">
         <v>16</v>
       </c>
-      <c r="V311" s="79" t="s">
+      <c r="V311" s="82" t="s">
         <v>572</v>
       </c>
       <c r="W311" s="28"/>
@@ -23565,58 +23585,58 @@
       <c r="Y343" s="29"/>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="74" t="s">
+      <c r="A344" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="B344" s="75" t="s">
+      <c r="B344" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="C344" s="75" t="s">
+      <c r="C344" s="78" t="s">
         <v>434</v>
       </c>
-      <c r="D344" s="76"/>
-      <c r="E344" s="75" t="n">
-        <v>20</v>
-      </c>
-      <c r="F344" s="77" t="s">
+      <c r="D344" s="79"/>
+      <c r="E344" s="78" t="n">
+        <v>20</v>
+      </c>
+      <c r="F344" s="80" t="s">
         <v>765</v>
       </c>
-      <c r="G344" s="76"/>
-      <c r="H344" s="75" t="s">
+      <c r="G344" s="79"/>
+      <c r="H344" s="78" t="s">
         <v>766</v>
       </c>
-      <c r="I344" s="75" t="s">
+      <c r="I344" s="78" t="s">
         <v>767</v>
       </c>
-      <c r="J344" s="76"/>
-      <c r="K344" s="75" t="n">
+      <c r="J344" s="79"/>
+      <c r="K344" s="78" t="n">
         <v>25</v>
       </c>
-      <c r="L344" s="77" t="s">
+      <c r="L344" s="80" t="s">
         <v>768</v>
       </c>
-      <c r="M344" s="76"/>
-      <c r="N344" s="75" t="n">
+      <c r="M344" s="79"/>
+      <c r="N344" s="78" t="n">
         <v>13</v>
       </c>
-      <c r="O344" s="76" t="s">
+      <c r="O344" s="79" t="s">
         <v>237</v>
       </c>
-      <c r="P344" s="75" t="n">
+      <c r="P344" s="78" t="n">
         <v>13</v>
       </c>
-      <c r="Q344" s="76"/>
-      <c r="R344" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="S344" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="T344" s="76"/>
-      <c r="U344" s="75" t="n">
+      <c r="Q344" s="79"/>
+      <c r="R344" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="S344" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="T344" s="79"/>
+      <c r="U344" s="78" t="n">
         <v>13</v>
       </c>
-      <c r="V344" s="76" t="s">
+      <c r="V344" s="79" t="s">
         <v>238</v>
       </c>
       <c r="W344" s="28" t="s">
@@ -23630,56 +23650,56 @@
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="74"/>
-      <c r="B345" s="78" t="s">
+      <c r="A345" s="77"/>
+      <c r="B345" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="C345" s="78" t="s">
+      <c r="C345" s="81" t="s">
         <v>434</v>
       </c>
-      <c r="D345" s="79"/>
-      <c r="E345" s="78" t="n">
-        <v>20</v>
-      </c>
-      <c r="F345" s="80" t="s">
+      <c r="D345" s="82"/>
+      <c r="E345" s="81" t="n">
+        <v>20</v>
+      </c>
+      <c r="F345" s="83" t="s">
         <v>769</v>
       </c>
-      <c r="G345" s="79"/>
-      <c r="H345" s="78" t="s">
+      <c r="G345" s="82"/>
+      <c r="H345" s="81" t="s">
         <v>770</v>
       </c>
-      <c r="I345" s="78" t="s">
+      <c r="I345" s="81" t="s">
         <v>771</v>
       </c>
-      <c r="J345" s="79"/>
-      <c r="K345" s="78" t="n">
+      <c r="J345" s="82"/>
+      <c r="K345" s="81" t="n">
         <v>25</v>
       </c>
-      <c r="L345" s="80" t="s">
+      <c r="L345" s="83" t="s">
         <v>772</v>
       </c>
-      <c r="M345" s="79"/>
-      <c r="N345" s="78" t="n">
+      <c r="M345" s="82"/>
+      <c r="N345" s="81" t="n">
         <v>14</v>
       </c>
-      <c r="O345" s="79" t="s">
+      <c r="O345" s="82" t="s">
         <v>237</v>
       </c>
-      <c r="P345" s="78" t="n">
+      <c r="P345" s="81" t="n">
         <v>14</v>
       </c>
-      <c r="Q345" s="79"/>
-      <c r="R345" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="S345" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="T345" s="79"/>
-      <c r="U345" s="78" t="n">
+      <c r="Q345" s="82"/>
+      <c r="R345" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="S345" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="T345" s="82"/>
+      <c r="U345" s="81" t="n">
         <v>14</v>
       </c>
-      <c r="V345" s="79" t="s">
+      <c r="V345" s="82" t="s">
         <v>238</v>
       </c>
       <c r="W345" s="28"/>
@@ -23687,58 +23707,58 @@
       <c r="Y345" s="29"/>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="74" t="s">
+      <c r="A346" s="77" t="s">
         <v>240</v>
       </c>
-      <c r="B346" s="75" t="s">
+      <c r="B346" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="C346" s="75" t="s">
+      <c r="C346" s="78" t="s">
         <v>434</v>
       </c>
-      <c r="D346" s="76"/>
-      <c r="E346" s="75" t="n">
-        <v>20</v>
-      </c>
-      <c r="F346" s="77" t="s">
+      <c r="D346" s="79"/>
+      <c r="E346" s="78" t="n">
+        <v>20</v>
+      </c>
+      <c r="F346" s="80" t="s">
         <v>773</v>
       </c>
-      <c r="G346" s="76"/>
-      <c r="H346" s="75" t="s">
+      <c r="G346" s="79"/>
+      <c r="H346" s="78" t="s">
         <v>774</v>
       </c>
-      <c r="I346" s="75" t="s">
+      <c r="I346" s="78" t="s">
         <v>775</v>
       </c>
-      <c r="J346" s="76"/>
-      <c r="K346" s="75" t="n">
+      <c r="J346" s="79"/>
+      <c r="K346" s="78" t="n">
         <v>25</v>
       </c>
-      <c r="L346" s="77" t="s">
+      <c r="L346" s="80" t="s">
         <v>776</v>
       </c>
-      <c r="M346" s="76"/>
-      <c r="N346" s="75" t="n">
+      <c r="M346" s="79"/>
+      <c r="N346" s="78" t="n">
         <v>15</v>
       </c>
-      <c r="O346" s="76" t="s">
+      <c r="O346" s="79" t="s">
         <v>237</v>
       </c>
-      <c r="P346" s="75" t="n">
+      <c r="P346" s="78" t="n">
         <v>15</v>
       </c>
-      <c r="Q346" s="76"/>
-      <c r="R346" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="S346" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="T346" s="76"/>
-      <c r="U346" s="75" t="n">
+      <c r="Q346" s="79"/>
+      <c r="R346" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="S346" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="T346" s="79"/>
+      <c r="U346" s="78" t="n">
         <v>15</v>
       </c>
-      <c r="V346" s="76" t="s">
+      <c r="V346" s="79" t="s">
         <v>238</v>
       </c>
       <c r="W346" s="28"/>
@@ -23746,56 +23766,56 @@
       <c r="Y346" s="29"/>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="74"/>
-      <c r="B347" s="78" t="s">
+      <c r="A347" s="77"/>
+      <c r="B347" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="C347" s="78" t="s">
+      <c r="C347" s="81" t="s">
         <v>434</v>
       </c>
-      <c r="D347" s="79"/>
-      <c r="E347" s="78" t="n">
-        <v>20</v>
-      </c>
-      <c r="F347" s="80" t="s">
+      <c r="D347" s="82"/>
+      <c r="E347" s="81" t="n">
+        <v>20</v>
+      </c>
+      <c r="F347" s="83" t="s">
         <v>777</v>
       </c>
-      <c r="G347" s="79"/>
-      <c r="H347" s="78" t="s">
+      <c r="G347" s="82"/>
+      <c r="H347" s="81" t="s">
         <v>778</v>
       </c>
-      <c r="I347" s="78" t="s">
+      <c r="I347" s="81" t="s">
         <v>779</v>
       </c>
-      <c r="J347" s="79"/>
-      <c r="K347" s="78" t="n">
+      <c r="J347" s="82"/>
+      <c r="K347" s="81" t="n">
         <v>25</v>
       </c>
-      <c r="L347" s="80" t="s">
+      <c r="L347" s="83" t="s">
         <v>780</v>
       </c>
-      <c r="M347" s="79"/>
-      <c r="N347" s="78" t="n">
+      <c r="M347" s="82"/>
+      <c r="N347" s="81" t="n">
         <v>16</v>
       </c>
-      <c r="O347" s="79" t="s">
+      <c r="O347" s="82" t="s">
         <v>237</v>
       </c>
-      <c r="P347" s="78" t="n">
+      <c r="P347" s="81" t="n">
         <v>16</v>
       </c>
-      <c r="Q347" s="79"/>
-      <c r="R347" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="S347" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="T347" s="79"/>
-      <c r="U347" s="78" t="n">
+      <c r="Q347" s="82"/>
+      <c r="R347" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="S347" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="T347" s="82"/>
+      <c r="U347" s="81" t="n">
         <v>16</v>
       </c>
-      <c r="V347" s="79" t="s">
+      <c r="V347" s="82" t="s">
         <v>238</v>
       </c>
       <c r="W347" s="28"/>

--- a/DSP/ATA-Backend/Mapping DSP.xlsx
+++ b/DSP/ATA-Backend/Mapping DSP.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4110" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="781">
   <si>
     <t xml:space="preserve">Digitizer</t>
   </si>
@@ -2373,7 +2373,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2433,12 +2433,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2693,7 +2687,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="81">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2990,18 +2984,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3113,7 +3095,7 @@
       <selection pane="topLeft" activeCell="P25" activeCellId="0" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3866,11 +3848,11 @@
   </sheetPr>
   <dimension ref="A1:Y347"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F261" activeCellId="0" sqref="F261"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A316" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E144" activeCellId="0" sqref="E144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.67"/>
@@ -10548,7 +10530,7 @@
       <c r="E118" s="35" t="n">
         <v>20</v>
       </c>
-      <c r="F118" s="74" t="s">
+      <c r="F118" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G118" s="36"/>
@@ -11657,9 +11639,7 @@
       <c r="C137" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="D137" s="75" t="s">
-        <v>274</v>
-      </c>
+      <c r="D137" s="47"/>
       <c r="E137" s="45" t="n">
         <v>20</v>
       </c>
@@ -12073,8 +12053,8 @@
         <v>243</v>
       </c>
       <c r="D144" s="50"/>
-      <c r="E144" s="76" t="s">
-        <v>274</v>
+      <c r="E144" s="49" t="n">
+        <v>20</v>
       </c>
       <c r="F144" s="51" t="s">
         <v>304</v>
@@ -20765,58 +20745,58 @@
       <c r="Y295" s="29"/>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="77" t="s">
+      <c r="A296" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="B296" s="78" t="s">
+      <c r="B296" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="C296" s="78" t="s">
+      <c r="C296" s="75" t="s">
         <v>434</v>
       </c>
-      <c r="D296" s="79"/>
-      <c r="E296" s="78" t="n">
-        <v>20</v>
-      </c>
-      <c r="F296" s="80" t="s">
+      <c r="D296" s="76"/>
+      <c r="E296" s="75" t="n">
+        <v>20</v>
+      </c>
+      <c r="F296" s="77" t="s">
         <v>567</v>
       </c>
-      <c r="G296" s="79"/>
-      <c r="H296" s="78" t="s">
+      <c r="G296" s="76"/>
+      <c r="H296" s="75" t="s">
         <v>568</v>
       </c>
-      <c r="I296" s="78" t="s">
+      <c r="I296" s="75" t="s">
         <v>569</v>
       </c>
-      <c r="J296" s="79"/>
-      <c r="K296" s="78" t="n">
+      <c r="J296" s="76"/>
+      <c r="K296" s="75" t="n">
         <v>25</v>
       </c>
-      <c r="L296" s="80" t="s">
+      <c r="L296" s="77" t="s">
         <v>570</v>
       </c>
-      <c r="M296" s="79"/>
-      <c r="N296" s="78" t="n">
+      <c r="M296" s="76"/>
+      <c r="N296" s="75" t="n">
         <v>1</v>
       </c>
-      <c r="O296" s="79" t="s">
+      <c r="O296" s="76" t="s">
         <v>571</v>
       </c>
-      <c r="P296" s="78" t="n">
+      <c r="P296" s="75" t="n">
         <v>1</v>
       </c>
-      <c r="Q296" s="79"/>
-      <c r="R296" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="S296" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="T296" s="79"/>
-      <c r="U296" s="78" t="n">
+      <c r="Q296" s="76"/>
+      <c r="R296" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="S296" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="T296" s="76"/>
+      <c r="U296" s="75" t="n">
         <v>1</v>
       </c>
-      <c r="V296" s="79" t="s">
+      <c r="V296" s="76" t="s">
         <v>572</v>
       </c>
       <c r="W296" s="28" t="s">
@@ -20830,56 +20810,56 @@
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="77"/>
-      <c r="B297" s="81" t="s">
+      <c r="A297" s="74"/>
+      <c r="B297" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C297" s="81" t="s">
+      <c r="C297" s="78" t="s">
         <v>434</v>
       </c>
-      <c r="D297" s="82"/>
-      <c r="E297" s="81" t="n">
-        <v>20</v>
-      </c>
-      <c r="F297" s="83" t="s">
+      <c r="D297" s="79"/>
+      <c r="E297" s="78" t="n">
+        <v>20</v>
+      </c>
+      <c r="F297" s="80" t="s">
         <v>573</v>
       </c>
-      <c r="G297" s="82"/>
-      <c r="H297" s="81" t="s">
+      <c r="G297" s="79"/>
+      <c r="H297" s="78" t="s">
         <v>574</v>
       </c>
-      <c r="I297" s="81" t="s">
+      <c r="I297" s="78" t="s">
         <v>575</v>
       </c>
-      <c r="J297" s="82"/>
-      <c r="K297" s="81" t="n">
+      <c r="J297" s="79"/>
+      <c r="K297" s="78" t="n">
         <v>25</v>
       </c>
-      <c r="L297" s="83" t="s">
+      <c r="L297" s="80" t="s">
         <v>576</v>
       </c>
-      <c r="M297" s="82"/>
-      <c r="N297" s="81" t="n">
+      <c r="M297" s="79"/>
+      <c r="N297" s="78" t="n">
         <v>2</v>
       </c>
-      <c r="O297" s="82" t="s">
+      <c r="O297" s="79" t="s">
         <v>571</v>
       </c>
-      <c r="P297" s="81" t="n">
+      <c r="P297" s="78" t="n">
         <v>2</v>
       </c>
-      <c r="Q297" s="82"/>
-      <c r="R297" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="S297" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="T297" s="82"/>
-      <c r="U297" s="81" t="n">
+      <c r="Q297" s="79"/>
+      <c r="R297" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="S297" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="T297" s="79"/>
+      <c r="U297" s="78" t="n">
         <v>2</v>
       </c>
-      <c r="V297" s="82" t="s">
+      <c r="V297" s="79" t="s">
         <v>572</v>
       </c>
       <c r="W297" s="28"/>
@@ -20887,58 +20867,58 @@
       <c r="Y297" s="29"/>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="77" t="s">
+      <c r="A298" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="B298" s="78" t="s">
+      <c r="B298" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="C298" s="78" t="s">
+      <c r="C298" s="75" t="s">
         <v>434</v>
       </c>
-      <c r="D298" s="79"/>
-      <c r="E298" s="78" t="n">
-        <v>20</v>
-      </c>
-      <c r="F298" s="80" t="s">
+      <c r="D298" s="76"/>
+      <c r="E298" s="75" t="n">
+        <v>20</v>
+      </c>
+      <c r="F298" s="77" t="s">
         <v>577</v>
       </c>
-      <c r="G298" s="79"/>
-      <c r="H298" s="78" t="s">
+      <c r="G298" s="76"/>
+      <c r="H298" s="75" t="s">
         <v>578</v>
       </c>
-      <c r="I298" s="78" t="s">
+      <c r="I298" s="75" t="s">
         <v>579</v>
       </c>
-      <c r="J298" s="79"/>
-      <c r="K298" s="78" t="n">
+      <c r="J298" s="76"/>
+      <c r="K298" s="75" t="n">
         <v>25</v>
       </c>
-      <c r="L298" s="80" t="s">
+      <c r="L298" s="77" t="s">
         <v>580</v>
       </c>
-      <c r="M298" s="79"/>
-      <c r="N298" s="78" t="n">
+      <c r="M298" s="76"/>
+      <c r="N298" s="75" t="n">
         <v>3</v>
       </c>
-      <c r="O298" s="79" t="s">
+      <c r="O298" s="76" t="s">
         <v>571</v>
       </c>
-      <c r="P298" s="78" t="n">
+      <c r="P298" s="75" t="n">
         <v>3</v>
       </c>
-      <c r="Q298" s="79"/>
-      <c r="R298" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="S298" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="T298" s="79"/>
-      <c r="U298" s="78" t="n">
+      <c r="Q298" s="76"/>
+      <c r="R298" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="S298" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="T298" s="76"/>
+      <c r="U298" s="75" t="n">
         <v>3</v>
       </c>
-      <c r="V298" s="79" t="s">
+      <c r="V298" s="76" t="s">
         <v>572</v>
       </c>
       <c r="W298" s="28"/>
@@ -20946,56 +20926,56 @@
       <c r="Y298" s="29"/>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="77"/>
-      <c r="B299" s="81" t="s">
+      <c r="A299" s="74"/>
+      <c r="B299" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C299" s="81" t="s">
+      <c r="C299" s="78" t="s">
         <v>434</v>
       </c>
-      <c r="D299" s="82"/>
-      <c r="E299" s="81" t="n">
-        <v>20</v>
-      </c>
-      <c r="F299" s="83" t="s">
+      <c r="D299" s="79"/>
+      <c r="E299" s="78" t="n">
+        <v>20</v>
+      </c>
+      <c r="F299" s="80" t="s">
         <v>581</v>
       </c>
-      <c r="G299" s="82"/>
-      <c r="H299" s="81" t="s">
+      <c r="G299" s="79"/>
+      <c r="H299" s="78" t="s">
         <v>582</v>
       </c>
-      <c r="I299" s="81" t="s">
+      <c r="I299" s="78" t="s">
         <v>583</v>
       </c>
-      <c r="J299" s="82"/>
-      <c r="K299" s="81" t="n">
+      <c r="J299" s="79"/>
+      <c r="K299" s="78" t="n">
         <v>25</v>
       </c>
-      <c r="L299" s="83" t="s">
+      <c r="L299" s="80" t="s">
         <v>584</v>
       </c>
-      <c r="M299" s="82"/>
-      <c r="N299" s="81" t="n">
+      <c r="M299" s="79"/>
+      <c r="N299" s="78" t="n">
         <v>4</v>
       </c>
-      <c r="O299" s="82" t="s">
+      <c r="O299" s="79" t="s">
         <v>571</v>
       </c>
-      <c r="P299" s="81" t="n">
+      <c r="P299" s="78" t="n">
         <v>4</v>
       </c>
-      <c r="Q299" s="82"/>
-      <c r="R299" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="S299" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="T299" s="82"/>
-      <c r="U299" s="81" t="n">
+      <c r="Q299" s="79"/>
+      <c r="R299" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="S299" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="T299" s="79"/>
+      <c r="U299" s="78" t="n">
         <v>4</v>
       </c>
-      <c r="V299" s="82" t="s">
+      <c r="V299" s="79" t="s">
         <v>572</v>
       </c>
       <c r="W299" s="28"/>
@@ -21003,58 +20983,58 @@
       <c r="Y299" s="29"/>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="77" t="s">
+      <c r="A300" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="B300" s="78" t="s">
+      <c r="B300" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="C300" s="78" t="s">
+      <c r="C300" s="75" t="s">
         <v>434</v>
       </c>
-      <c r="D300" s="79"/>
-      <c r="E300" s="78" t="n">
-        <v>20</v>
-      </c>
-      <c r="F300" s="80" t="s">
+      <c r="D300" s="76"/>
+      <c r="E300" s="75" t="n">
+        <v>20</v>
+      </c>
+      <c r="F300" s="77" t="s">
         <v>585</v>
       </c>
-      <c r="G300" s="79"/>
-      <c r="H300" s="78" t="s">
+      <c r="G300" s="76"/>
+      <c r="H300" s="75" t="s">
         <v>586</v>
       </c>
-      <c r="I300" s="78" t="s">
+      <c r="I300" s="75" t="s">
         <v>587</v>
       </c>
-      <c r="J300" s="79"/>
-      <c r="K300" s="78" t="n">
+      <c r="J300" s="76"/>
+      <c r="K300" s="75" t="n">
         <v>25</v>
       </c>
-      <c r="L300" s="80" t="s">
+      <c r="L300" s="77" t="s">
         <v>588</v>
       </c>
-      <c r="M300" s="79"/>
-      <c r="N300" s="78" t="n">
+      <c r="M300" s="76"/>
+      <c r="N300" s="75" t="n">
         <v>5</v>
       </c>
-      <c r="O300" s="79" t="s">
+      <c r="O300" s="76" t="s">
         <v>571</v>
       </c>
-      <c r="P300" s="78" t="n">
+      <c r="P300" s="75" t="n">
         <v>5</v>
       </c>
-      <c r="Q300" s="79"/>
-      <c r="R300" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="S300" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="T300" s="79"/>
-      <c r="U300" s="78" t="n">
+      <c r="Q300" s="76"/>
+      <c r="R300" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="S300" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="T300" s="76"/>
+      <c r="U300" s="75" t="n">
         <v>5</v>
       </c>
-      <c r="V300" s="79" t="s">
+      <c r="V300" s="76" t="s">
         <v>572</v>
       </c>
       <c r="W300" s="28"/>
@@ -21062,56 +21042,56 @@
       <c r="Y300" s="29"/>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="77"/>
-      <c r="B301" s="81" t="s">
+      <c r="A301" s="74"/>
+      <c r="B301" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C301" s="81" t="s">
+      <c r="C301" s="78" t="s">
         <v>434</v>
       </c>
-      <c r="D301" s="82"/>
-      <c r="E301" s="81" t="n">
-        <v>20</v>
-      </c>
-      <c r="F301" s="83" t="s">
+      <c r="D301" s="79"/>
+      <c r="E301" s="78" t="n">
+        <v>20</v>
+      </c>
+      <c r="F301" s="80" t="s">
         <v>589</v>
       </c>
-      <c r="G301" s="82"/>
-      <c r="H301" s="81" t="s">
+      <c r="G301" s="79"/>
+      <c r="H301" s="78" t="s">
         <v>590</v>
       </c>
-      <c r="I301" s="81" t="s">
+      <c r="I301" s="78" t="s">
         <v>591</v>
       </c>
-      <c r="J301" s="82"/>
-      <c r="K301" s="81" t="n">
+      <c r="J301" s="79"/>
+      <c r="K301" s="78" t="n">
         <v>25</v>
       </c>
-      <c r="L301" s="83" t="s">
+      <c r="L301" s="80" t="s">
         <v>592</v>
       </c>
-      <c r="M301" s="82"/>
-      <c r="N301" s="81" t="n">
+      <c r="M301" s="79"/>
+      <c r="N301" s="78" t="n">
         <v>6</v>
       </c>
-      <c r="O301" s="82" t="s">
+      <c r="O301" s="79" t="s">
         <v>571</v>
       </c>
-      <c r="P301" s="81" t="n">
+      <c r="P301" s="78" t="n">
         <v>6</v>
       </c>
-      <c r="Q301" s="82"/>
-      <c r="R301" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="S301" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="T301" s="82"/>
-      <c r="U301" s="81" t="n">
+      <c r="Q301" s="79"/>
+      <c r="R301" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="S301" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="T301" s="79"/>
+      <c r="U301" s="78" t="n">
         <v>6</v>
       </c>
-      <c r="V301" s="82" t="s">
+      <c r="V301" s="79" t="s">
         <v>572</v>
       </c>
       <c r="W301" s="28"/>
@@ -21119,58 +21099,58 @@
       <c r="Y301" s="29"/>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="77" t="s">
+      <c r="A302" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="B302" s="78" t="s">
+      <c r="B302" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="C302" s="78" t="s">
+      <c r="C302" s="75" t="s">
         <v>434</v>
       </c>
-      <c r="D302" s="79"/>
-      <c r="E302" s="78" t="n">
-        <v>20</v>
-      </c>
-      <c r="F302" s="80" t="s">
+      <c r="D302" s="76"/>
+      <c r="E302" s="75" t="n">
+        <v>20</v>
+      </c>
+      <c r="F302" s="77" t="s">
         <v>593</v>
       </c>
-      <c r="G302" s="79"/>
-      <c r="H302" s="78" t="s">
+      <c r="G302" s="76"/>
+      <c r="H302" s="75" t="s">
         <v>594</v>
       </c>
-      <c r="I302" s="78" t="s">
+      <c r="I302" s="75" t="s">
         <v>595</v>
       </c>
-      <c r="J302" s="79"/>
-      <c r="K302" s="78" t="n">
+      <c r="J302" s="76"/>
+      <c r="K302" s="75" t="n">
         <v>25</v>
       </c>
-      <c r="L302" s="80" t="s">
+      <c r="L302" s="77" t="s">
         <v>596</v>
       </c>
-      <c r="M302" s="79"/>
-      <c r="N302" s="78" t="n">
+      <c r="M302" s="76"/>
+      <c r="N302" s="75" t="n">
         <v>7</v>
       </c>
-      <c r="O302" s="79" t="s">
+      <c r="O302" s="76" t="s">
         <v>571</v>
       </c>
-      <c r="P302" s="78" t="n">
+      <c r="P302" s="75" t="n">
         <v>7</v>
       </c>
-      <c r="Q302" s="79"/>
-      <c r="R302" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="S302" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="T302" s="79"/>
-      <c r="U302" s="78" t="n">
+      <c r="Q302" s="76"/>
+      <c r="R302" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="S302" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="T302" s="76"/>
+      <c r="U302" s="75" t="n">
         <v>7</v>
       </c>
-      <c r="V302" s="79" t="s">
+      <c r="V302" s="76" t="s">
         <v>572</v>
       </c>
       <c r="W302" s="28"/>
@@ -21178,56 +21158,56 @@
       <c r="Y302" s="29"/>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="77"/>
-      <c r="B303" s="81" t="s">
+      <c r="A303" s="74"/>
+      <c r="B303" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C303" s="81" t="s">
+      <c r="C303" s="78" t="s">
         <v>434</v>
       </c>
-      <c r="D303" s="82"/>
-      <c r="E303" s="81" t="n">
-        <v>20</v>
-      </c>
-      <c r="F303" s="83" t="s">
+      <c r="D303" s="79"/>
+      <c r="E303" s="78" t="n">
+        <v>20</v>
+      </c>
+      <c r="F303" s="80" t="s">
         <v>597</v>
       </c>
-      <c r="G303" s="82"/>
-      <c r="H303" s="81" t="s">
+      <c r="G303" s="79"/>
+      <c r="H303" s="78" t="s">
         <v>598</v>
       </c>
-      <c r="I303" s="81" t="s">
+      <c r="I303" s="78" t="s">
         <v>599</v>
       </c>
-      <c r="J303" s="82"/>
-      <c r="K303" s="81" t="n">
+      <c r="J303" s="79"/>
+      <c r="K303" s="78" t="n">
         <v>25</v>
       </c>
-      <c r="L303" s="83" t="s">
+      <c r="L303" s="80" t="s">
         <v>600</v>
       </c>
-      <c r="M303" s="82"/>
-      <c r="N303" s="81" t="n">
+      <c r="M303" s="79"/>
+      <c r="N303" s="78" t="n">
         <v>8</v>
       </c>
-      <c r="O303" s="82" t="s">
+      <c r="O303" s="79" t="s">
         <v>571</v>
       </c>
-      <c r="P303" s="81" t="n">
+      <c r="P303" s="78" t="n">
         <v>8</v>
       </c>
-      <c r="Q303" s="82"/>
-      <c r="R303" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="S303" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="T303" s="82"/>
-      <c r="U303" s="81" t="n">
+      <c r="Q303" s="79"/>
+      <c r="R303" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="S303" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="T303" s="79"/>
+      <c r="U303" s="78" t="n">
         <v>8</v>
       </c>
-      <c r="V303" s="82" t="s">
+      <c r="V303" s="79" t="s">
         <v>572</v>
       </c>
       <c r="W303" s="28"/>
@@ -21235,58 +21215,58 @@
       <c r="Y303" s="29"/>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="77" t="s">
+      <c r="A304" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="B304" s="78" t="s">
+      <c r="B304" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="C304" s="78" t="s">
+      <c r="C304" s="75" t="s">
         <v>434</v>
       </c>
-      <c r="D304" s="79"/>
-      <c r="E304" s="78" t="n">
-        <v>20</v>
-      </c>
-      <c r="F304" s="80" t="s">
+      <c r="D304" s="76"/>
+      <c r="E304" s="75" t="n">
+        <v>20</v>
+      </c>
+      <c r="F304" s="77" t="s">
         <v>601</v>
       </c>
-      <c r="G304" s="79"/>
-      <c r="H304" s="78" t="s">
+      <c r="G304" s="76"/>
+      <c r="H304" s="75" t="s">
         <v>602</v>
       </c>
-      <c r="I304" s="78" t="s">
+      <c r="I304" s="75" t="s">
         <v>603</v>
       </c>
-      <c r="J304" s="79"/>
-      <c r="K304" s="78" t="n">
+      <c r="J304" s="76"/>
+      <c r="K304" s="75" t="n">
         <v>25</v>
       </c>
-      <c r="L304" s="80" t="s">
+      <c r="L304" s="77" t="s">
         <v>604</v>
       </c>
-      <c r="M304" s="79"/>
-      <c r="N304" s="78" t="n">
+      <c r="M304" s="76"/>
+      <c r="N304" s="75" t="n">
         <v>9</v>
       </c>
-      <c r="O304" s="79" t="s">
+      <c r="O304" s="76" t="s">
         <v>571</v>
       </c>
-      <c r="P304" s="78" t="n">
+      <c r="P304" s="75" t="n">
         <v>9</v>
       </c>
-      <c r="Q304" s="79"/>
-      <c r="R304" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="S304" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="T304" s="79"/>
-      <c r="U304" s="78" t="n">
+      <c r="Q304" s="76"/>
+      <c r="R304" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="S304" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="T304" s="76"/>
+      <c r="U304" s="75" t="n">
         <v>9</v>
       </c>
-      <c r="V304" s="79" t="s">
+      <c r="V304" s="76" t="s">
         <v>572</v>
       </c>
       <c r="W304" s="28" t="s">
@@ -21300,56 +21280,56 @@
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="77"/>
-      <c r="B305" s="81" t="s">
+      <c r="A305" s="74"/>
+      <c r="B305" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C305" s="81" t="s">
+      <c r="C305" s="78" t="s">
         <v>434</v>
       </c>
-      <c r="D305" s="82"/>
-      <c r="E305" s="81" t="n">
-        <v>20</v>
-      </c>
-      <c r="F305" s="83" t="s">
+      <c r="D305" s="79"/>
+      <c r="E305" s="78" t="n">
+        <v>20</v>
+      </c>
+      <c r="F305" s="80" t="s">
         <v>605</v>
       </c>
-      <c r="G305" s="82"/>
-      <c r="H305" s="81" t="s">
+      <c r="G305" s="79"/>
+      <c r="H305" s="78" t="s">
         <v>606</v>
       </c>
-      <c r="I305" s="81" t="s">
+      <c r="I305" s="78" t="s">
         <v>607</v>
       </c>
-      <c r="J305" s="82"/>
-      <c r="K305" s="81" t="n">
+      <c r="J305" s="79"/>
+      <c r="K305" s="78" t="n">
         <v>25</v>
       </c>
-      <c r="L305" s="83" t="s">
+      <c r="L305" s="80" t="s">
         <v>608</v>
       </c>
-      <c r="M305" s="82"/>
-      <c r="N305" s="81" t="n">
+      <c r="M305" s="79"/>
+      <c r="N305" s="78" t="n">
         <v>10</v>
       </c>
-      <c r="O305" s="82" t="s">
+      <c r="O305" s="79" t="s">
         <v>571</v>
       </c>
-      <c r="P305" s="81" t="n">
+      <c r="P305" s="78" t="n">
         <v>10</v>
       </c>
-      <c r="Q305" s="82"/>
-      <c r="R305" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="S305" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="T305" s="82"/>
-      <c r="U305" s="81" t="n">
+      <c r="Q305" s="79"/>
+      <c r="R305" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="S305" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="T305" s="79"/>
+      <c r="U305" s="78" t="n">
         <v>10</v>
       </c>
-      <c r="V305" s="82" t="s">
+      <c r="V305" s="79" t="s">
         <v>572</v>
       </c>
       <c r="W305" s="28"/>
@@ -21357,58 +21337,58 @@
       <c r="Y305" s="29"/>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="77" t="s">
+      <c r="A306" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="B306" s="78" t="s">
+      <c r="B306" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="C306" s="78" t="s">
+      <c r="C306" s="75" t="s">
         <v>434</v>
       </c>
-      <c r="D306" s="79"/>
-      <c r="E306" s="78" t="n">
-        <v>20</v>
-      </c>
-      <c r="F306" s="80" t="s">
+      <c r="D306" s="76"/>
+      <c r="E306" s="75" t="n">
+        <v>20</v>
+      </c>
+      <c r="F306" s="77" t="s">
         <v>609</v>
       </c>
-      <c r="G306" s="79"/>
-      <c r="H306" s="78" t="s">
+      <c r="G306" s="76"/>
+      <c r="H306" s="75" t="s">
         <v>610</v>
       </c>
-      <c r="I306" s="78" t="s">
+      <c r="I306" s="75" t="s">
         <v>611</v>
       </c>
-      <c r="J306" s="79"/>
-      <c r="K306" s="78" t="n">
+      <c r="J306" s="76"/>
+      <c r="K306" s="75" t="n">
         <v>25</v>
       </c>
-      <c r="L306" s="80" t="s">
+      <c r="L306" s="77" t="s">
         <v>612</v>
       </c>
-      <c r="M306" s="79"/>
-      <c r="N306" s="78" t="n">
+      <c r="M306" s="76"/>
+      <c r="N306" s="75" t="n">
         <v>11</v>
       </c>
-      <c r="O306" s="79" t="s">
+      <c r="O306" s="76" t="s">
         <v>571</v>
       </c>
-      <c r="P306" s="78" t="n">
+      <c r="P306" s="75" t="n">
         <v>11</v>
       </c>
-      <c r="Q306" s="79"/>
-      <c r="R306" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="S306" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="T306" s="79"/>
-      <c r="U306" s="78" t="n">
+      <c r="Q306" s="76"/>
+      <c r="R306" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="S306" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="T306" s="76"/>
+      <c r="U306" s="75" t="n">
         <v>11</v>
       </c>
-      <c r="V306" s="79" t="s">
+      <c r="V306" s="76" t="s">
         <v>572</v>
       </c>
       <c r="W306" s="28"/>
@@ -21416,56 +21396,56 @@
       <c r="Y306" s="29"/>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="77"/>
-      <c r="B307" s="81" t="s">
+      <c r="A307" s="74"/>
+      <c r="B307" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C307" s="81" t="s">
+      <c r="C307" s="78" t="s">
         <v>434</v>
       </c>
-      <c r="D307" s="82"/>
-      <c r="E307" s="81" t="n">
-        <v>20</v>
-      </c>
-      <c r="F307" s="83" t="s">
+      <c r="D307" s="79"/>
+      <c r="E307" s="78" t="n">
+        <v>20</v>
+      </c>
+      <c r="F307" s="80" t="s">
         <v>613</v>
       </c>
-      <c r="G307" s="82"/>
-      <c r="H307" s="81" t="s">
+      <c r="G307" s="79"/>
+      <c r="H307" s="78" t="s">
         <v>614</v>
       </c>
-      <c r="I307" s="81" t="s">
+      <c r="I307" s="78" t="s">
         <v>615</v>
       </c>
-      <c r="J307" s="82"/>
-      <c r="K307" s="81" t="n">
+      <c r="J307" s="79"/>
+      <c r="K307" s="78" t="n">
         <v>25</v>
       </c>
-      <c r="L307" s="83" t="s">
+      <c r="L307" s="80" t="s">
         <v>616</v>
       </c>
-      <c r="M307" s="82"/>
-      <c r="N307" s="81" t="n">
+      <c r="M307" s="79"/>
+      <c r="N307" s="78" t="n">
         <v>12</v>
       </c>
-      <c r="O307" s="82" t="s">
+      <c r="O307" s="79" t="s">
         <v>571</v>
       </c>
-      <c r="P307" s="81" t="n">
+      <c r="P307" s="78" t="n">
         <v>12</v>
       </c>
-      <c r="Q307" s="82"/>
-      <c r="R307" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="S307" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="T307" s="82"/>
-      <c r="U307" s="81" t="n">
+      <c r="Q307" s="79"/>
+      <c r="R307" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="S307" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="T307" s="79"/>
+      <c r="U307" s="78" t="n">
         <v>12</v>
       </c>
-      <c r="V307" s="82" t="s">
+      <c r="V307" s="79" t="s">
         <v>572</v>
       </c>
       <c r="W307" s="28"/>
@@ -21473,58 +21453,58 @@
       <c r="Y307" s="29"/>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="77" t="s">
+      <c r="A308" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="B308" s="78" t="s">
+      <c r="B308" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="C308" s="78" t="s">
+      <c r="C308" s="75" t="s">
         <v>434</v>
       </c>
-      <c r="D308" s="79"/>
-      <c r="E308" s="78" t="n">
-        <v>20</v>
-      </c>
-      <c r="F308" s="80" t="s">
+      <c r="D308" s="76"/>
+      <c r="E308" s="75" t="n">
+        <v>20</v>
+      </c>
+      <c r="F308" s="77" t="s">
         <v>617</v>
       </c>
-      <c r="G308" s="79"/>
-      <c r="H308" s="78" t="s">
+      <c r="G308" s="76"/>
+      <c r="H308" s="75" t="s">
         <v>618</v>
       </c>
-      <c r="I308" s="78" t="s">
+      <c r="I308" s="75" t="s">
         <v>619</v>
       </c>
-      <c r="J308" s="79"/>
-      <c r="K308" s="78" t="n">
+      <c r="J308" s="76"/>
+      <c r="K308" s="75" t="n">
         <v>25</v>
       </c>
-      <c r="L308" s="80" t="s">
+      <c r="L308" s="77" t="s">
         <v>620</v>
       </c>
-      <c r="M308" s="79"/>
-      <c r="N308" s="78" t="n">
+      <c r="M308" s="76"/>
+      <c r="N308" s="75" t="n">
         <v>13</v>
       </c>
-      <c r="O308" s="79" t="s">
+      <c r="O308" s="76" t="s">
         <v>571</v>
       </c>
-      <c r="P308" s="78" t="n">
+      <c r="P308" s="75" t="n">
         <v>13</v>
       </c>
-      <c r="Q308" s="79"/>
-      <c r="R308" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="S308" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="T308" s="79"/>
-      <c r="U308" s="78" t="n">
+      <c r="Q308" s="76"/>
+      <c r="R308" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="S308" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="T308" s="76"/>
+      <c r="U308" s="75" t="n">
         <v>13</v>
       </c>
-      <c r="V308" s="79" t="s">
+      <c r="V308" s="76" t="s">
         <v>572</v>
       </c>
       <c r="W308" s="28"/>
@@ -21532,56 +21512,56 @@
       <c r="Y308" s="29"/>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="77"/>
-      <c r="B309" s="81" t="s">
+      <c r="A309" s="74"/>
+      <c r="B309" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C309" s="81" t="s">
+      <c r="C309" s="78" t="s">
         <v>434</v>
       </c>
-      <c r="D309" s="82"/>
-      <c r="E309" s="81" t="n">
-        <v>20</v>
-      </c>
-      <c r="F309" s="83" t="s">
+      <c r="D309" s="79"/>
+      <c r="E309" s="78" t="n">
+        <v>20</v>
+      </c>
+      <c r="F309" s="80" t="s">
         <v>621</v>
       </c>
-      <c r="G309" s="82"/>
-      <c r="H309" s="81" t="s">
+      <c r="G309" s="79"/>
+      <c r="H309" s="78" t="s">
         <v>622</v>
       </c>
-      <c r="I309" s="81" t="s">
+      <c r="I309" s="78" t="s">
         <v>623</v>
       </c>
-      <c r="J309" s="82"/>
-      <c r="K309" s="81" t="n">
+      <c r="J309" s="79"/>
+      <c r="K309" s="78" t="n">
         <v>25</v>
       </c>
-      <c r="L309" s="83" t="s">
+      <c r="L309" s="80" t="s">
         <v>624</v>
       </c>
-      <c r="M309" s="82"/>
-      <c r="N309" s="81" t="n">
+      <c r="M309" s="79"/>
+      <c r="N309" s="78" t="n">
         <v>14</v>
       </c>
-      <c r="O309" s="82" t="s">
+      <c r="O309" s="79" t="s">
         <v>571</v>
       </c>
-      <c r="P309" s="81" t="n">
+      <c r="P309" s="78" t="n">
         <v>14</v>
       </c>
-      <c r="Q309" s="82"/>
-      <c r="R309" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="S309" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="T309" s="82"/>
-      <c r="U309" s="81" t="n">
+      <c r="Q309" s="79"/>
+      <c r="R309" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="S309" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="T309" s="79"/>
+      <c r="U309" s="78" t="n">
         <v>14</v>
       </c>
-      <c r="V309" s="82" t="s">
+      <c r="V309" s="79" t="s">
         <v>572</v>
       </c>
       <c r="W309" s="28"/>
@@ -21589,58 +21569,58 @@
       <c r="Y309" s="29"/>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="77" t="s">
+      <c r="A310" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="B310" s="78" t="s">
+      <c r="B310" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="C310" s="78" t="s">
+      <c r="C310" s="75" t="s">
         <v>434</v>
       </c>
-      <c r="D310" s="79"/>
-      <c r="E310" s="78" t="n">
-        <v>20</v>
-      </c>
-      <c r="F310" s="80" t="s">
+      <c r="D310" s="76"/>
+      <c r="E310" s="75" t="n">
+        <v>20</v>
+      </c>
+      <c r="F310" s="77" t="s">
         <v>625</v>
       </c>
-      <c r="G310" s="79"/>
-      <c r="H310" s="78" t="s">
+      <c r="G310" s="76"/>
+      <c r="H310" s="75" t="s">
         <v>626</v>
       </c>
-      <c r="I310" s="78" t="s">
+      <c r="I310" s="75" t="s">
         <v>627</v>
       </c>
-      <c r="J310" s="79"/>
-      <c r="K310" s="78" t="n">
+      <c r="J310" s="76"/>
+      <c r="K310" s="75" t="n">
         <v>25</v>
       </c>
-      <c r="L310" s="80" t="s">
+      <c r="L310" s="77" t="s">
         <v>628</v>
       </c>
-      <c r="M310" s="79"/>
-      <c r="N310" s="78" t="n">
+      <c r="M310" s="76"/>
+      <c r="N310" s="75" t="n">
         <v>15</v>
       </c>
-      <c r="O310" s="79" t="s">
+      <c r="O310" s="76" t="s">
         <v>571</v>
       </c>
-      <c r="P310" s="78" t="n">
+      <c r="P310" s="75" t="n">
         <v>15</v>
       </c>
-      <c r="Q310" s="79"/>
-      <c r="R310" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="S310" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="T310" s="79"/>
-      <c r="U310" s="78" t="n">
+      <c r="Q310" s="76"/>
+      <c r="R310" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="S310" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="T310" s="76"/>
+      <c r="U310" s="75" t="n">
         <v>15</v>
       </c>
-      <c r="V310" s="79" t="s">
+      <c r="V310" s="76" t="s">
         <v>572</v>
       </c>
       <c r="W310" s="28"/>
@@ -21648,56 +21628,56 @@
       <c r="Y310" s="29"/>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="77"/>
-      <c r="B311" s="81" t="s">
+      <c r="A311" s="74"/>
+      <c r="B311" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C311" s="81" t="s">
+      <c r="C311" s="78" t="s">
         <v>434</v>
       </c>
-      <c r="D311" s="82"/>
-      <c r="E311" s="81" t="n">
-        <v>20</v>
-      </c>
-      <c r="F311" s="83" t="s">
+      <c r="D311" s="79"/>
+      <c r="E311" s="78" t="n">
+        <v>20</v>
+      </c>
+      <c r="F311" s="80" t="s">
         <v>629</v>
       </c>
-      <c r="G311" s="82"/>
-      <c r="H311" s="81" t="s">
+      <c r="G311" s="79"/>
+      <c r="H311" s="78" t="s">
         <v>630</v>
       </c>
-      <c r="I311" s="81" t="s">
+      <c r="I311" s="78" t="s">
         <v>631</v>
       </c>
-      <c r="J311" s="82"/>
-      <c r="K311" s="81" t="n">
+      <c r="J311" s="79"/>
+      <c r="K311" s="78" t="n">
         <v>25</v>
       </c>
-      <c r="L311" s="83" t="s">
+      <c r="L311" s="80" t="s">
         <v>632</v>
       </c>
-      <c r="M311" s="82"/>
-      <c r="N311" s="81" t="n">
+      <c r="M311" s="79"/>
+      <c r="N311" s="78" t="n">
         <v>16</v>
       </c>
-      <c r="O311" s="82" t="s">
+      <c r="O311" s="79" t="s">
         <v>571</v>
       </c>
-      <c r="P311" s="81" t="n">
+      <c r="P311" s="78" t="n">
         <v>16</v>
       </c>
-      <c r="Q311" s="82"/>
-      <c r="R311" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="S311" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="T311" s="82"/>
-      <c r="U311" s="81" t="n">
+      <c r="Q311" s="79"/>
+      <c r="R311" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="S311" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="T311" s="79"/>
+      <c r="U311" s="78" t="n">
         <v>16</v>
       </c>
-      <c r="V311" s="82" t="s">
+      <c r="V311" s="79" t="s">
         <v>572</v>
       </c>
       <c r="W311" s="28"/>
@@ -23585,58 +23565,58 @@
       <c r="Y343" s="29"/>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="77" t="s">
+      <c r="A344" s="74" t="s">
         <v>235</v>
       </c>
-      <c r="B344" s="78" t="s">
+      <c r="B344" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="C344" s="78" t="s">
+      <c r="C344" s="75" t="s">
         <v>434</v>
       </c>
-      <c r="D344" s="79"/>
-      <c r="E344" s="78" t="n">
-        <v>20</v>
-      </c>
-      <c r="F344" s="80" t="s">
+      <c r="D344" s="76"/>
+      <c r="E344" s="75" t="n">
+        <v>20</v>
+      </c>
+      <c r="F344" s="77" t="s">
         <v>765</v>
       </c>
-      <c r="G344" s="79"/>
-      <c r="H344" s="78" t="s">
+      <c r="G344" s="76"/>
+      <c r="H344" s="75" t="s">
         <v>766</v>
       </c>
-      <c r="I344" s="78" t="s">
+      <c r="I344" s="75" t="s">
         <v>767</v>
       </c>
-      <c r="J344" s="79"/>
-      <c r="K344" s="78" t="n">
+      <c r="J344" s="76"/>
+      <c r="K344" s="75" t="n">
         <v>25</v>
       </c>
-      <c r="L344" s="80" t="s">
+      <c r="L344" s="77" t="s">
         <v>768</v>
       </c>
-      <c r="M344" s="79"/>
-      <c r="N344" s="78" t="n">
+      <c r="M344" s="76"/>
+      <c r="N344" s="75" t="n">
         <v>13</v>
       </c>
-      <c r="O344" s="79" t="s">
+      <c r="O344" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="P344" s="78" t="n">
+      <c r="P344" s="75" t="n">
         <v>13</v>
       </c>
-      <c r="Q344" s="79"/>
-      <c r="R344" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="S344" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="T344" s="79"/>
-      <c r="U344" s="78" t="n">
+      <c r="Q344" s="76"/>
+      <c r="R344" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="S344" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="T344" s="76"/>
+      <c r="U344" s="75" t="n">
         <v>13</v>
       </c>
-      <c r="V344" s="79" t="s">
+      <c r="V344" s="76" t="s">
         <v>238</v>
       </c>
       <c r="W344" s="28" t="s">
@@ -23650,56 +23630,56 @@
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="77"/>
-      <c r="B345" s="81" t="s">
+      <c r="A345" s="74"/>
+      <c r="B345" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C345" s="81" t="s">
+      <c r="C345" s="78" t="s">
         <v>434</v>
       </c>
-      <c r="D345" s="82"/>
-      <c r="E345" s="81" t="n">
-        <v>20</v>
-      </c>
-      <c r="F345" s="83" t="s">
+      <c r="D345" s="79"/>
+      <c r="E345" s="78" t="n">
+        <v>20</v>
+      </c>
+      <c r="F345" s="80" t="s">
         <v>769</v>
       </c>
-      <c r="G345" s="82"/>
-      <c r="H345" s="81" t="s">
+      <c r="G345" s="79"/>
+      <c r="H345" s="78" t="s">
         <v>770</v>
       </c>
-      <c r="I345" s="81" t="s">
+      <c r="I345" s="78" t="s">
         <v>771</v>
       </c>
-      <c r="J345" s="82"/>
-      <c r="K345" s="81" t="n">
+      <c r="J345" s="79"/>
+      <c r="K345" s="78" t="n">
         <v>25</v>
       </c>
-      <c r="L345" s="83" t="s">
+      <c r="L345" s="80" t="s">
         <v>772</v>
       </c>
-      <c r="M345" s="82"/>
-      <c r="N345" s="81" t="n">
+      <c r="M345" s="79"/>
+      <c r="N345" s="78" t="n">
         <v>14</v>
       </c>
-      <c r="O345" s="82" t="s">
+      <c r="O345" s="79" t="s">
         <v>237</v>
       </c>
-      <c r="P345" s="81" t="n">
+      <c r="P345" s="78" t="n">
         <v>14</v>
       </c>
-      <c r="Q345" s="82"/>
-      <c r="R345" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="S345" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="T345" s="82"/>
-      <c r="U345" s="81" t="n">
+      <c r="Q345" s="79"/>
+      <c r="R345" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="S345" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="T345" s="79"/>
+      <c r="U345" s="78" t="n">
         <v>14</v>
       </c>
-      <c r="V345" s="82" t="s">
+      <c r="V345" s="79" t="s">
         <v>238</v>
       </c>
       <c r="W345" s="28"/>
@@ -23707,58 +23687,58 @@
       <c r="Y345" s="29"/>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="77" t="s">
+      <c r="A346" s="74" t="s">
         <v>240</v>
       </c>
-      <c r="B346" s="78" t="s">
+      <c r="B346" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="C346" s="78" t="s">
+      <c r="C346" s="75" t="s">
         <v>434</v>
       </c>
-      <c r="D346" s="79"/>
-      <c r="E346" s="78" t="n">
-        <v>20</v>
-      </c>
-      <c r="F346" s="80" t="s">
+      <c r="D346" s="76"/>
+      <c r="E346" s="75" t="n">
+        <v>20</v>
+      </c>
+      <c r="F346" s="77" t="s">
         <v>773</v>
       </c>
-      <c r="G346" s="79"/>
-      <c r="H346" s="78" t="s">
+      <c r="G346" s="76"/>
+      <c r="H346" s="75" t="s">
         <v>774</v>
       </c>
-      <c r="I346" s="78" t="s">
+      <c r="I346" s="75" t="s">
         <v>775</v>
       </c>
-      <c r="J346" s="79"/>
-      <c r="K346" s="78" t="n">
+      <c r="J346" s="76"/>
+      <c r="K346" s="75" t="n">
         <v>25</v>
       </c>
-      <c r="L346" s="80" t="s">
+      <c r="L346" s="77" t="s">
         <v>776</v>
       </c>
-      <c r="M346" s="79"/>
-      <c r="N346" s="78" t="n">
+      <c r="M346" s="76"/>
+      <c r="N346" s="75" t="n">
         <v>15</v>
       </c>
-      <c r="O346" s="79" t="s">
+      <c r="O346" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="P346" s="78" t="n">
+      <c r="P346" s="75" t="n">
         <v>15</v>
       </c>
-      <c r="Q346" s="79"/>
-      <c r="R346" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="S346" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="T346" s="79"/>
-      <c r="U346" s="78" t="n">
+      <c r="Q346" s="76"/>
+      <c r="R346" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="S346" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="T346" s="76"/>
+      <c r="U346" s="75" t="n">
         <v>15</v>
       </c>
-      <c r="V346" s="79" t="s">
+      <c r="V346" s="76" t="s">
         <v>238</v>
       </c>
       <c r="W346" s="28"/>
@@ -23766,56 +23746,56 @@
       <c r="Y346" s="29"/>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="77"/>
-      <c r="B347" s="81" t="s">
+      <c r="A347" s="74"/>
+      <c r="B347" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C347" s="81" t="s">
+      <c r="C347" s="78" t="s">
         <v>434</v>
       </c>
-      <c r="D347" s="82"/>
-      <c r="E347" s="81" t="n">
-        <v>20</v>
-      </c>
-      <c r="F347" s="83" t="s">
+      <c r="D347" s="79"/>
+      <c r="E347" s="78" t="n">
+        <v>20</v>
+      </c>
+      <c r="F347" s="80" t="s">
         <v>777</v>
       </c>
-      <c r="G347" s="82"/>
-      <c r="H347" s="81" t="s">
+      <c r="G347" s="79"/>
+      <c r="H347" s="78" t="s">
         <v>778</v>
       </c>
-      <c r="I347" s="81" t="s">
+      <c r="I347" s="78" t="s">
         <v>779</v>
       </c>
-      <c r="J347" s="82"/>
-      <c r="K347" s="81" t="n">
+      <c r="J347" s="79"/>
+      <c r="K347" s="78" t="n">
         <v>25</v>
       </c>
-      <c r="L347" s="83" t="s">
+      <c r="L347" s="80" t="s">
         <v>780</v>
       </c>
-      <c r="M347" s="82"/>
-      <c r="N347" s="81" t="n">
+      <c r="M347" s="79"/>
+      <c r="N347" s="78" t="n">
         <v>16</v>
       </c>
-      <c r="O347" s="82" t="s">
+      <c r="O347" s="79" t="s">
         <v>237</v>
       </c>
-      <c r="P347" s="81" t="n">
+      <c r="P347" s="78" t="n">
         <v>16</v>
       </c>
-      <c r="Q347" s="82"/>
-      <c r="R347" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="S347" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="T347" s="82"/>
-      <c r="U347" s="81" t="n">
+      <c r="Q347" s="79"/>
+      <c r="R347" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="S347" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="T347" s="79"/>
+      <c r="U347" s="78" t="n">
         <v>16</v>
       </c>
-      <c r="V347" s="82" t="s">
+      <c r="V347" s="79" t="s">
         <v>238</v>
       </c>
       <c r="W347" s="28"/>

--- a/DSP/ATA-Backend/Mapping DSP.xlsx
+++ b/DSP/ATA-Backend/Mapping DSP.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="IF Mapping 2024" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="IF Attenuation" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4985" uniqueCount="787">
   <si>
     <t xml:space="preserve">Digitizer</t>
   </si>
@@ -2361,6 +2362,27 @@
   </si>
   <si>
     <t xml:space="preserve">D1-42Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATA IF attenuator power measurements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFCB Power [dBm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attenuation [dB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attemp. Power [dBm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
   </si>
 </sst>
 </file>
@@ -2454,7 +2476,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDBDBDB"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
@@ -2684,7 +2706,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="86">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2969,6 +2991,66 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2978,6 +3060,57 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF81D41A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="false" diagonalDown="false">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB2B2B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2994,16 +3127,16 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB4C7E7"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FFB4C7E7"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -3022,7 +3155,7 @@
       <rgbColor rgb="FFF8CBAD"/>
       <rgbColor rgb="FF4472C4"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -3052,7 +3185,7 @@
       <selection pane="topLeft" activeCell="P25" activeCellId="0" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3805,11 +3938,11 @@
   </sheetPr>
   <dimension ref="A1:Y347"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A222" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A228" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AL279" activeCellId="0" sqref="AL279"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.67"/>
@@ -24075,4 +24208,6649 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J347"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="21" t="s">
+        <v>780</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="71"/>
+      <c r="G2" s="71"/>
+    </row>
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="73" t="s">
+        <v>781</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>782</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>783</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
+        <v>784</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="26" t="n">
+        <v>-17</v>
+      </c>
+      <c r="F6" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="74" t="n">
+        <v>-17</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26" t="s">
+        <v>786</v>
+      </c>
+      <c r="J6" s="27"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="25"/>
+      <c r="B7" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="30" t="n">
+        <v>-13.8</v>
+      </c>
+      <c r="F7" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="75" t="n">
+        <v>-14.8</v>
+      </c>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="26" t="n">
+        <v>-19</v>
+      </c>
+      <c r="F8" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="74" t="n">
+        <v>-19</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="25"/>
+      <c r="B9" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="30" t="n">
+        <v>-19.3</v>
+      </c>
+      <c r="F9" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="75" t="n">
+        <v>-19.3</v>
+      </c>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="26" t="n">
+        <v>-17.2</v>
+      </c>
+      <c r="F10" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="74" t="n">
+        <v>-17.2</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="25"/>
+      <c r="B11" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="30" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="F11" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="75" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="26" t="n">
+        <v>-32.2</v>
+      </c>
+      <c r="F12" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="74" t="n">
+        <v>-32.2</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="25"/>
+      <c r="B13" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="30" t="n">
+        <v>-18.6</v>
+      </c>
+      <c r="F13" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="75" t="n">
+        <v>-18.6</v>
+      </c>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="26" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="F14" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="74" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="25"/>
+      <c r="B15" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="30" t="n">
+        <v>-8.2</v>
+      </c>
+      <c r="F15" s="75" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" s="75" t="n">
+        <v>-14.2</v>
+      </c>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="26" t="n">
+        <v>-11.2</v>
+      </c>
+      <c r="F16" s="74" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="74" t="n">
+        <v>-14.2</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="25"/>
+      <c r="B17" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="30" t="n">
+        <v>-17.2</v>
+      </c>
+      <c r="F17" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="75" t="n">
+        <v>-17.2</v>
+      </c>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="26" t="n">
+        <v>-16.3</v>
+      </c>
+      <c r="F18" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="74" t="n">
+        <v>-16.3</v>
+      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="25"/>
+      <c r="B19" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="30" t="n">
+        <v>-14.3</v>
+      </c>
+      <c r="F19" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="75" t="n">
+        <v>-15.3</v>
+      </c>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="31"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="26" t="n">
+        <v>-13.8</v>
+      </c>
+      <c r="F20" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="74" t="n">
+        <v>-14.8</v>
+      </c>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="25"/>
+      <c r="B21" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="30" t="n">
+        <v>-14.2</v>
+      </c>
+      <c r="F21" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="75" t="n">
+        <v>-15.2</v>
+      </c>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="34"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="34"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="32"/>
+      <c r="B23" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="33" t="n">
+        <v>-21</v>
+      </c>
+      <c r="F24" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="35" t="n">
+        <v>-21</v>
+      </c>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="34"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="32"/>
+      <c r="B25" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="37"/>
+      <c r="E25" s="36" t="n">
+        <v>-22</v>
+      </c>
+      <c r="F25" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="38" t="n">
+        <v>-22</v>
+      </c>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="34"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="34"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="32"/>
+      <c r="B27" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="37"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="34"/>
+      <c r="E28" s="33" t="n">
+        <v>-25.3</v>
+      </c>
+      <c r="F28" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="35" t="n">
+        <v>-25.3</v>
+      </c>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="34"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="32"/>
+      <c r="B29" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="36" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="F29" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="38" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="37"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="33" t="n">
+        <v>-11.1</v>
+      </c>
+      <c r="F30" s="35" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" s="35" t="n">
+        <v>-14.1</v>
+      </c>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="34"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="32"/>
+      <c r="B31" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="37"/>
+      <c r="E31" s="36" t="n">
+        <v>-13.3</v>
+      </c>
+      <c r="F31" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="38" t="n">
+        <v>-15.3</v>
+      </c>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="37"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="33" t="n">
+        <v>-33.2</v>
+      </c>
+      <c r="F32" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="35" t="n">
+        <v>-33.2</v>
+      </c>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="34"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="32"/>
+      <c r="B33" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="37"/>
+      <c r="E33" s="36" t="n">
+        <v>-18.1</v>
+      </c>
+      <c r="F33" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="38" t="n">
+        <v>-18.1</v>
+      </c>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="37"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="34"/>
+      <c r="E34" s="33" t="n">
+        <v>-16.3</v>
+      </c>
+      <c r="F34" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="35" t="n">
+        <v>-16.3</v>
+      </c>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="34"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="32"/>
+      <c r="B35" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="37"/>
+      <c r="E35" s="36" t="n">
+        <v>-16.2</v>
+      </c>
+      <c r="F35" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="38" t="n">
+        <v>-16.2</v>
+      </c>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="37"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="34"/>
+      <c r="E36" s="33" t="n">
+        <v>-23.1</v>
+      </c>
+      <c r="F36" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="35" t="n">
+        <v>-23.1</v>
+      </c>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="34"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="32"/>
+      <c r="B37" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="37"/>
+      <c r="E37" s="36" t="n">
+        <v>-14.6</v>
+      </c>
+      <c r="F37" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="38" t="n">
+        <v>-15.6</v>
+      </c>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="37"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="41"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="41"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="39"/>
+      <c r="B39" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="45"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="45"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="41"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="40" t="n">
+        <v>-17.1</v>
+      </c>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="41"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="39"/>
+      <c r="B41" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="45"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="44" t="n">
+        <v>-18.1</v>
+      </c>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="45"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="41"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76" t="n">
+        <v>-23</v>
+      </c>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="41"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="39"/>
+      <c r="B43" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="45"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77" t="n">
+        <v>-19</v>
+      </c>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="45"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="41"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76" t="n">
+        <v>-14.7</v>
+      </c>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="41"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="39"/>
+      <c r="B45" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="45"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77" t="n">
+        <v>-14.4</v>
+      </c>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="45"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="41"/>
+      <c r="E46" s="40" t="n">
+        <v>-18</v>
+      </c>
+      <c r="F46" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="76" t="n">
+        <v>-18</v>
+      </c>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="41"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="39"/>
+      <c r="B47" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="45"/>
+      <c r="E47" s="44" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="F47" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="77" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="45"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="41"/>
+      <c r="E48" s="40" t="n">
+        <v>-9.3</v>
+      </c>
+      <c r="F48" s="76" t="n">
+        <v>6</v>
+      </c>
+      <c r="G48" s="76" t="n">
+        <v>-15.3</v>
+      </c>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="41"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="39"/>
+      <c r="B49" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="45"/>
+      <c r="E49" s="44" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F49" s="77" t="n">
+        <v>6</v>
+      </c>
+      <c r="G49" s="77" t="n">
+        <v>-16</v>
+      </c>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="45"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="41"/>
+      <c r="E50" s="40" t="n">
+        <v>-13.6</v>
+      </c>
+      <c r="F50" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="76" t="n">
+        <v>-14.6</v>
+      </c>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="39"/>
+      <c r="B51" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="45"/>
+      <c r="E51" s="44" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F51" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="77" t="n">
+        <v>-16</v>
+      </c>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="45"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="41"/>
+      <c r="E52" s="40" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F52" s="76" t="n">
+        <v>8</v>
+      </c>
+      <c r="G52" s="76" t="n">
+        <v>-16</v>
+      </c>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="41"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="39"/>
+      <c r="B53" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="45"/>
+      <c r="E53" s="44" t="n">
+        <v>-11.8</v>
+      </c>
+      <c r="F53" s="77" t="n">
+        <v>3</v>
+      </c>
+      <c r="G53" s="77" t="n">
+        <v>-14.8</v>
+      </c>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="45"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="50"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="50"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="48"/>
+      <c r="B55" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="52"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="52"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="50"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="78"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="50"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="48"/>
+      <c r="B57" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="52"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="52"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="50"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="78"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="50"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="48"/>
+      <c r="B59" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="52"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="52"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="50"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="50"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="48"/>
+      <c r="B61" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="52"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="52"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="B62" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="50"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="50"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="48"/>
+      <c r="B63" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="52"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="52"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="B64" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" s="50"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="78" t="n">
+        <v>-15.3</v>
+      </c>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="50"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="48"/>
+      <c r="B65" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" s="52"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="79" t="n">
+        <v>-19.1</v>
+      </c>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="52"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" s="50"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="78" t="n">
+        <v>-15</v>
+      </c>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="50"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="48"/>
+      <c r="B67" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" s="52"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="79" t="n">
+        <v>-17.7</v>
+      </c>
+      <c r="H67" s="51"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="52"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="B68" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="50"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="50"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="48"/>
+      <c r="B69" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" s="52"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="79"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="52"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="B70" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="55"/>
+      <c r="E70" s="54" t="n">
+        <v>-22</v>
+      </c>
+      <c r="F70" s="80"/>
+      <c r="G70" s="80"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="55"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="53"/>
+      <c r="B71" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" s="57"/>
+      <c r="E71" s="56" t="n">
+        <v>-41.5</v>
+      </c>
+      <c r="F71" s="81"/>
+      <c r="G71" s="81"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="57"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" s="55"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="80"/>
+      <c r="G72" s="80"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="55"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="53"/>
+      <c r="B73" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="57"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="81"/>
+      <c r="G73" s="81"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="57"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B74" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D74" s="55"/>
+      <c r="E74" s="54" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F74" s="80" t="n">
+        <v>2</v>
+      </c>
+      <c r="G74" s="80" t="n">
+        <v>-15</v>
+      </c>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="55"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="53"/>
+      <c r="B75" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" s="57"/>
+      <c r="E75" s="56" t="n">
+        <v>-17.6</v>
+      </c>
+      <c r="F75" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="81" t="n">
+        <v>-17.6</v>
+      </c>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="57"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="B76" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" s="55"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="80"/>
+      <c r="G76" s="80"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="55"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="53"/>
+      <c r="B77" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D77" s="57"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="81"/>
+      <c r="G77" s="81"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="57"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="B78" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="55"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="80"/>
+      <c r="G78" s="80"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="55"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="53"/>
+      <c r="B79" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" s="57"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="81"/>
+      <c r="G79" s="81"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="57"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="B80" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D80" s="55"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="80"/>
+      <c r="G80" s="80" t="n">
+        <v>-15.7</v>
+      </c>
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="55"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="53"/>
+      <c r="B81" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D81" s="57"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="81"/>
+      <c r="G81" s="81" t="n">
+        <v>-17.7</v>
+      </c>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="57"/>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="B82" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C82" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" s="55"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="80"/>
+      <c r="G82" s="80" t="n">
+        <v>-21</v>
+      </c>
+      <c r="H82" s="54"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="55"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="53"/>
+      <c r="B83" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83" s="57"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="81"/>
+      <c r="G83" s="81" t="n">
+        <v>-13.3</v>
+      </c>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="57"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="B84" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D84" s="55"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="80"/>
+      <c r="G84" s="80"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="54"/>
+      <c r="J84" s="55"/>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="53"/>
+      <c r="B85" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C85" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85" s="57"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="81"/>
+      <c r="G85" s="81" t="n">
+        <v>-14.1</v>
+      </c>
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="57"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="B86" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" s="60"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="82"/>
+      <c r="G86" s="82"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="60"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="58"/>
+      <c r="B87" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" s="62"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="83"/>
+      <c r="G87" s="83"/>
+      <c r="H87" s="61"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="62"/>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="B88" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D88" s="60"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="82"/>
+      <c r="G88" s="82"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="59"/>
+      <c r="J88" s="60"/>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="58"/>
+      <c r="B89" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" s="62"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="83"/>
+      <c r="G89" s="83"/>
+      <c r="H89" s="61"/>
+      <c r="I89" s="61"/>
+      <c r="J89" s="62"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="63"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="84"/>
+      <c r="F90" s="84"/>
+      <c r="G90" s="84"/>
+      <c r="H90" s="64"/>
+      <c r="I90" s="64"/>
+      <c r="J90" s="64"/>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="63"/>
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="E91" s="85"/>
+      <c r="F91" s="85"/>
+      <c r="G91" s="85"/>
+      <c r="H91" s="66"/>
+      <c r="I91" s="66"/>
+      <c r="J91" s="66"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D92" s="27"/>
+      <c r="E92" s="26" t="n">
+        <v>-15.3</v>
+      </c>
+      <c r="F92" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" s="74" t="n">
+        <v>-15.3</v>
+      </c>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="27"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="25"/>
+      <c r="B93" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="D93" s="31"/>
+      <c r="E93" s="30" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F93" s="75" t="n">
+        <v>3</v>
+      </c>
+      <c r="G93" s="75" t="n">
+        <v>-13</v>
+      </c>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="31"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D94" s="27"/>
+      <c r="E94" s="26" t="n">
+        <v>-16.2</v>
+      </c>
+      <c r="F94" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" s="74" t="n">
+        <v>-16.2</v>
+      </c>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="27"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="25"/>
+      <c r="B95" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="D95" s="31"/>
+      <c r="E95" s="30" t="n">
+        <v>-17</v>
+      </c>
+      <c r="F95" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" s="75" t="n">
+        <v>-17</v>
+      </c>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="31"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D96" s="27"/>
+      <c r="E96" s="26" t="n">
+        <v>-14.3</v>
+      </c>
+      <c r="F96" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" s="74" t="n">
+        <v>-15.3</v>
+      </c>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="27"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="25"/>
+      <c r="B97" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="D97" s="31"/>
+      <c r="E97" s="30" t="n">
+        <v>-11</v>
+      </c>
+      <c r="F97" s="75" t="n">
+        <v>3</v>
+      </c>
+      <c r="G97" s="75" t="n">
+        <v>-14</v>
+      </c>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
+      <c r="J97" s="31"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D98" s="27"/>
+      <c r="E98" s="26" t="n">
+        <v>-27</v>
+      </c>
+      <c r="F98" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" s="74" t="n">
+        <v>-27</v>
+      </c>
+      <c r="H98" s="26"/>
+      <c r="I98" s="26"/>
+      <c r="J98" s="27"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="25"/>
+      <c r="B99" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="D99" s="31"/>
+      <c r="E99" s="30" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="F99" s="75" t="n">
+        <v>3</v>
+      </c>
+      <c r="G99" s="75" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="31"/>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D100" s="27"/>
+      <c r="E100" s="26" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F100" s="74" t="n">
+        <v>6</v>
+      </c>
+      <c r="G100" s="74" t="n">
+        <v>-15</v>
+      </c>
+      <c r="H100" s="26"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="27"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="25"/>
+      <c r="B101" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="D101" s="31"/>
+      <c r="E101" s="30" t="n">
+        <v>-5.8</v>
+      </c>
+      <c r="F101" s="75" t="n">
+        <v>10</v>
+      </c>
+      <c r="G101" s="75" t="n">
+        <v>-15.8</v>
+      </c>
+      <c r="H101" s="30"/>
+      <c r="I101" s="30"/>
+      <c r="J101" s="31"/>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D102" s="27"/>
+      <c r="E102" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="G102" s="74" t="n">
+        <v>-15</v>
+      </c>
+      <c r="H102" s="26"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="27"/>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="25"/>
+      <c r="B103" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="D103" s="31"/>
+      <c r="E103" s="30" t="n">
+        <v>-10.1</v>
+      </c>
+      <c r="F103" s="75" t="n">
+        <v>3</v>
+      </c>
+      <c r="G103" s="75" t="n">
+        <v>-13.1</v>
+      </c>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="31"/>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D104" s="27"/>
+      <c r="E104" s="26" t="n">
+        <v>-12.3</v>
+      </c>
+      <c r="F104" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="G104" s="74" t="n">
+        <v>-14.3</v>
+      </c>
+      <c r="H104" s="26"/>
+      <c r="I104" s="26"/>
+      <c r="J104" s="27"/>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="25"/>
+      <c r="B105" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="D105" s="31"/>
+      <c r="E105" s="30" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F105" s="75" t="n">
+        <v>3</v>
+      </c>
+      <c r="G105" s="75" t="n">
+        <v>-13</v>
+      </c>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="31"/>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D106" s="27"/>
+      <c r="E106" s="26" t="n">
+        <v>-10.4</v>
+      </c>
+      <c r="F106" s="74" t="n">
+        <v>3</v>
+      </c>
+      <c r="G106" s="74" t="n">
+        <v>-13.4</v>
+      </c>
+      <c r="H106" s="26"/>
+      <c r="I106" s="26"/>
+      <c r="J106" s="27"/>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="25"/>
+      <c r="B107" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="D107" s="31"/>
+      <c r="E107" s="30" t="n">
+        <v>-11.8</v>
+      </c>
+      <c r="F107" s="75" t="n">
+        <v>2</v>
+      </c>
+      <c r="G107" s="75" t="n">
+        <v>-13.8</v>
+      </c>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="31"/>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B108" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C108" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="D108" s="34"/>
+      <c r="E108" s="33" t="n">
+        <v>-11</v>
+      </c>
+      <c r="F108" s="35" t="n">
+        <v>3</v>
+      </c>
+      <c r="G108" s="35" t="n">
+        <v>-14</v>
+      </c>
+      <c r="H108" s="33"/>
+      <c r="I108" s="33"/>
+      <c r="J108" s="34"/>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="32"/>
+      <c r="B109" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C109" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="D109" s="37"/>
+      <c r="E109" s="36" t="n">
+        <v>-14.7</v>
+      </c>
+      <c r="F109" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G109" s="38" t="n">
+        <v>-14.7</v>
+      </c>
+      <c r="H109" s="36"/>
+      <c r="I109" s="36"/>
+      <c r="J109" s="37"/>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B110" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C110" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="D110" s="34"/>
+      <c r="E110" s="33" t="n">
+        <v>-18</v>
+      </c>
+      <c r="F110" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G110" s="35" t="n">
+        <v>-18</v>
+      </c>
+      <c r="H110" s="33"/>
+      <c r="I110" s="33"/>
+      <c r="J110" s="34"/>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="32"/>
+      <c r="B111" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C111" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="D111" s="37"/>
+      <c r="E111" s="36" t="n">
+        <v>-18.9</v>
+      </c>
+      <c r="F111" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G111" s="38" t="n">
+        <v>-18.9</v>
+      </c>
+      <c r="H111" s="36"/>
+      <c r="I111" s="36"/>
+      <c r="J111" s="37"/>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B112" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C112" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="D112" s="34"/>
+      <c r="E112" s="33" t="n">
+        <v>-32</v>
+      </c>
+      <c r="F112" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G112" s="35" t="n">
+        <v>-32</v>
+      </c>
+      <c r="H112" s="33"/>
+      <c r="I112" s="33"/>
+      <c r="J112" s="34"/>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="32"/>
+      <c r="B113" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C113" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="D113" s="37"/>
+      <c r="E113" s="36" t="n">
+        <v>-36</v>
+      </c>
+      <c r="F113" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G113" s="38" t="n">
+        <v>-36</v>
+      </c>
+      <c r="H113" s="36"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="37"/>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B114" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C114" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="D114" s="34"/>
+      <c r="E114" s="33" t="n">
+        <v>-25</v>
+      </c>
+      <c r="F114" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G114" s="35" t="n">
+        <v>-25</v>
+      </c>
+      <c r="H114" s="33"/>
+      <c r="I114" s="33"/>
+      <c r="J114" s="34"/>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="32"/>
+      <c r="B115" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C115" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="D115" s="37"/>
+      <c r="E115" s="36" t="n">
+        <v>-17.3</v>
+      </c>
+      <c r="F115" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G115" s="38" t="n">
+        <v>-17.3</v>
+      </c>
+      <c r="H115" s="36"/>
+      <c r="I115" s="36"/>
+      <c r="J115" s="37"/>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B116" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C116" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="D116" s="34"/>
+      <c r="E116" s="33" t="n">
+        <v>-11.3</v>
+      </c>
+      <c r="F116" s="35" t="n">
+        <v>3</v>
+      </c>
+      <c r="G116" s="35" t="n">
+        <v>-14.3</v>
+      </c>
+      <c r="H116" s="33"/>
+      <c r="I116" s="33"/>
+      <c r="J116" s="34"/>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="32"/>
+      <c r="B117" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C117" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="D117" s="37"/>
+      <c r="E117" s="36" t="n">
+        <v>-12.1</v>
+      </c>
+      <c r="F117" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G117" s="38" t="n">
+        <v>-14.1</v>
+      </c>
+      <c r="H117" s="36"/>
+      <c r="I117" s="36"/>
+      <c r="J117" s="37"/>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B118" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C118" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="D118" s="34"/>
+      <c r="E118" s="33" t="n">
+        <v>-22.3</v>
+      </c>
+      <c r="F118" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G118" s="35" t="n">
+        <v>-22.3</v>
+      </c>
+      <c r="H118" s="33"/>
+      <c r="I118" s="33"/>
+      <c r="J118" s="34"/>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="32"/>
+      <c r="B119" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C119" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="D119" s="37"/>
+      <c r="E119" s="36" t="n">
+        <v>-13.2</v>
+      </c>
+      <c r="F119" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G119" s="38" t="n">
+        <v>-15.2</v>
+      </c>
+      <c r="H119" s="36"/>
+      <c r="I119" s="36"/>
+      <c r="J119" s="37"/>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B120" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C120" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="D120" s="34"/>
+      <c r="E120" s="33" t="n">
+        <v>-15.3</v>
+      </c>
+      <c r="F120" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G120" s="35" t="n">
+        <v>-15.3</v>
+      </c>
+      <c r="H120" s="33"/>
+      <c r="I120" s="33"/>
+      <c r="J120" s="34"/>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="32"/>
+      <c r="B121" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C121" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="D121" s="37"/>
+      <c r="E121" s="36" t="n">
+        <v>-15.9</v>
+      </c>
+      <c r="F121" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G121" s="38" t="n">
+        <v>-15.9</v>
+      </c>
+      <c r="H121" s="36"/>
+      <c r="I121" s="36"/>
+      <c r="J121" s="37"/>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B122" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C122" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="D122" s="34"/>
+      <c r="E122" s="33" t="n">
+        <v>-6.2</v>
+      </c>
+      <c r="F122" s="35" t="n">
+        <v>8</v>
+      </c>
+      <c r="G122" s="35" t="n">
+        <v>-14.2</v>
+      </c>
+      <c r="H122" s="33"/>
+      <c r="I122" s="33"/>
+      <c r="J122" s="34"/>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="32"/>
+      <c r="B123" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C123" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="D123" s="37"/>
+      <c r="E123" s="36" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="F123" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="G123" s="38" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="H123" s="36"/>
+      <c r="I123" s="36"/>
+      <c r="J123" s="37"/>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B124" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C124" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="D124" s="41"/>
+      <c r="E124" s="40" t="n">
+        <v>-21.5</v>
+      </c>
+      <c r="F124" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="G124" s="76" t="n">
+        <v>-21.5</v>
+      </c>
+      <c r="H124" s="40"/>
+      <c r="I124" s="40"/>
+      <c r="J124" s="41"/>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="39"/>
+      <c r="B125" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C125" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="D125" s="45"/>
+      <c r="E125" s="44" t="n">
+        <v>-42</v>
+      </c>
+      <c r="F125" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="G125" s="77" t="n">
+        <v>-42</v>
+      </c>
+      <c r="H125" s="44"/>
+      <c r="I125" s="44"/>
+      <c r="J125" s="45"/>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B126" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C126" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="D126" s="41"/>
+      <c r="E126" s="40" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F126" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="G126" s="76" t="n">
+        <v>-14</v>
+      </c>
+      <c r="H126" s="40"/>
+      <c r="I126" s="40"/>
+      <c r="J126" s="41"/>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="39"/>
+      <c r="B127" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C127" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="D127" s="45"/>
+      <c r="E127" s="44" t="n">
+        <v>-15.2</v>
+      </c>
+      <c r="F127" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="G127" s="77" t="n">
+        <v>-15.2</v>
+      </c>
+      <c r="H127" s="44"/>
+      <c r="I127" s="44"/>
+      <c r="J127" s="45"/>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="B128" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C128" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="D128" s="41"/>
+      <c r="E128" s="40" t="n">
+        <v>-19.3</v>
+      </c>
+      <c r="F128" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="G128" s="76" t="n">
+        <v>-19.3</v>
+      </c>
+      <c r="H128" s="40"/>
+      <c r="I128" s="40"/>
+      <c r="J128" s="41"/>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="39"/>
+      <c r="B129" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C129" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="D129" s="45"/>
+      <c r="E129" s="44" t="n">
+        <v>-21.1</v>
+      </c>
+      <c r="F129" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="G129" s="77" t="n">
+        <v>-21.1</v>
+      </c>
+      <c r="H129" s="44"/>
+      <c r="I129" s="44"/>
+      <c r="J129" s="45"/>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B130" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C130" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="D130" s="41"/>
+      <c r="E130" s="40" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F130" s="76" t="n">
+        <v>6</v>
+      </c>
+      <c r="G130" s="76" t="n">
+        <v>-16</v>
+      </c>
+      <c r="H130" s="40"/>
+      <c r="I130" s="40"/>
+      <c r="J130" s="41"/>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="39"/>
+      <c r="B131" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C131" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="D131" s="45"/>
+      <c r="E131" s="44" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="F131" s="77" t="n">
+        <v>3</v>
+      </c>
+      <c r="G131" s="77" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="H131" s="44"/>
+      <c r="I131" s="44"/>
+      <c r="J131" s="45"/>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="B132" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C132" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="D132" s="41"/>
+      <c r="E132" s="40" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="F132" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="G132" s="76" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="H132" s="40"/>
+      <c r="I132" s="40"/>
+      <c r="J132" s="41"/>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="39"/>
+      <c r="B133" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C133" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="D133" s="45"/>
+      <c r="E133" s="44" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F133" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="G133" s="77" t="n">
+        <v>-16</v>
+      </c>
+      <c r="H133" s="44"/>
+      <c r="I133" s="44"/>
+      <c r="J133" s="45"/>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B134" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C134" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="D134" s="41"/>
+      <c r="E134" s="40" t="n">
+        <v>-8.2</v>
+      </c>
+      <c r="F134" s="76" t="n">
+        <v>7</v>
+      </c>
+      <c r="G134" s="76" t="n">
+        <v>-15.2</v>
+      </c>
+      <c r="H134" s="40"/>
+      <c r="I134" s="40"/>
+      <c r="J134" s="41"/>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="39"/>
+      <c r="B135" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C135" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="D135" s="45"/>
+      <c r="E135" s="44" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F135" s="77" t="n">
+        <v>6</v>
+      </c>
+      <c r="G135" s="77" t="n">
+        <v>-15</v>
+      </c>
+      <c r="H135" s="44"/>
+      <c r="I135" s="44"/>
+      <c r="J135" s="45"/>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B136" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C136" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="D136" s="41"/>
+      <c r="E136" s="40" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="F136" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="G136" s="76" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="H136" s="40"/>
+      <c r="I136" s="40"/>
+      <c r="J136" s="41"/>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="39"/>
+      <c r="B137" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C137" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="D137" s="45"/>
+      <c r="E137" s="44" t="n">
+        <v>-19.1</v>
+      </c>
+      <c r="F137" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="G137" s="77" t="n">
+        <v>-19.1</v>
+      </c>
+      <c r="H137" s="44"/>
+      <c r="I137" s="44"/>
+      <c r="J137" s="45"/>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="B138" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C138" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="D138" s="41"/>
+      <c r="E138" s="40" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F138" s="76" t="n">
+        <v>6</v>
+      </c>
+      <c r="G138" s="76" t="n">
+        <v>-14</v>
+      </c>
+      <c r="H138" s="40"/>
+      <c r="I138" s="40"/>
+      <c r="J138" s="41"/>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="39"/>
+      <c r="B139" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C139" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="D139" s="45"/>
+      <c r="E139" s="44" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="F139" s="77" t="n">
+        <v>6</v>
+      </c>
+      <c r="G139" s="77" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="H139" s="44"/>
+      <c r="I139" s="44"/>
+      <c r="J139" s="45"/>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="B140" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C140" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="D140" s="50"/>
+      <c r="E140" s="49"/>
+      <c r="F140" s="78"/>
+      <c r="G140" s="78"/>
+      <c r="H140" s="49"/>
+      <c r="I140" s="49"/>
+      <c r="J140" s="50"/>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="48"/>
+      <c r="B141" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C141" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="D141" s="52"/>
+      <c r="E141" s="51"/>
+      <c r="F141" s="79"/>
+      <c r="G141" s="79"/>
+      <c r="H141" s="51"/>
+      <c r="I141" s="51"/>
+      <c r="J141" s="52"/>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="B142" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C142" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="D142" s="50"/>
+      <c r="E142" s="49"/>
+      <c r="F142" s="78"/>
+      <c r="G142" s="78"/>
+      <c r="H142" s="49"/>
+      <c r="I142" s="49"/>
+      <c r="J142" s="50"/>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="48"/>
+      <c r="B143" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C143" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="D143" s="52"/>
+      <c r="E143" s="51"/>
+      <c r="F143" s="79"/>
+      <c r="G143" s="79"/>
+      <c r="H143" s="51"/>
+      <c r="I143" s="51"/>
+      <c r="J143" s="52"/>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="B144" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C144" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="D144" s="50"/>
+      <c r="E144" s="49"/>
+      <c r="F144" s="78"/>
+      <c r="G144" s="78"/>
+      <c r="H144" s="49"/>
+      <c r="I144" s="49"/>
+      <c r="J144" s="50"/>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="48"/>
+      <c r="B145" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C145" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="D145" s="52"/>
+      <c r="E145" s="51"/>
+      <c r="F145" s="79"/>
+      <c r="G145" s="79"/>
+      <c r="H145" s="51"/>
+      <c r="I145" s="51"/>
+      <c r="J145" s="52"/>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="B146" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C146" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="D146" s="50"/>
+      <c r="E146" s="49" t="n">
+        <v>-17.3</v>
+      </c>
+      <c r="F146" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="G146" s="78" t="n">
+        <v>-17.3</v>
+      </c>
+      <c r="H146" s="49"/>
+      <c r="I146" s="49"/>
+      <c r="J146" s="50"/>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="48"/>
+      <c r="B147" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C147" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="D147" s="52"/>
+      <c r="E147" s="51" t="n">
+        <v>-36.1</v>
+      </c>
+      <c r="F147" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="G147" s="79" t="n">
+        <v>-36.1</v>
+      </c>
+      <c r="H147" s="51"/>
+      <c r="I147" s="51"/>
+      <c r="J147" s="52"/>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="B148" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C148" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="D148" s="50"/>
+      <c r="E148" s="49" t="n">
+        <v>-19.4</v>
+      </c>
+      <c r="F148" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" s="78" t="n">
+        <v>-20.4</v>
+      </c>
+      <c r="H148" s="49"/>
+      <c r="I148" s="49"/>
+      <c r="J148" s="50"/>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="48"/>
+      <c r="B149" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C149" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="D149" s="52"/>
+      <c r="E149" s="51" t="n">
+        <v>-12.3</v>
+      </c>
+      <c r="F149" s="79" t="n">
+        <v>2</v>
+      </c>
+      <c r="G149" s="79" t="n">
+        <v>-14.3</v>
+      </c>
+      <c r="H149" s="51"/>
+      <c r="I149" s="51"/>
+      <c r="J149" s="52"/>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="B150" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C150" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="D150" s="50"/>
+      <c r="E150" s="49" t="n">
+        <v>-14.6</v>
+      </c>
+      <c r="F150" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="G150" s="78" t="n">
+        <v>-14.6</v>
+      </c>
+      <c r="H150" s="49"/>
+      <c r="I150" s="49"/>
+      <c r="J150" s="50"/>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="48"/>
+      <c r="B151" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C151" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="D151" s="52"/>
+      <c r="E151" s="51" t="n">
+        <v>-16.4</v>
+      </c>
+      <c r="F151" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="G151" s="79" t="n">
+        <v>-16.4</v>
+      </c>
+      <c r="H151" s="51"/>
+      <c r="I151" s="51"/>
+      <c r="J151" s="52"/>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="B152" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C152" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="D152" s="50"/>
+      <c r="E152" s="49" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F152" s="78" t="n">
+        <v>3</v>
+      </c>
+      <c r="G152" s="78" t="n">
+        <v>-13</v>
+      </c>
+      <c r="H152" s="49"/>
+      <c r="I152" s="49"/>
+      <c r="J152" s="50"/>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="48"/>
+      <c r="B153" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C153" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="D153" s="52"/>
+      <c r="E153" s="51" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F153" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" s="79" t="n">
+        <v>-14</v>
+      </c>
+      <c r="H153" s="51"/>
+      <c r="I153" s="51"/>
+      <c r="J153" s="52"/>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="B154" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C154" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="D154" s="50"/>
+      <c r="E154" s="49"/>
+      <c r="F154" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="G154" s="78"/>
+      <c r="H154" s="49"/>
+      <c r="I154" s="49"/>
+      <c r="J154" s="50"/>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="48"/>
+      <c r="B155" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C155" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="D155" s="52"/>
+      <c r="E155" s="51" t="n">
+        <v>-10.8</v>
+      </c>
+      <c r="F155" s="79" t="n">
+        <v>3</v>
+      </c>
+      <c r="G155" s="79" t="n">
+        <v>-13.8</v>
+      </c>
+      <c r="H155" s="51"/>
+      <c r="I155" s="51"/>
+      <c r="J155" s="52"/>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="B156" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C156" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="D156" s="55"/>
+      <c r="E156" s="54"/>
+      <c r="F156" s="80"/>
+      <c r="G156" s="80"/>
+      <c r="H156" s="54"/>
+      <c r="I156" s="54"/>
+      <c r="J156" s="55"/>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="53"/>
+      <c r="B157" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C157" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="D157" s="57"/>
+      <c r="E157" s="56"/>
+      <c r="F157" s="81"/>
+      <c r="G157" s="81"/>
+      <c r="H157" s="56"/>
+      <c r="I157" s="56"/>
+      <c r="J157" s="57"/>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="B158" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C158" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="D158" s="55"/>
+      <c r="E158" s="54"/>
+      <c r="F158" s="80"/>
+      <c r="G158" s="80"/>
+      <c r="H158" s="54"/>
+      <c r="I158" s="54"/>
+      <c r="J158" s="55"/>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="53"/>
+      <c r="B159" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C159" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="D159" s="57"/>
+      <c r="E159" s="56"/>
+      <c r="F159" s="81"/>
+      <c r="G159" s="81"/>
+      <c r="H159" s="56"/>
+      <c r="I159" s="56"/>
+      <c r="J159" s="57"/>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B160" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C160" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="D160" s="55"/>
+      <c r="E160" s="54"/>
+      <c r="F160" s="80"/>
+      <c r="G160" s="80"/>
+      <c r="H160" s="54"/>
+      <c r="I160" s="54"/>
+      <c r="J160" s="55"/>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="53"/>
+      <c r="B161" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C161" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="D161" s="57"/>
+      <c r="E161" s="56"/>
+      <c r="F161" s="81"/>
+      <c r="G161" s="81"/>
+      <c r="H161" s="56"/>
+      <c r="I161" s="56"/>
+      <c r="J161" s="57"/>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="B162" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C162" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="D162" s="55"/>
+      <c r="E162" s="54"/>
+      <c r="F162" s="80"/>
+      <c r="G162" s="80"/>
+      <c r="H162" s="54"/>
+      <c r="I162" s="54"/>
+      <c r="J162" s="55"/>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="53"/>
+      <c r="B163" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C163" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="D163" s="57"/>
+      <c r="E163" s="56"/>
+      <c r="F163" s="81"/>
+      <c r="G163" s="81"/>
+      <c r="H163" s="56"/>
+      <c r="I163" s="56"/>
+      <c r="J163" s="57"/>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="B164" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C164" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="D164" s="55"/>
+      <c r="E164" s="54"/>
+      <c r="F164" s="80"/>
+      <c r="G164" s="80"/>
+      <c r="H164" s="54"/>
+      <c r="I164" s="54"/>
+      <c r="J164" s="55"/>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="53"/>
+      <c r="B165" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C165" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="D165" s="57"/>
+      <c r="E165" s="56"/>
+      <c r="F165" s="81"/>
+      <c r="G165" s="81"/>
+      <c r="H165" s="56"/>
+      <c r="I165" s="56"/>
+      <c r="J165" s="57"/>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="B166" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C166" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="D166" s="55"/>
+      <c r="E166" s="54"/>
+      <c r="F166" s="80"/>
+      <c r="G166" s="80"/>
+      <c r="H166" s="54"/>
+      <c r="I166" s="54"/>
+      <c r="J166" s="55"/>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="53"/>
+      <c r="B167" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C167" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="D167" s="57"/>
+      <c r="E167" s="56"/>
+      <c r="F167" s="81"/>
+      <c r="G167" s="81"/>
+      <c r="H167" s="56"/>
+      <c r="I167" s="56"/>
+      <c r="J167" s="57"/>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="B168" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C168" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="D168" s="55"/>
+      <c r="E168" s="54"/>
+      <c r="F168" s="80"/>
+      <c r="G168" s="80"/>
+      <c r="H168" s="54"/>
+      <c r="I168" s="54"/>
+      <c r="J168" s="55"/>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="53"/>
+      <c r="B169" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C169" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="D169" s="57"/>
+      <c r="E169" s="56"/>
+      <c r="F169" s="81"/>
+      <c r="G169" s="81"/>
+      <c r="H169" s="56"/>
+      <c r="I169" s="56"/>
+      <c r="J169" s="57"/>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="B170" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C170" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="D170" s="55"/>
+      <c r="E170" s="54"/>
+      <c r="F170" s="80"/>
+      <c r="G170" s="80"/>
+      <c r="H170" s="54"/>
+      <c r="I170" s="54"/>
+      <c r="J170" s="55"/>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="53"/>
+      <c r="B171" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C171" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="D171" s="57"/>
+      <c r="E171" s="56"/>
+      <c r="F171" s="81"/>
+      <c r="G171" s="81"/>
+      <c r="H171" s="56"/>
+      <c r="I171" s="56"/>
+      <c r="J171" s="57"/>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="B172" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C172" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="D172" s="60"/>
+      <c r="E172" s="59"/>
+      <c r="F172" s="82"/>
+      <c r="G172" s="82"/>
+      <c r="H172" s="59"/>
+      <c r="I172" s="59"/>
+      <c r="J172" s="60"/>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="58"/>
+      <c r="B173" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C173" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="D173" s="62"/>
+      <c r="E173" s="61"/>
+      <c r="F173" s="83"/>
+      <c r="G173" s="83"/>
+      <c r="H173" s="61"/>
+      <c r="I173" s="61"/>
+      <c r="J173" s="62"/>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="B174" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C174" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="D174" s="60"/>
+      <c r="E174" s="59"/>
+      <c r="F174" s="82"/>
+      <c r="G174" s="82"/>
+      <c r="H174" s="59"/>
+      <c r="I174" s="59"/>
+      <c r="J174" s="60"/>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="58"/>
+      <c r="B175" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C175" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="D175" s="62"/>
+      <c r="E175" s="61"/>
+      <c r="F175" s="83"/>
+      <c r="G175" s="83"/>
+      <c r="H175" s="61"/>
+      <c r="I175" s="61"/>
+      <c r="J175" s="62"/>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E176" s="71"/>
+      <c r="F176" s="71"/>
+      <c r="G176" s="71"/>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E177" s="71"/>
+      <c r="F177" s="71"/>
+      <c r="G177" s="71"/>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B178" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C178" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D178" s="27"/>
+      <c r="E178" s="26"/>
+      <c r="F178" s="74"/>
+      <c r="G178" s="74"/>
+      <c r="H178" s="26"/>
+      <c r="I178" s="26"/>
+      <c r="J178" s="27"/>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="25"/>
+      <c r="B179" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C179" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="D179" s="31"/>
+      <c r="E179" s="30"/>
+      <c r="F179" s="75"/>
+      <c r="G179" s="75"/>
+      <c r="H179" s="30"/>
+      <c r="I179" s="30"/>
+      <c r="J179" s="31"/>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B180" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C180" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D180" s="27"/>
+      <c r="E180" s="26"/>
+      <c r="F180" s="74"/>
+      <c r="G180" s="74"/>
+      <c r="H180" s="26"/>
+      <c r="I180" s="26"/>
+      <c r="J180" s="27"/>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="25"/>
+      <c r="B181" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C181" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="D181" s="31"/>
+      <c r="E181" s="30"/>
+      <c r="F181" s="75"/>
+      <c r="G181" s="75"/>
+      <c r="H181" s="30"/>
+      <c r="I181" s="30"/>
+      <c r="J181" s="31"/>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B182" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C182" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D182" s="27"/>
+      <c r="E182" s="26"/>
+      <c r="F182" s="74"/>
+      <c r="G182" s="74"/>
+      <c r="H182" s="26"/>
+      <c r="I182" s="26"/>
+      <c r="J182" s="27"/>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="25"/>
+      <c r="B183" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C183" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="D183" s="31"/>
+      <c r="E183" s="30"/>
+      <c r="F183" s="75"/>
+      <c r="G183" s="75"/>
+      <c r="H183" s="30"/>
+      <c r="I183" s="30"/>
+      <c r="J183" s="31"/>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B184" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C184" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D184" s="27"/>
+      <c r="E184" s="26"/>
+      <c r="F184" s="74"/>
+      <c r="G184" s="74"/>
+      <c r="H184" s="26"/>
+      <c r="I184" s="26"/>
+      <c r="J184" s="27"/>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="25"/>
+      <c r="B185" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C185" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="D185" s="31"/>
+      <c r="E185" s="30"/>
+      <c r="F185" s="75"/>
+      <c r="G185" s="75"/>
+      <c r="H185" s="30"/>
+      <c r="I185" s="30"/>
+      <c r="J185" s="31"/>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B186" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C186" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D186" s="27"/>
+      <c r="E186" s="26"/>
+      <c r="F186" s="74"/>
+      <c r="G186" s="74"/>
+      <c r="H186" s="26"/>
+      <c r="I186" s="26"/>
+      <c r="J186" s="27"/>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="25"/>
+      <c r="B187" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C187" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="D187" s="31"/>
+      <c r="E187" s="30"/>
+      <c r="F187" s="75"/>
+      <c r="G187" s="75"/>
+      <c r="H187" s="30"/>
+      <c r="I187" s="30"/>
+      <c r="J187" s="31"/>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B188" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C188" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D188" s="27"/>
+      <c r="E188" s="26"/>
+      <c r="F188" s="74"/>
+      <c r="G188" s="74"/>
+      <c r="H188" s="26"/>
+      <c r="I188" s="26"/>
+      <c r="J188" s="27"/>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="25"/>
+      <c r="B189" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C189" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="D189" s="31"/>
+      <c r="E189" s="30"/>
+      <c r="F189" s="75"/>
+      <c r="G189" s="75"/>
+      <c r="H189" s="30"/>
+      <c r="I189" s="30"/>
+      <c r="J189" s="31"/>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B190" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C190" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D190" s="27"/>
+      <c r="E190" s="26"/>
+      <c r="F190" s="74"/>
+      <c r="G190" s="74"/>
+      <c r="H190" s="26"/>
+      <c r="I190" s="26"/>
+      <c r="J190" s="27"/>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="25"/>
+      <c r="B191" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C191" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="D191" s="31"/>
+      <c r="E191" s="30"/>
+      <c r="F191" s="75"/>
+      <c r="G191" s="75"/>
+      <c r="H191" s="30"/>
+      <c r="I191" s="30"/>
+      <c r="J191" s="31"/>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B192" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C192" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D192" s="27"/>
+      <c r="E192" s="26"/>
+      <c r="F192" s="74"/>
+      <c r="G192" s="74"/>
+      <c r="H192" s="26"/>
+      <c r="I192" s="26"/>
+      <c r="J192" s="27"/>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="25"/>
+      <c r="B193" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C193" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="D193" s="31"/>
+      <c r="E193" s="30"/>
+      <c r="F193" s="75"/>
+      <c r="G193" s="75"/>
+      <c r="H193" s="30"/>
+      <c r="I193" s="30"/>
+      <c r="J193" s="31"/>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B194" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C194" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="D194" s="34"/>
+      <c r="E194" s="33"/>
+      <c r="F194" s="35"/>
+      <c r="G194" s="35"/>
+      <c r="H194" s="33"/>
+      <c r="I194" s="33"/>
+      <c r="J194" s="34"/>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="32"/>
+      <c r="B195" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C195" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D195" s="37"/>
+      <c r="E195" s="36"/>
+      <c r="F195" s="38"/>
+      <c r="G195" s="38"/>
+      <c r="H195" s="36"/>
+      <c r="I195" s="36"/>
+      <c r="J195" s="37"/>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B196" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C196" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="D196" s="34"/>
+      <c r="E196" s="33"/>
+      <c r="F196" s="35"/>
+      <c r="G196" s="35"/>
+      <c r="H196" s="33"/>
+      <c r="I196" s="33"/>
+      <c r="J196" s="34"/>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="32"/>
+      <c r="B197" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C197" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D197" s="37"/>
+      <c r="E197" s="36"/>
+      <c r="F197" s="38"/>
+      <c r="G197" s="38"/>
+      <c r="H197" s="36"/>
+      <c r="I197" s="36"/>
+      <c r="J197" s="37"/>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B198" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C198" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="D198" s="34"/>
+      <c r="E198" s="33"/>
+      <c r="F198" s="35"/>
+      <c r="G198" s="35"/>
+      <c r="H198" s="33"/>
+      <c r="I198" s="33"/>
+      <c r="J198" s="34"/>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="32"/>
+      <c r="B199" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C199" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D199" s="37"/>
+      <c r="E199" s="36"/>
+      <c r="F199" s="38"/>
+      <c r="G199" s="38"/>
+      <c r="H199" s="36"/>
+      <c r="I199" s="36"/>
+      <c r="J199" s="37"/>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B200" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C200" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="D200" s="34"/>
+      <c r="E200" s="33"/>
+      <c r="F200" s="35"/>
+      <c r="G200" s="35"/>
+      <c r="H200" s="33"/>
+      <c r="I200" s="33"/>
+      <c r="J200" s="34"/>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="32"/>
+      <c r="B201" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C201" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D201" s="37"/>
+      <c r="E201" s="36"/>
+      <c r="F201" s="38"/>
+      <c r="G201" s="38"/>
+      <c r="H201" s="36"/>
+      <c r="I201" s="36"/>
+      <c r="J201" s="37"/>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B202" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C202" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="D202" s="34"/>
+      <c r="E202" s="33"/>
+      <c r="F202" s="35"/>
+      <c r="G202" s="35"/>
+      <c r="H202" s="33"/>
+      <c r="I202" s="33"/>
+      <c r="J202" s="34"/>
+    </row>
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="32"/>
+      <c r="B203" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C203" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D203" s="37"/>
+      <c r="E203" s="36"/>
+      <c r="F203" s="38"/>
+      <c r="G203" s="38"/>
+      <c r="H203" s="36"/>
+      <c r="I203" s="36"/>
+      <c r="J203" s="37"/>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B204" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C204" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="D204" s="34"/>
+      <c r="E204" s="33"/>
+      <c r="F204" s="35"/>
+      <c r="G204" s="35"/>
+      <c r="H204" s="33"/>
+      <c r="I204" s="33"/>
+      <c r="J204" s="34"/>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="32"/>
+      <c r="B205" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C205" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D205" s="37"/>
+      <c r="E205" s="36"/>
+      <c r="F205" s="38"/>
+      <c r="G205" s="38"/>
+      <c r="H205" s="36"/>
+      <c r="I205" s="36"/>
+      <c r="J205" s="37"/>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B206" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C206" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="D206" s="34"/>
+      <c r="E206" s="33"/>
+      <c r="F206" s="35"/>
+      <c r="G206" s="35"/>
+      <c r="H206" s="33"/>
+      <c r="I206" s="33"/>
+      <c r="J206" s="34"/>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="32"/>
+      <c r="B207" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C207" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D207" s="37"/>
+      <c r="E207" s="36"/>
+      <c r="F207" s="38"/>
+      <c r="G207" s="38"/>
+      <c r="H207" s="36"/>
+      <c r="I207" s="36"/>
+      <c r="J207" s="37"/>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B208" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C208" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="D208" s="34"/>
+      <c r="E208" s="33"/>
+      <c r="F208" s="35"/>
+      <c r="G208" s="35"/>
+      <c r="H208" s="33"/>
+      <c r="I208" s="33"/>
+      <c r="J208" s="34"/>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="32"/>
+      <c r="B209" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C209" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D209" s="37"/>
+      <c r="E209" s="36"/>
+      <c r="F209" s="38"/>
+      <c r="G209" s="38"/>
+      <c r="H209" s="36"/>
+      <c r="I209" s="36"/>
+      <c r="J209" s="37"/>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B210" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C210" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="D210" s="41"/>
+      <c r="E210" s="40"/>
+      <c r="F210" s="76"/>
+      <c r="G210" s="76"/>
+      <c r="H210" s="40"/>
+      <c r="I210" s="40"/>
+      <c r="J210" s="41"/>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="39"/>
+      <c r="B211" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C211" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="D211" s="45"/>
+      <c r="E211" s="44"/>
+      <c r="F211" s="77"/>
+      <c r="G211" s="77"/>
+      <c r="H211" s="44"/>
+      <c r="I211" s="44"/>
+      <c r="J211" s="45"/>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B212" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C212" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="D212" s="41"/>
+      <c r="E212" s="40"/>
+      <c r="F212" s="76"/>
+      <c r="G212" s="76"/>
+      <c r="H212" s="40"/>
+      <c r="I212" s="40"/>
+      <c r="J212" s="41"/>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="39"/>
+      <c r="B213" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C213" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="D213" s="45"/>
+      <c r="E213" s="44"/>
+      <c r="F213" s="77"/>
+      <c r="G213" s="77"/>
+      <c r="H213" s="44"/>
+      <c r="I213" s="44"/>
+      <c r="J213" s="45"/>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="B214" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C214" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="D214" s="41"/>
+      <c r="E214" s="40"/>
+      <c r="F214" s="76"/>
+      <c r="G214" s="76"/>
+      <c r="H214" s="40"/>
+      <c r="I214" s="40"/>
+      <c r="J214" s="41"/>
+    </row>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="39"/>
+      <c r="B215" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C215" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="D215" s="45"/>
+      <c r="E215" s="44"/>
+      <c r="F215" s="77"/>
+      <c r="G215" s="77"/>
+      <c r="H215" s="44"/>
+      <c r="I215" s="44"/>
+      <c r="J215" s="45"/>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B216" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C216" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="D216" s="41"/>
+      <c r="E216" s="40"/>
+      <c r="F216" s="76"/>
+      <c r="G216" s="76"/>
+      <c r="H216" s="40"/>
+      <c r="I216" s="40"/>
+      <c r="J216" s="41"/>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="39"/>
+      <c r="B217" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C217" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="D217" s="45"/>
+      <c r="E217" s="44"/>
+      <c r="F217" s="77"/>
+      <c r="G217" s="77"/>
+      <c r="H217" s="44"/>
+      <c r="I217" s="44"/>
+      <c r="J217" s="45"/>
+    </row>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="B218" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C218" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="D218" s="41"/>
+      <c r="E218" s="40"/>
+      <c r="F218" s="76"/>
+      <c r="G218" s="76"/>
+      <c r="H218" s="40"/>
+      <c r="I218" s="40"/>
+      <c r="J218" s="41"/>
+    </row>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="39"/>
+      <c r="B219" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C219" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="D219" s="45"/>
+      <c r="E219" s="44"/>
+      <c r="F219" s="77"/>
+      <c r="G219" s="77"/>
+      <c r="H219" s="44"/>
+      <c r="I219" s="44"/>
+      <c r="J219" s="45"/>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B220" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C220" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="D220" s="41"/>
+      <c r="E220" s="40"/>
+      <c r="F220" s="76"/>
+      <c r="G220" s="76"/>
+      <c r="H220" s="40"/>
+      <c r="I220" s="40"/>
+      <c r="J220" s="41"/>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="39"/>
+      <c r="B221" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C221" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="D221" s="45"/>
+      <c r="E221" s="44"/>
+      <c r="F221" s="77"/>
+      <c r="G221" s="77"/>
+      <c r="H221" s="44"/>
+      <c r="I221" s="44"/>
+      <c r="J221" s="45"/>
+    </row>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B222" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C222" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="D222" s="41"/>
+      <c r="E222" s="40"/>
+      <c r="F222" s="76"/>
+      <c r="G222" s="76"/>
+      <c r="H222" s="40"/>
+      <c r="I222" s="40"/>
+      <c r="J222" s="41"/>
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="39"/>
+      <c r="B223" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C223" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="D223" s="45"/>
+      <c r="E223" s="44"/>
+      <c r="F223" s="77"/>
+      <c r="G223" s="77"/>
+      <c r="H223" s="44"/>
+      <c r="I223" s="44"/>
+      <c r="J223" s="45"/>
+    </row>
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="B224" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C224" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="D224" s="41"/>
+      <c r="E224" s="40"/>
+      <c r="F224" s="76"/>
+      <c r="G224" s="76"/>
+      <c r="H224" s="40"/>
+      <c r="I224" s="40"/>
+      <c r="J224" s="41"/>
+    </row>
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="39"/>
+      <c r="B225" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C225" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="D225" s="45"/>
+      <c r="E225" s="44"/>
+      <c r="F225" s="77"/>
+      <c r="G225" s="77"/>
+      <c r="H225" s="44"/>
+      <c r="I225" s="44"/>
+      <c r="J225" s="45"/>
+    </row>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="B226" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C226" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="D226" s="50"/>
+      <c r="E226" s="49"/>
+      <c r="F226" s="78"/>
+      <c r="G226" s="78"/>
+      <c r="H226" s="49"/>
+      <c r="I226" s="49"/>
+      <c r="J226" s="50"/>
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="48"/>
+      <c r="B227" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C227" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="D227" s="52"/>
+      <c r="E227" s="51"/>
+      <c r="F227" s="79"/>
+      <c r="G227" s="79"/>
+      <c r="H227" s="51"/>
+      <c r="I227" s="51"/>
+      <c r="J227" s="52"/>
+    </row>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="B228" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C228" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="D228" s="50"/>
+      <c r="E228" s="49"/>
+      <c r="F228" s="78"/>
+      <c r="G228" s="78"/>
+      <c r="H228" s="49"/>
+      <c r="I228" s="49"/>
+      <c r="J228" s="50"/>
+    </row>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="48"/>
+      <c r="B229" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C229" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="D229" s="52"/>
+      <c r="E229" s="51"/>
+      <c r="F229" s="79"/>
+      <c r="G229" s="79"/>
+      <c r="H229" s="51"/>
+      <c r="I229" s="51"/>
+      <c r="J229" s="52"/>
+    </row>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="B230" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C230" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="D230" s="50"/>
+      <c r="E230" s="49"/>
+      <c r="F230" s="78"/>
+      <c r="G230" s="78"/>
+      <c r="H230" s="49"/>
+      <c r="I230" s="49"/>
+      <c r="J230" s="50"/>
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="48"/>
+      <c r="B231" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C231" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="D231" s="52"/>
+      <c r="E231" s="51"/>
+      <c r="F231" s="79"/>
+      <c r="G231" s="79"/>
+      <c r="H231" s="51"/>
+      <c r="I231" s="51"/>
+      <c r="J231" s="52"/>
+    </row>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="B232" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C232" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="D232" s="50"/>
+      <c r="E232" s="49"/>
+      <c r="F232" s="78"/>
+      <c r="G232" s="78"/>
+      <c r="H232" s="49"/>
+      <c r="I232" s="49"/>
+      <c r="J232" s="50"/>
+    </row>
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="48"/>
+      <c r="B233" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C233" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="D233" s="52"/>
+      <c r="E233" s="51"/>
+      <c r="F233" s="79"/>
+      <c r="G233" s="79"/>
+      <c r="H233" s="51"/>
+      <c r="I233" s="51"/>
+      <c r="J233" s="52"/>
+    </row>
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="B234" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C234" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="D234" s="50"/>
+      <c r="E234" s="49"/>
+      <c r="F234" s="78"/>
+      <c r="G234" s="78"/>
+      <c r="H234" s="49"/>
+      <c r="I234" s="49"/>
+      <c r="J234" s="50"/>
+    </row>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="48"/>
+      <c r="B235" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C235" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="D235" s="52"/>
+      <c r="E235" s="51"/>
+      <c r="F235" s="79"/>
+      <c r="G235" s="79"/>
+      <c r="H235" s="51"/>
+      <c r="I235" s="51"/>
+      <c r="J235" s="52"/>
+    </row>
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="B236" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C236" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="D236" s="50"/>
+      <c r="E236" s="49"/>
+      <c r="F236" s="78"/>
+      <c r="G236" s="78"/>
+      <c r="H236" s="49"/>
+      <c r="I236" s="49"/>
+      <c r="J236" s="50"/>
+    </row>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="48"/>
+      <c r="B237" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C237" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="D237" s="52"/>
+      <c r="E237" s="51"/>
+      <c r="F237" s="79"/>
+      <c r="G237" s="79"/>
+      <c r="H237" s="51"/>
+      <c r="I237" s="51"/>
+      <c r="J237" s="52"/>
+    </row>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="B238" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C238" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="D238" s="50"/>
+      <c r="E238" s="49"/>
+      <c r="F238" s="78"/>
+      <c r="G238" s="78"/>
+      <c r="H238" s="49"/>
+      <c r="I238" s="49"/>
+      <c r="J238" s="50"/>
+    </row>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="48"/>
+      <c r="B239" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C239" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="D239" s="52"/>
+      <c r="E239" s="51"/>
+      <c r="F239" s="79"/>
+      <c r="G239" s="79"/>
+      <c r="H239" s="51"/>
+      <c r="I239" s="51"/>
+      <c r="J239" s="52"/>
+    </row>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="B240" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C240" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="D240" s="50"/>
+      <c r="E240" s="49"/>
+      <c r="F240" s="78"/>
+      <c r="G240" s="78"/>
+      <c r="H240" s="49"/>
+      <c r="I240" s="49"/>
+      <c r="J240" s="50"/>
+    </row>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="48"/>
+      <c r="B241" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C241" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="D241" s="52"/>
+      <c r="E241" s="51"/>
+      <c r="F241" s="79"/>
+      <c r="G241" s="79"/>
+      <c r="H241" s="51"/>
+      <c r="I241" s="51"/>
+      <c r="J241" s="52"/>
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="B242" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C242" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="D242" s="55"/>
+      <c r="E242" s="54"/>
+      <c r="F242" s="80"/>
+      <c r="G242" s="80"/>
+      <c r="H242" s="54"/>
+      <c r="I242" s="54"/>
+      <c r="J242" s="55"/>
+    </row>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="53"/>
+      <c r="B243" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C243" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="D243" s="57"/>
+      <c r="E243" s="56"/>
+      <c r="F243" s="81"/>
+      <c r="G243" s="81"/>
+      <c r="H243" s="56"/>
+      <c r="I243" s="56"/>
+      <c r="J243" s="57"/>
+    </row>
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="B244" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C244" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="D244" s="55"/>
+      <c r="E244" s="54"/>
+      <c r="F244" s="80"/>
+      <c r="G244" s="80"/>
+      <c r="H244" s="54"/>
+      <c r="I244" s="54"/>
+      <c r="J244" s="55"/>
+    </row>
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="53"/>
+      <c r="B245" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C245" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="D245" s="57"/>
+      <c r="E245" s="56"/>
+      <c r="F245" s="81"/>
+      <c r="G245" s="81"/>
+      <c r="H245" s="56"/>
+      <c r="I245" s="56"/>
+      <c r="J245" s="57"/>
+    </row>
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B246" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C246" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="D246" s="55"/>
+      <c r="E246" s="54"/>
+      <c r="F246" s="80"/>
+      <c r="G246" s="80"/>
+      <c r="H246" s="54"/>
+      <c r="I246" s="54"/>
+      <c r="J246" s="55"/>
+    </row>
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="53"/>
+      <c r="B247" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C247" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="D247" s="57"/>
+      <c r="E247" s="56"/>
+      <c r="F247" s="81"/>
+      <c r="G247" s="81"/>
+      <c r="H247" s="56"/>
+      <c r="I247" s="56"/>
+      <c r="J247" s="57"/>
+    </row>
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="B248" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C248" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="D248" s="55"/>
+      <c r="E248" s="54"/>
+      <c r="F248" s="80"/>
+      <c r="G248" s="80"/>
+      <c r="H248" s="54"/>
+      <c r="I248" s="54"/>
+      <c r="J248" s="55"/>
+    </row>
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="53"/>
+      <c r="B249" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C249" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="D249" s="57"/>
+      <c r="E249" s="56"/>
+      <c r="F249" s="81"/>
+      <c r="G249" s="81"/>
+      <c r="H249" s="56"/>
+      <c r="I249" s="56"/>
+      <c r="J249" s="57"/>
+    </row>
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="B250" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C250" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="D250" s="55"/>
+      <c r="E250" s="54"/>
+      <c r="F250" s="80"/>
+      <c r="G250" s="80"/>
+      <c r="H250" s="54"/>
+      <c r="I250" s="54"/>
+      <c r="J250" s="55"/>
+    </row>
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="53"/>
+      <c r="B251" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C251" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="D251" s="57"/>
+      <c r="E251" s="56"/>
+      <c r="F251" s="81"/>
+      <c r="G251" s="81"/>
+      <c r="H251" s="56"/>
+      <c r="I251" s="56"/>
+      <c r="J251" s="57"/>
+    </row>
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="B252" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C252" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="D252" s="55"/>
+      <c r="E252" s="54"/>
+      <c r="F252" s="80"/>
+      <c r="G252" s="80"/>
+      <c r="H252" s="54"/>
+      <c r="I252" s="54"/>
+      <c r="J252" s="55"/>
+    </row>
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="53"/>
+      <c r="B253" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C253" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="D253" s="57"/>
+      <c r="E253" s="56"/>
+      <c r="F253" s="81"/>
+      <c r="G253" s="81"/>
+      <c r="H253" s="56"/>
+      <c r="I253" s="56"/>
+      <c r="J253" s="57"/>
+    </row>
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="B254" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C254" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="D254" s="55"/>
+      <c r="E254" s="54"/>
+      <c r="F254" s="80"/>
+      <c r="G254" s="80"/>
+      <c r="H254" s="54"/>
+      <c r="I254" s="54"/>
+      <c r="J254" s="55"/>
+    </row>
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="53"/>
+      <c r="B255" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C255" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="D255" s="57"/>
+      <c r="E255" s="56"/>
+      <c r="F255" s="81"/>
+      <c r="G255" s="81"/>
+      <c r="H255" s="56"/>
+      <c r="I255" s="56"/>
+      <c r="J255" s="57"/>
+    </row>
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="B256" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C256" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="D256" s="55"/>
+      <c r="E256" s="54"/>
+      <c r="F256" s="80"/>
+      <c r="G256" s="80"/>
+      <c r="H256" s="54"/>
+      <c r="I256" s="54"/>
+      <c r="J256" s="55"/>
+    </row>
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="53"/>
+      <c r="B257" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C257" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="D257" s="57"/>
+      <c r="E257" s="56"/>
+      <c r="F257" s="81"/>
+      <c r="G257" s="81"/>
+      <c r="H257" s="56"/>
+      <c r="I257" s="56"/>
+      <c r="J257" s="57"/>
+    </row>
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="B258" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C258" s="59" t="s">
+        <v>337</v>
+      </c>
+      <c r="D258" s="60"/>
+      <c r="E258" s="59"/>
+      <c r="F258" s="82"/>
+      <c r="G258" s="82"/>
+      <c r="H258" s="59"/>
+      <c r="I258" s="59"/>
+      <c r="J258" s="60"/>
+    </row>
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="58"/>
+      <c r="B259" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C259" s="61" t="s">
+        <v>337</v>
+      </c>
+      <c r="D259" s="62"/>
+      <c r="E259" s="61"/>
+      <c r="F259" s="83"/>
+      <c r="G259" s="83"/>
+      <c r="H259" s="61"/>
+      <c r="I259" s="61"/>
+      <c r="J259" s="62"/>
+    </row>
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="B260" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C260" s="59" t="s">
+        <v>337</v>
+      </c>
+      <c r="D260" s="60"/>
+      <c r="E260" s="59"/>
+      <c r="F260" s="82"/>
+      <c r="G260" s="82"/>
+      <c r="H260" s="59"/>
+      <c r="I260" s="59"/>
+      <c r="J260" s="60"/>
+    </row>
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="58"/>
+      <c r="B261" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C261" s="61" t="s">
+        <v>337</v>
+      </c>
+      <c r="D261" s="62"/>
+      <c r="E261" s="61"/>
+      <c r="F261" s="83"/>
+      <c r="G261" s="83"/>
+      <c r="H261" s="61"/>
+      <c r="I261" s="61"/>
+      <c r="J261" s="62"/>
+    </row>
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E262" s="71"/>
+      <c r="F262" s="71"/>
+      <c r="G262" s="71"/>
+    </row>
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E263" s="71"/>
+      <c r="F263" s="71"/>
+      <c r="G263" s="71"/>
+    </row>
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B264" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C264" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="D264" s="27"/>
+      <c r="E264" s="26"/>
+      <c r="F264" s="74"/>
+      <c r="G264" s="74"/>
+      <c r="H264" s="26"/>
+      <c r="I264" s="26" t="s">
+        <v>786</v>
+      </c>
+      <c r="J264" s="27"/>
+    </row>
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="25"/>
+      <c r="B265" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C265" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="D265" s="31"/>
+      <c r="E265" s="30"/>
+      <c r="F265" s="75"/>
+      <c r="G265" s="75"/>
+      <c r="H265" s="30"/>
+      <c r="I265" s="30"/>
+      <c r="J265" s="31"/>
+    </row>
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B266" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C266" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="D266" s="27"/>
+      <c r="E266" s="26"/>
+      <c r="F266" s="74"/>
+      <c r="G266" s="74"/>
+      <c r="H266" s="26"/>
+      <c r="I266" s="26"/>
+      <c r="J266" s="27"/>
+    </row>
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="25"/>
+      <c r="B267" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C267" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="D267" s="31"/>
+      <c r="E267" s="30"/>
+      <c r="F267" s="75"/>
+      <c r="G267" s="75"/>
+      <c r="H267" s="30"/>
+      <c r="I267" s="30"/>
+      <c r="J267" s="31"/>
+    </row>
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B268" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C268" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="D268" s="27"/>
+      <c r="E268" s="26"/>
+      <c r="F268" s="74"/>
+      <c r="G268" s="74"/>
+      <c r="H268" s="26"/>
+      <c r="I268" s="26"/>
+      <c r="J268" s="27"/>
+    </row>
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="25"/>
+      <c r="B269" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C269" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="D269" s="31"/>
+      <c r="E269" s="30"/>
+      <c r="F269" s="75"/>
+      <c r="G269" s="75"/>
+      <c r="H269" s="30"/>
+      <c r="I269" s="30"/>
+      <c r="J269" s="31"/>
+    </row>
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B270" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C270" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="D270" s="27"/>
+      <c r="E270" s="26"/>
+      <c r="F270" s="74"/>
+      <c r="G270" s="74"/>
+      <c r="H270" s="26"/>
+      <c r="I270" s="26"/>
+      <c r="J270" s="27"/>
+    </row>
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="25"/>
+      <c r="B271" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C271" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="D271" s="31"/>
+      <c r="E271" s="30"/>
+      <c r="F271" s="75"/>
+      <c r="G271" s="75"/>
+      <c r="H271" s="30"/>
+      <c r="I271" s="30"/>
+      <c r="J271" s="31"/>
+    </row>
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B272" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C272" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="D272" s="27"/>
+      <c r="E272" s="26"/>
+      <c r="F272" s="74"/>
+      <c r="G272" s="74"/>
+      <c r="H272" s="26"/>
+      <c r="I272" s="26"/>
+      <c r="J272" s="27"/>
+    </row>
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="25"/>
+      <c r="B273" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C273" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="D273" s="31"/>
+      <c r="E273" s="30"/>
+      <c r="F273" s="75"/>
+      <c r="G273" s="75"/>
+      <c r="H273" s="30"/>
+      <c r="I273" s="30"/>
+      <c r="J273" s="31"/>
+    </row>
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B274" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C274" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="D274" s="27"/>
+      <c r="E274" s="26"/>
+      <c r="F274" s="74"/>
+      <c r="G274" s="74"/>
+      <c r="H274" s="26"/>
+      <c r="I274" s="26"/>
+      <c r="J274" s="27"/>
+    </row>
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="25"/>
+      <c r="B275" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C275" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="D275" s="31"/>
+      <c r="E275" s="30"/>
+      <c r="F275" s="75"/>
+      <c r="G275" s="75"/>
+      <c r="H275" s="30"/>
+      <c r="I275" s="30"/>
+      <c r="J275" s="31"/>
+    </row>
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B276" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C276" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="D276" s="27"/>
+      <c r="E276" s="26"/>
+      <c r="F276" s="74"/>
+      <c r="G276" s="74"/>
+      <c r="H276" s="26"/>
+      <c r="I276" s="26"/>
+      <c r="J276" s="27"/>
+    </row>
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="25"/>
+      <c r="B277" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C277" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="D277" s="31"/>
+      <c r="E277" s="30"/>
+      <c r="F277" s="75"/>
+      <c r="G277" s="75"/>
+      <c r="H277" s="30"/>
+      <c r="I277" s="30"/>
+      <c r="J277" s="31"/>
+    </row>
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B278" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C278" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="D278" s="27"/>
+      <c r="E278" s="26"/>
+      <c r="F278" s="74"/>
+      <c r="G278" s="74"/>
+      <c r="H278" s="26"/>
+      <c r="I278" s="26"/>
+      <c r="J278" s="27"/>
+    </row>
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="25"/>
+      <c r="B279" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C279" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="D279" s="31"/>
+      <c r="E279" s="30"/>
+      <c r="F279" s="75"/>
+      <c r="G279" s="75"/>
+      <c r="H279" s="30"/>
+      <c r="I279" s="30"/>
+      <c r="J279" s="31"/>
+    </row>
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B280" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C280" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="D280" s="34"/>
+      <c r="E280" s="33"/>
+      <c r="F280" s="35"/>
+      <c r="G280" s="35"/>
+      <c r="H280" s="33"/>
+      <c r="I280" s="33"/>
+      <c r="J280" s="34"/>
+    </row>
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="32"/>
+      <c r="B281" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C281" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="D281" s="37"/>
+      <c r="E281" s="36"/>
+      <c r="F281" s="38"/>
+      <c r="G281" s="38"/>
+      <c r="H281" s="36"/>
+      <c r="I281" s="36"/>
+      <c r="J281" s="37"/>
+    </row>
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B282" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C282" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="D282" s="34"/>
+      <c r="E282" s="33"/>
+      <c r="F282" s="35"/>
+      <c r="G282" s="35"/>
+      <c r="H282" s="33"/>
+      <c r="I282" s="33"/>
+      <c r="J282" s="34"/>
+    </row>
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="32"/>
+      <c r="B283" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C283" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="D283" s="37"/>
+      <c r="E283" s="36"/>
+      <c r="F283" s="38"/>
+      <c r="G283" s="38"/>
+      <c r="H283" s="36"/>
+      <c r="I283" s="36"/>
+      <c r="J283" s="37"/>
+    </row>
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B284" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C284" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="D284" s="34"/>
+      <c r="E284" s="33"/>
+      <c r="F284" s="35"/>
+      <c r="G284" s="35"/>
+      <c r="H284" s="33"/>
+      <c r="I284" s="33"/>
+      <c r="J284" s="34"/>
+    </row>
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="32"/>
+      <c r="B285" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C285" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="D285" s="37"/>
+      <c r="E285" s="36"/>
+      <c r="F285" s="38"/>
+      <c r="G285" s="38"/>
+      <c r="H285" s="36"/>
+      <c r="I285" s="36"/>
+      <c r="J285" s="37"/>
+    </row>
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B286" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C286" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="D286" s="34"/>
+      <c r="E286" s="33"/>
+      <c r="F286" s="35"/>
+      <c r="G286" s="35"/>
+      <c r="H286" s="33"/>
+      <c r="I286" s="33"/>
+      <c r="J286" s="34"/>
+    </row>
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="32"/>
+      <c r="B287" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C287" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="D287" s="37"/>
+      <c r="E287" s="36"/>
+      <c r="F287" s="38"/>
+      <c r="G287" s="38"/>
+      <c r="H287" s="36"/>
+      <c r="I287" s="36"/>
+      <c r="J287" s="37"/>
+    </row>
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B288" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C288" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="D288" s="34"/>
+      <c r="E288" s="33"/>
+      <c r="F288" s="35"/>
+      <c r="G288" s="35"/>
+      <c r="H288" s="33"/>
+      <c r="I288" s="33"/>
+      <c r="J288" s="34"/>
+    </row>
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="32"/>
+      <c r="B289" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C289" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="D289" s="37"/>
+      <c r="E289" s="36"/>
+      <c r="F289" s="38"/>
+      <c r="G289" s="38"/>
+      <c r="H289" s="36"/>
+      <c r="I289" s="36"/>
+      <c r="J289" s="37"/>
+    </row>
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B290" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C290" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="D290" s="34"/>
+      <c r="E290" s="33"/>
+      <c r="F290" s="35"/>
+      <c r="G290" s="35"/>
+      <c r="H290" s="33"/>
+      <c r="I290" s="33"/>
+      <c r="J290" s="34"/>
+    </row>
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="32"/>
+      <c r="B291" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C291" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="D291" s="37"/>
+      <c r="E291" s="36"/>
+      <c r="F291" s="38"/>
+      <c r="G291" s="38"/>
+      <c r="H291" s="36"/>
+      <c r="I291" s="36"/>
+      <c r="J291" s="37"/>
+    </row>
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B292" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C292" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="D292" s="34"/>
+      <c r="E292" s="33"/>
+      <c r="F292" s="35"/>
+      <c r="G292" s="35"/>
+      <c r="H292" s="33"/>
+      <c r="I292" s="33"/>
+      <c r="J292" s="34"/>
+    </row>
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="32"/>
+      <c r="B293" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C293" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="D293" s="37"/>
+      <c r="E293" s="36"/>
+      <c r="F293" s="38"/>
+      <c r="G293" s="38"/>
+      <c r="H293" s="36"/>
+      <c r="I293" s="36"/>
+      <c r="J293" s="37"/>
+    </row>
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B294" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C294" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="D294" s="34"/>
+      <c r="E294" s="33"/>
+      <c r="F294" s="35"/>
+      <c r="G294" s="35"/>
+      <c r="H294" s="33"/>
+      <c r="I294" s="33"/>
+      <c r="J294" s="34"/>
+    </row>
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="32"/>
+      <c r="B295" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C295" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="D295" s="37"/>
+      <c r="E295" s="36"/>
+      <c r="F295" s="38"/>
+      <c r="G295" s="38"/>
+      <c r="H295" s="36"/>
+      <c r="I295" s="36"/>
+      <c r="J295" s="37"/>
+    </row>
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="B296" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C296" s="69" t="s">
+        <v>433</v>
+      </c>
+      <c r="D296" s="42"/>
+      <c r="E296" s="69"/>
+      <c r="F296" s="43"/>
+      <c r="G296" s="43"/>
+      <c r="H296" s="69"/>
+      <c r="I296" s="69"/>
+      <c r="J296" s="42"/>
+    </row>
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="68"/>
+      <c r="B297" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C297" s="70" t="s">
+        <v>433</v>
+      </c>
+      <c r="D297" s="46"/>
+      <c r="E297" s="70"/>
+      <c r="F297" s="47"/>
+      <c r="G297" s="47"/>
+      <c r="H297" s="70"/>
+      <c r="I297" s="70"/>
+      <c r="J297" s="46"/>
+    </row>
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="B298" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C298" s="69" t="s">
+        <v>433</v>
+      </c>
+      <c r="D298" s="42"/>
+      <c r="E298" s="69"/>
+      <c r="F298" s="43"/>
+      <c r="G298" s="43"/>
+      <c r="H298" s="69"/>
+      <c r="I298" s="69"/>
+      <c r="J298" s="42"/>
+    </row>
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="68"/>
+      <c r="B299" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C299" s="70" t="s">
+        <v>433</v>
+      </c>
+      <c r="D299" s="46"/>
+      <c r="E299" s="70"/>
+      <c r="F299" s="47"/>
+      <c r="G299" s="47"/>
+      <c r="H299" s="70"/>
+      <c r="I299" s="70"/>
+      <c r="J299" s="46"/>
+    </row>
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B300" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C300" s="69" t="s">
+        <v>433</v>
+      </c>
+      <c r="D300" s="42"/>
+      <c r="E300" s="69"/>
+      <c r="F300" s="43"/>
+      <c r="G300" s="43"/>
+      <c r="H300" s="69"/>
+      <c r="I300" s="69"/>
+      <c r="J300" s="42"/>
+    </row>
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="68"/>
+      <c r="B301" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C301" s="70" t="s">
+        <v>433</v>
+      </c>
+      <c r="D301" s="46"/>
+      <c r="E301" s="70"/>
+      <c r="F301" s="47"/>
+      <c r="G301" s="47"/>
+      <c r="H301" s="70"/>
+      <c r="I301" s="70"/>
+      <c r="J301" s="46"/>
+    </row>
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="B302" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C302" s="69" t="s">
+        <v>433</v>
+      </c>
+      <c r="D302" s="42"/>
+      <c r="E302" s="69"/>
+      <c r="F302" s="43"/>
+      <c r="G302" s="43"/>
+      <c r="H302" s="69"/>
+      <c r="I302" s="69"/>
+      <c r="J302" s="42"/>
+    </row>
+    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="68"/>
+      <c r="B303" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C303" s="70" t="s">
+        <v>433</v>
+      </c>
+      <c r="D303" s="46"/>
+      <c r="E303" s="70"/>
+      <c r="F303" s="47"/>
+      <c r="G303" s="47"/>
+      <c r="H303" s="70"/>
+      <c r="I303" s="70"/>
+      <c r="J303" s="46"/>
+    </row>
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="B304" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C304" s="69" t="s">
+        <v>433</v>
+      </c>
+      <c r="D304" s="42"/>
+      <c r="E304" s="69"/>
+      <c r="F304" s="43"/>
+      <c r="G304" s="43"/>
+      <c r="H304" s="69"/>
+      <c r="I304" s="69"/>
+      <c r="J304" s="42"/>
+    </row>
+    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="68"/>
+      <c r="B305" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C305" s="70" t="s">
+        <v>433</v>
+      </c>
+      <c r="D305" s="46"/>
+      <c r="E305" s="70"/>
+      <c r="F305" s="47"/>
+      <c r="G305" s="47"/>
+      <c r="H305" s="70"/>
+      <c r="I305" s="70"/>
+      <c r="J305" s="46"/>
+    </row>
+    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="B306" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C306" s="69" t="s">
+        <v>433</v>
+      </c>
+      <c r="D306" s="42"/>
+      <c r="E306" s="69"/>
+      <c r="F306" s="43"/>
+      <c r="G306" s="43"/>
+      <c r="H306" s="69"/>
+      <c r="I306" s="69"/>
+      <c r="J306" s="42"/>
+    </row>
+    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="68"/>
+      <c r="B307" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C307" s="70" t="s">
+        <v>433</v>
+      </c>
+      <c r="D307" s="46"/>
+      <c r="E307" s="70"/>
+      <c r="F307" s="47"/>
+      <c r="G307" s="47"/>
+      <c r="H307" s="70"/>
+      <c r="I307" s="70"/>
+      <c r="J307" s="46"/>
+    </row>
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="B308" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C308" s="69" t="s">
+        <v>433</v>
+      </c>
+      <c r="D308" s="42"/>
+      <c r="E308" s="69"/>
+      <c r="F308" s="43"/>
+      <c r="G308" s="43"/>
+      <c r="H308" s="69"/>
+      <c r="I308" s="69"/>
+      <c r="J308" s="42"/>
+    </row>
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="68"/>
+      <c r="B309" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C309" s="70" t="s">
+        <v>433</v>
+      </c>
+      <c r="D309" s="46"/>
+      <c r="E309" s="70"/>
+      <c r="F309" s="47"/>
+      <c r="G309" s="47"/>
+      <c r="H309" s="70"/>
+      <c r="I309" s="70"/>
+      <c r="J309" s="46"/>
+    </row>
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="B310" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C310" s="69" t="s">
+        <v>433</v>
+      </c>
+      <c r="D310" s="42"/>
+      <c r="E310" s="69"/>
+      <c r="F310" s="43"/>
+      <c r="G310" s="43"/>
+      <c r="H310" s="69"/>
+      <c r="I310" s="69"/>
+      <c r="J310" s="42"/>
+    </row>
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="68"/>
+      <c r="B311" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C311" s="70" t="s">
+        <v>433</v>
+      </c>
+      <c r="D311" s="46"/>
+      <c r="E311" s="70"/>
+      <c r="F311" s="47"/>
+      <c r="G311" s="47"/>
+      <c r="H311" s="70"/>
+      <c r="I311" s="70"/>
+      <c r="J311" s="46"/>
+    </row>
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="B312" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C312" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="D312" s="50"/>
+      <c r="E312" s="49"/>
+      <c r="F312" s="78"/>
+      <c r="G312" s="78"/>
+      <c r="H312" s="49"/>
+      <c r="I312" s="49"/>
+      <c r="J312" s="50"/>
+    </row>
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="48"/>
+      <c r="B313" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C313" s="51" t="s">
+        <v>433</v>
+      </c>
+      <c r="D313" s="52"/>
+      <c r="E313" s="51"/>
+      <c r="F313" s="79"/>
+      <c r="G313" s="79"/>
+      <c r="H313" s="51"/>
+      <c r="I313" s="51"/>
+      <c r="J313" s="52"/>
+    </row>
+    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="B314" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C314" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="D314" s="50"/>
+      <c r="E314" s="49"/>
+      <c r="F314" s="78"/>
+      <c r="G314" s="78"/>
+      <c r="H314" s="49"/>
+      <c r="I314" s="49"/>
+      <c r="J314" s="50"/>
+    </row>
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="48"/>
+      <c r="B315" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C315" s="51" t="s">
+        <v>433</v>
+      </c>
+      <c r="D315" s="52"/>
+      <c r="E315" s="51"/>
+      <c r="F315" s="79"/>
+      <c r="G315" s="79"/>
+      <c r="H315" s="51"/>
+      <c r="I315" s="51"/>
+      <c r="J315" s="52"/>
+    </row>
+    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="B316" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C316" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="D316" s="50"/>
+      <c r="E316" s="49"/>
+      <c r="F316" s="78"/>
+      <c r="G316" s="78"/>
+      <c r="H316" s="49"/>
+      <c r="I316" s="49"/>
+      <c r="J316" s="50"/>
+    </row>
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="48"/>
+      <c r="B317" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C317" s="51" t="s">
+        <v>433</v>
+      </c>
+      <c r="D317" s="52"/>
+      <c r="E317" s="51"/>
+      <c r="F317" s="79"/>
+      <c r="G317" s="79"/>
+      <c r="H317" s="51"/>
+      <c r="I317" s="51"/>
+      <c r="J317" s="52"/>
+    </row>
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="B318" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C318" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="D318" s="50"/>
+      <c r="E318" s="49"/>
+      <c r="F318" s="78"/>
+      <c r="G318" s="78"/>
+      <c r="H318" s="49"/>
+      <c r="I318" s="49"/>
+      <c r="J318" s="50"/>
+    </row>
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="48"/>
+      <c r="B319" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C319" s="51" t="s">
+        <v>433</v>
+      </c>
+      <c r="D319" s="52"/>
+      <c r="E319" s="51"/>
+      <c r="F319" s="79"/>
+      <c r="G319" s="79"/>
+      <c r="H319" s="51"/>
+      <c r="I319" s="51"/>
+      <c r="J319" s="52"/>
+    </row>
+    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="B320" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C320" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="D320" s="50"/>
+      <c r="E320" s="49"/>
+      <c r="F320" s="78"/>
+      <c r="G320" s="78"/>
+      <c r="H320" s="49"/>
+      <c r="I320" s="49"/>
+      <c r="J320" s="50"/>
+    </row>
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="48"/>
+      <c r="B321" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C321" s="51" t="s">
+        <v>433</v>
+      </c>
+      <c r="D321" s="52"/>
+      <c r="E321" s="51"/>
+      <c r="F321" s="79"/>
+      <c r="G321" s="79"/>
+      <c r="H321" s="51"/>
+      <c r="I321" s="51"/>
+      <c r="J321" s="52"/>
+    </row>
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="B322" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C322" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="D322" s="50"/>
+      <c r="E322" s="49"/>
+      <c r="F322" s="78"/>
+      <c r="G322" s="78"/>
+      <c r="H322" s="49"/>
+      <c r="I322" s="49"/>
+      <c r="J322" s="50"/>
+    </row>
+    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="48"/>
+      <c r="B323" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C323" s="51" t="s">
+        <v>433</v>
+      </c>
+      <c r="D323" s="52"/>
+      <c r="E323" s="51"/>
+      <c r="F323" s="79"/>
+      <c r="G323" s="79"/>
+      <c r="H323" s="51"/>
+      <c r="I323" s="51"/>
+      <c r="J323" s="52"/>
+    </row>
+    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="B324" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C324" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="D324" s="50"/>
+      <c r="E324" s="49"/>
+      <c r="F324" s="78"/>
+      <c r="G324" s="78"/>
+      <c r="H324" s="49"/>
+      <c r="I324" s="49"/>
+      <c r="J324" s="50"/>
+    </row>
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="48"/>
+      <c r="B325" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C325" s="51" t="s">
+        <v>433</v>
+      </c>
+      <c r="D325" s="52"/>
+      <c r="E325" s="51"/>
+      <c r="F325" s="79"/>
+      <c r="G325" s="79"/>
+      <c r="H325" s="51"/>
+      <c r="I325" s="51"/>
+      <c r="J325" s="52"/>
+    </row>
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="B326" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C326" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="D326" s="50"/>
+      <c r="E326" s="49"/>
+      <c r="F326" s="78"/>
+      <c r="G326" s="78"/>
+      <c r="H326" s="49"/>
+      <c r="I326" s="49"/>
+      <c r="J326" s="50"/>
+    </row>
+    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="48"/>
+      <c r="B327" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C327" s="51" t="s">
+        <v>433</v>
+      </c>
+      <c r="D327" s="52"/>
+      <c r="E327" s="51"/>
+      <c r="F327" s="79"/>
+      <c r="G327" s="79"/>
+      <c r="H327" s="51"/>
+      <c r="I327" s="51"/>
+      <c r="J327" s="52"/>
+    </row>
+    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="B328" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C328" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="D328" s="55"/>
+      <c r="E328" s="54"/>
+      <c r="F328" s="80"/>
+      <c r="G328" s="80"/>
+      <c r="H328" s="54"/>
+      <c r="I328" s="54"/>
+      <c r="J328" s="55"/>
+    </row>
+    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="53"/>
+      <c r="B329" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C329" s="56" t="s">
+        <v>433</v>
+      </c>
+      <c r="D329" s="57"/>
+      <c r="E329" s="56"/>
+      <c r="F329" s="81"/>
+      <c r="G329" s="81"/>
+      <c r="H329" s="56"/>
+      <c r="I329" s="56"/>
+      <c r="J329" s="57"/>
+    </row>
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="B330" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C330" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="D330" s="55"/>
+      <c r="E330" s="54"/>
+      <c r="F330" s="80"/>
+      <c r="G330" s="80"/>
+      <c r="H330" s="54"/>
+      <c r="I330" s="54"/>
+      <c r="J330" s="55"/>
+    </row>
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="53"/>
+      <c r="B331" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C331" s="56" t="s">
+        <v>433</v>
+      </c>
+      <c r="D331" s="57"/>
+      <c r="E331" s="56"/>
+      <c r="F331" s="81"/>
+      <c r="G331" s="81"/>
+      <c r="H331" s="56"/>
+      <c r="I331" s="56"/>
+      <c r="J331" s="57"/>
+    </row>
+    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B332" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C332" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="D332" s="55"/>
+      <c r="E332" s="54"/>
+      <c r="F332" s="80"/>
+      <c r="G332" s="80"/>
+      <c r="H332" s="54"/>
+      <c r="I332" s="54"/>
+      <c r="J332" s="55"/>
+    </row>
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="53"/>
+      <c r="B333" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C333" s="56" t="s">
+        <v>433</v>
+      </c>
+      <c r="D333" s="57"/>
+      <c r="E333" s="56"/>
+      <c r="F333" s="81"/>
+      <c r="G333" s="81"/>
+      <c r="H333" s="56"/>
+      <c r="I333" s="56"/>
+      <c r="J333" s="57"/>
+    </row>
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="B334" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C334" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="D334" s="55"/>
+      <c r="E334" s="54"/>
+      <c r="F334" s="80"/>
+      <c r="G334" s="80"/>
+      <c r="H334" s="54"/>
+      <c r="I334" s="54"/>
+      <c r="J334" s="55"/>
+    </row>
+    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="53"/>
+      <c r="B335" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C335" s="56" t="s">
+        <v>433</v>
+      </c>
+      <c r="D335" s="57"/>
+      <c r="E335" s="56"/>
+      <c r="F335" s="81"/>
+      <c r="G335" s="81"/>
+      <c r="H335" s="56"/>
+      <c r="I335" s="56"/>
+      <c r="J335" s="57"/>
+    </row>
+    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="B336" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C336" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="D336" s="55"/>
+      <c r="E336" s="54"/>
+      <c r="F336" s="80"/>
+      <c r="G336" s="80"/>
+      <c r="H336" s="54"/>
+      <c r="I336" s="54"/>
+      <c r="J336" s="55"/>
+    </row>
+    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="53"/>
+      <c r="B337" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C337" s="56" t="s">
+        <v>433</v>
+      </c>
+      <c r="D337" s="57"/>
+      <c r="E337" s="56"/>
+      <c r="F337" s="81"/>
+      <c r="G337" s="81"/>
+      <c r="H337" s="56"/>
+      <c r="I337" s="56"/>
+      <c r="J337" s="57"/>
+    </row>
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="B338" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C338" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="D338" s="55"/>
+      <c r="E338" s="54"/>
+      <c r="F338" s="80"/>
+      <c r="G338" s="80"/>
+      <c r="H338" s="54"/>
+      <c r="I338" s="54"/>
+      <c r="J338" s="55"/>
+    </row>
+    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="53"/>
+      <c r="B339" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C339" s="56" t="s">
+        <v>433</v>
+      </c>
+      <c r="D339" s="57"/>
+      <c r="E339" s="56"/>
+      <c r="F339" s="81"/>
+      <c r="G339" s="81"/>
+      <c r="H339" s="56"/>
+      <c r="I339" s="56"/>
+      <c r="J339" s="57"/>
+    </row>
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="B340" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C340" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="D340" s="55"/>
+      <c r="E340" s="54"/>
+      <c r="F340" s="80"/>
+      <c r="G340" s="80"/>
+      <c r="H340" s="54"/>
+      <c r="I340" s="54"/>
+      <c r="J340" s="55"/>
+    </row>
+    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="53"/>
+      <c r="B341" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C341" s="56" t="s">
+        <v>433</v>
+      </c>
+      <c r="D341" s="57"/>
+      <c r="E341" s="56"/>
+      <c r="F341" s="81"/>
+      <c r="G341" s="81"/>
+      <c r="H341" s="56"/>
+      <c r="I341" s="56"/>
+      <c r="J341" s="57"/>
+    </row>
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="B342" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C342" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="D342" s="55"/>
+      <c r="E342" s="54"/>
+      <c r="F342" s="80"/>
+      <c r="G342" s="80"/>
+      <c r="H342" s="54"/>
+      <c r="I342" s="54"/>
+      <c r="J342" s="55"/>
+    </row>
+    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="53"/>
+      <c r="B343" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C343" s="56" t="s">
+        <v>433</v>
+      </c>
+      <c r="D343" s="57"/>
+      <c r="E343" s="56"/>
+      <c r="F343" s="81"/>
+      <c r="G343" s="81"/>
+      <c r="H343" s="56"/>
+      <c r="I343" s="56"/>
+      <c r="J343" s="57"/>
+    </row>
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="B344" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C344" s="69" t="s">
+        <v>433</v>
+      </c>
+      <c r="D344" s="42"/>
+      <c r="E344" s="69"/>
+      <c r="F344" s="43"/>
+      <c r="G344" s="43"/>
+      <c r="H344" s="69"/>
+      <c r="I344" s="69"/>
+      <c r="J344" s="42"/>
+    </row>
+    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="68"/>
+      <c r="B345" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C345" s="70" t="s">
+        <v>433</v>
+      </c>
+      <c r="D345" s="46"/>
+      <c r="E345" s="70"/>
+      <c r="F345" s="47"/>
+      <c r="G345" s="47"/>
+      <c r="H345" s="70"/>
+      <c r="I345" s="70"/>
+      <c r="J345" s="46"/>
+    </row>
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="68" t="s">
+        <v>240</v>
+      </c>
+      <c r="B346" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C346" s="69" t="s">
+        <v>433</v>
+      </c>
+      <c r="D346" s="42"/>
+      <c r="E346" s="69"/>
+      <c r="F346" s="43"/>
+      <c r="G346" s="43"/>
+      <c r="H346" s="69"/>
+      <c r="I346" s="69"/>
+      <c r="J346" s="42"/>
+    </row>
+    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="68"/>
+      <c r="B347" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C347" s="70" t="s">
+        <v>433</v>
+      </c>
+      <c r="D347" s="46"/>
+      <c r="E347" s="70"/>
+      <c r="F347" s="47"/>
+      <c r="G347" s="47"/>
+      <c r="H347" s="70"/>
+      <c r="I347" s="70"/>
+      <c r="J347" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="171">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="A224:A225"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="A230:A231"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="A234:A235"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="A242:A243"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="A252:A253"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="A258:A259"/>
+    <mergeCell ref="A260:A261"/>
+    <mergeCell ref="A264:A265"/>
+    <mergeCell ref="A266:A267"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="A270:A271"/>
+    <mergeCell ref="A272:A273"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="A276:A277"/>
+    <mergeCell ref="A278:A279"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="A282:A283"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="A288:A289"/>
+    <mergeCell ref="A290:A291"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="A294:A295"/>
+    <mergeCell ref="A296:A297"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="A300:A301"/>
+    <mergeCell ref="A302:A303"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="A306:A307"/>
+    <mergeCell ref="A308:A309"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="A312:A313"/>
+    <mergeCell ref="A314:A315"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="A318:A319"/>
+    <mergeCell ref="A320:A321"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="A324:A325"/>
+    <mergeCell ref="A326:A327"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="A330:A331"/>
+    <mergeCell ref="A332:A333"/>
+    <mergeCell ref="A334:A335"/>
+    <mergeCell ref="A336:A337"/>
+    <mergeCell ref="A338:A339"/>
+    <mergeCell ref="A340:A341"/>
+    <mergeCell ref="A342:A343"/>
+    <mergeCell ref="A344:A345"/>
+    <mergeCell ref="A346:A347"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I6:I89 I92:I175 I178:I261 I264:I347">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I89 I92:I175 I178:I261 I264:I347" type="list">
+      <formula1>"OK,NOK,N/A"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/DSP/ATA-Backend/Mapping DSP.xlsx
+++ b/DSP/ATA-Backend/Mapping DSP.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4985" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4973" uniqueCount="787">
   <si>
     <t xml:space="preserve">Digitizer</t>
   </si>
@@ -24217,8 +24217,8 @@
   </sheetPr>
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F154" activeCellId="0" sqref="F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24333,7 +24333,9 @@
         <v>-14.8</v>
       </c>
       <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
+      <c r="I7" s="30" t="s">
+        <v>786</v>
+      </c>
       <c r="J7" s="31"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25625,11 +25627,11 @@
         <v>98</v>
       </c>
       <c r="D70" s="55"/>
-      <c r="E70" s="54" t="n">
+      <c r="E70" s="54"/>
+      <c r="F70" s="80"/>
+      <c r="G70" s="80" t="n">
         <v>-22</v>
       </c>
-      <c r="F70" s="80"/>
-      <c r="G70" s="80"/>
       <c r="H70" s="54"/>
       <c r="I70" s="54"/>
       <c r="J70" s="55"/>
@@ -25643,11 +25645,11 @@
         <v>98</v>
       </c>
       <c r="D71" s="57"/>
-      <c r="E71" s="56" t="n">
+      <c r="E71" s="56"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="81" t="n">
         <v>-41.5</v>
       </c>
-      <c r="F71" s="81"/>
-      <c r="G71" s="81"/>
       <c r="H71" s="56"/>
       <c r="I71" s="56"/>
       <c r="J71" s="57"/>
@@ -26800,8 +26802,8 @@
       <c r="E126" s="40" t="n">
         <v>-14</v>
       </c>
-      <c r="F126" s="76" t="s">
-        <v>100</v>
+      <c r="F126" s="76" t="n">
+        <v>0</v>
       </c>
       <c r="G126" s="76" t="n">
         <v>-14</v>
@@ -26822,8 +26824,8 @@
       <c r="E127" s="44" t="n">
         <v>-15.2</v>
       </c>
-      <c r="F127" s="77" t="s">
-        <v>100</v>
+      <c r="F127" s="77" t="n">
+        <v>0</v>
       </c>
       <c r="G127" s="77" t="n">
         <v>-15.2</v>
@@ -26846,8 +26848,8 @@
       <c r="E128" s="40" t="n">
         <v>-19.3</v>
       </c>
-      <c r="F128" s="76" t="s">
-        <v>100</v>
+      <c r="F128" s="76" t="n">
+        <v>0</v>
       </c>
       <c r="G128" s="76" t="n">
         <v>-19.3</v>
@@ -26868,8 +26870,8 @@
       <c r="E129" s="44" t="n">
         <v>-21.1</v>
       </c>
-      <c r="F129" s="77" t="s">
-        <v>100</v>
+      <c r="F129" s="77" t="n">
+        <v>0</v>
       </c>
       <c r="G129" s="77" t="n">
         <v>-21.1</v>
@@ -26938,8 +26940,8 @@
       <c r="E132" s="40" t="n">
         <v>-15.5</v>
       </c>
-      <c r="F132" s="76" t="s">
-        <v>100</v>
+      <c r="F132" s="76" t="n">
+        <v>0</v>
       </c>
       <c r="G132" s="76" t="n">
         <v>-15.5</v>
@@ -26960,8 +26962,8 @@
       <c r="E133" s="44" t="n">
         <v>-16</v>
       </c>
-      <c r="F133" s="77" t="s">
-        <v>100</v>
+      <c r="F133" s="77" t="n">
+        <v>0</v>
       </c>
       <c r="G133" s="77" t="n">
         <v>-16</v>
@@ -27030,8 +27032,8 @@
       <c r="E136" s="40" t="n">
         <v>-14.5</v>
       </c>
-      <c r="F136" s="76" t="s">
-        <v>100</v>
+      <c r="F136" s="76" t="n">
+        <v>0</v>
       </c>
       <c r="G136" s="76" t="n">
         <v>-14.5</v>
@@ -27052,8 +27054,8 @@
       <c r="E137" s="44" t="n">
         <v>-19.1</v>
       </c>
-      <c r="F137" s="77" t="s">
-        <v>100</v>
+      <c r="F137" s="77" t="n">
+        <v>0</v>
       </c>
       <c r="G137" s="77" t="n">
         <v>-19.1</v>
@@ -27224,8 +27226,8 @@
       <c r="E146" s="49" t="n">
         <v>-17.3</v>
       </c>
-      <c r="F146" s="78" t="s">
-        <v>100</v>
+      <c r="F146" s="78" t="n">
+        <v>0</v>
       </c>
       <c r="G146" s="78" t="n">
         <v>-17.3</v>
@@ -27246,8 +27248,8 @@
       <c r="E147" s="51" t="n">
         <v>-36.1</v>
       </c>
-      <c r="F147" s="79" t="s">
-        <v>100</v>
+      <c r="F147" s="79" t="n">
+        <v>0</v>
       </c>
       <c r="G147" s="79" t="n">
         <v>-36.1</v>
@@ -27316,8 +27318,8 @@
       <c r="E150" s="49" t="n">
         <v>-14.6</v>
       </c>
-      <c r="F150" s="78" t="s">
-        <v>100</v>
+      <c r="F150" s="78" t="n">
+        <v>0</v>
       </c>
       <c r="G150" s="78" t="n">
         <v>-14.6</v>
@@ -27338,8 +27340,8 @@
       <c r="E151" s="51" t="n">
         <v>-16.4</v>
       </c>
-      <c r="F151" s="79" t="s">
-        <v>100</v>
+      <c r="F151" s="79" t="n">
+        <v>0</v>
       </c>
       <c r="G151" s="79" t="n">
         <v>-16.4</v>
@@ -27406,9 +27408,7 @@
       </c>
       <c r="D154" s="50"/>
       <c r="E154" s="49"/>
-      <c r="F154" s="78" t="s">
-        <v>100</v>
-      </c>
+      <c r="F154" s="78"/>
       <c r="G154" s="78"/>
       <c r="H154" s="49"/>
       <c r="I154" s="49"/>
